--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1009"/>
+  <dimension ref="A1:T1019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79400,36 +79400,36 @@
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="N988" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O988" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P988" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T988" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="989">
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79480,36 +79480,36 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N989" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O989" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P989" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T989" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="990">
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79560,36 +79560,36 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="N990" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O990" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P990" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T990" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="991">
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79635,7 +79635,7 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
@@ -79644,32 +79644,32 @@
         </is>
       </c>
       <c r="M991" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="N991" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O991" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P991" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T991" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="992">
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -79715,7 +79715,7 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
@@ -79724,32 +79724,32 @@
         </is>
       </c>
       <c r="M992" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="N992" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="O992" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="P992" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>667</v>
+        <v>425</v>
       </c>
       <c r="T992" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="993">
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79800,36 +79800,36 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N993" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O993" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P993" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R993" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S993" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T993" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="994">
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79880,36 +79880,36 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="N994" t="n">
-        <v>12000</v>
+        <v>190000</v>
       </c>
       <c r="O994" t="n">
-        <v>12000</v>
+        <v>190000</v>
       </c>
       <c r="P994" t="n">
-        <v>12000</v>
+        <v>190000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R994" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S994" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="T994" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="995">
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79960,24 +79960,24 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="N995" t="n">
         <v>10000</v>
       </c>
       <c r="O995" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P995" t="n">
-        <v>10000</v>
+        <v>10308</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R995" t="inlineStr">
@@ -79986,10 +79986,10 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>667</v>
+        <v>573</v>
       </c>
       <c r="T995" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="996">
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80035,7 +80035,7 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
@@ -80044,32 +80044,32 @@
         </is>
       </c>
       <c r="M996" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="N996" t="n">
-        <v>14000</v>
+        <v>140000</v>
       </c>
       <c r="O996" t="n">
-        <v>14000</v>
+        <v>140000</v>
       </c>
       <c r="P996" t="n">
-        <v>14000</v>
+        <v>140000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>933</v>
+        <v>350</v>
       </c>
       <c r="T996" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="997">
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80115,41 +80115,41 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M997" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N997" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O997" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P997" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T997" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="998">
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80195,25 +80195,25 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N998" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O998" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P998" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80226,7 +80226,7 @@
         </is>
       </c>
       <c r="S998" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T998" t="n">
         <v>15</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80280,24 +80280,24 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N999" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O999" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P999" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R999" t="inlineStr">
@@ -80306,10 +80306,10 @@
         </is>
       </c>
       <c r="S999" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T999" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1000">
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80360,33 +80360,33 @@
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N1000" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1000" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1000" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T1000" t="n">
         <v>15</v>
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80435,7 +80435,7 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
@@ -80444,29 +80444,29 @@
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N1001" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1001" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1001" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1001" t="n">
         <v>15</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80520,24 +80520,24 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="N1002" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O1002" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P1002" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1002" t="inlineStr">
@@ -80546,10 +80546,10 @@
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T1002" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1003">
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80595,29 +80595,29 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="N1003" t="n">
-        <v>190000</v>
+        <v>14000</v>
       </c>
       <c r="O1003" t="n">
-        <v>190000</v>
+        <v>14000</v>
       </c>
       <c r="P1003" t="n">
-        <v>190000</v>
+        <v>14000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1003" t="inlineStr">
@@ -80626,10 +80626,10 @@
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>475</v>
+        <v>933</v>
       </c>
       <c r="T1003" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1004">
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80675,29 +80675,29 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N1004" t="n">
-        <v>170000</v>
+        <v>12000</v>
       </c>
       <c r="O1004" t="n">
-        <v>170000</v>
+        <v>12000</v>
       </c>
       <c r="P1004" t="n">
-        <v>170000</v>
+        <v>12000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1004" t="inlineStr">
@@ -80706,10 +80706,10 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>425</v>
+        <v>800</v>
       </c>
       <c r="T1004" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1005">
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -80755,29 +80755,29 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N1005" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="O1005" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="P1005" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1005" t="inlineStr">
@@ -80786,10 +80786,10 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="T1005" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1006">
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80835,29 +80835,29 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="N1006" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="O1006" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="P1006" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1006" t="inlineStr">
@@ -80866,10 +80866,10 @@
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>450</v>
+        <v>933</v>
       </c>
       <c r="T1006" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1007">
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80915,29 +80915,29 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="N1007" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="O1007" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="P1007" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
@@ -80946,10 +80946,10 @@
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T1007" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1008">
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -80995,29 +80995,29 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="N1008" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="O1008" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="P1008" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1008" t="inlineStr">
@@ -81026,10 +81026,10 @@
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>325</v>
+        <v>667</v>
       </c>
       <c r="T1008" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1009">
@@ -81047,68 +81047,868 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1009" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1009" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1009" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1009" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M1009" t="n">
+        <v>280</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q1009" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1009" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1009" t="n">
+        <v>778</v>
+      </c>
+      <c r="T1009" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1010" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1010" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1010" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1010" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1010" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1010" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1010" t="n">
+        <v>85</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1010" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1010" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1010" t="n">
+        <v>800</v>
+      </c>
+      <c r="T1010" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1011" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1011" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1011" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1011" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1011" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1011" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1011" t="n">
+        <v>100</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1011" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1011" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1011" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1011" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1012" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1012" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1012" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1012" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1012" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1012" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M1012" t="n">
+        <v>210</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q1012" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1012" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1012" t="n">
+        <v>778</v>
+      </c>
+      <c r="T1012" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1013" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E1009" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1009" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1009" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I1009" t="n">
-        <v>100104002</v>
-      </c>
-      <c r="J1009" t="inlineStr">
-        <is>
-          <t>Manzana</t>
-        </is>
-      </c>
-      <c r="K1009" t="inlineStr">
+      <c r="E1013" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1013" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1013" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1013" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1013" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1013" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1013" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>190000</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>190000</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>190000</v>
+      </c>
+      <c r="Q1013" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1013" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1013" t="n">
+        <v>475</v>
+      </c>
+      <c r="T1013" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1014" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1014" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1014" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1014" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1014" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1014" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1014" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q1014" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1014" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1014" t="n">
+        <v>425</v>
+      </c>
+      <c r="T1014" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1015" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1015" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1015" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1015" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1015" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1015" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1015" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>140000</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>140000</v>
+      </c>
+      <c r="Q1015" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1015" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1015" t="n">
+        <v>350</v>
+      </c>
+      <c r="T1015" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1016" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1016" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1016" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1016" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1016" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1016" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1016" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1016" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1016" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1016" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1016" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1017" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1017" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1017" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1017" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1017" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1017" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q1017" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1017" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1017" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1017" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1018" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1018" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1018" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1018" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1018" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>130000</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>130000</v>
+      </c>
+      <c r="Q1018" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1018" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1018" t="n">
+        <v>325</v>
+      </c>
+      <c r="T1018" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1019" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1019" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1019" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1019" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1019" t="inlineStr">
         <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L1009" t="inlineStr">
+      <c r="L1019" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1009" t="n">
+      <c r="M1019" t="n">
         <v>6</v>
       </c>
-      <c r="N1009" t="n">
+      <c r="N1019" t="n">
         <v>125000</v>
       </c>
-      <c r="O1009" t="n">
+      <c r="O1019" t="n">
         <v>125000</v>
       </c>
-      <c r="P1009" t="n">
+      <c r="P1019" t="n">
         <v>125000</v>
       </c>
-      <c r="Q1009" t="inlineStr">
+      <c r="Q1019" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R1009" t="inlineStr">
+      <c r="R1019" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1009" t="n">
+      <c r="S1019" t="n">
         <v>312</v>
       </c>
-      <c r="T1009" t="n">
+      <c r="T1019" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1055"/>
+  <dimension ref="A1:T1058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -78520,36 +78520,36 @@
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="N977" t="n">
-        <v>9000</v>
+        <v>190000</v>
       </c>
       <c r="O977" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P977" t="n">
-        <v>9500</v>
+        <v>194444</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R977" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S977" t="n">
-        <v>633</v>
+        <v>486</v>
       </c>
       <c r="T977" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="978">
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -78595,29 +78595,29 @@
       </c>
       <c r="K978" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="N978" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="O978" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="P978" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R978" t="inlineStr">
@@ -78626,10 +78626,10 @@
         </is>
       </c>
       <c r="S978" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="T978" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="979">
@@ -78647,7 +78647,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -78675,7 +78675,7 @@
       </c>
       <c r="K979" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L979" t="inlineStr">
@@ -78684,32 +78684,32 @@
         </is>
       </c>
       <c r="M979" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="N979" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O979" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P979" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T979" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="980">
@@ -78760,24 +78760,24 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N980" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="O980" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="P980" t="n">
-        <v>160000</v>
+        <v>9500</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R980" t="inlineStr">
@@ -78786,10 +78786,10 @@
         </is>
       </c>
       <c r="S980" t="n">
-        <v>400</v>
+        <v>633</v>
       </c>
       <c r="T980" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="981">
@@ -78840,24 +78840,24 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N981" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O981" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="P981" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R981" t="inlineStr">
@@ -78866,10 +78866,10 @@
         </is>
       </c>
       <c r="S981" t="n">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="T981" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="982">
@@ -78915,25 +78915,25 @@
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M982" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N982" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O982" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P982" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78946,7 +78946,7 @@
         </is>
       </c>
       <c r="S982" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T982" t="n">
         <v>15</v>
@@ -78995,7 +78995,7 @@
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
@@ -79004,20 +79004,20 @@
         </is>
       </c>
       <c r="M983" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N983" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="O983" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="P983" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R983" t="inlineStr">
@@ -79026,10 +79026,10 @@
         </is>
       </c>
       <c r="S983" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="T983" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="984">
@@ -79075,29 +79075,29 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N984" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="O984" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="P984" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R984" t="inlineStr">
@@ -79106,10 +79106,10 @@
         </is>
       </c>
       <c r="S984" t="n">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="T984" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="985">
@@ -79160,20 +79160,20 @@
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N985" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O985" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P985" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
@@ -79186,7 +79186,7 @@
         </is>
       </c>
       <c r="S985" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T985" t="n">
         <v>15</v>
@@ -79235,29 +79235,29 @@
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N986" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O986" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P986" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R986" t="inlineStr">
@@ -79266,7 +79266,7 @@
         </is>
       </c>
       <c r="S986" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T986" t="n">
         <v>15</v>
@@ -79315,7 +79315,7 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
@@ -79324,20 +79324,20 @@
         </is>
       </c>
       <c r="M987" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N987" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="O987" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="P987" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R987" t="inlineStr">
@@ -79346,10 +79346,10 @@
         </is>
       </c>
       <c r="S987" t="n">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="T987" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="988">
@@ -79395,7 +79395,7 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
@@ -79404,7 +79404,7 @@
         </is>
       </c>
       <c r="M988" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N988" t="n">
         <v>5000</v>
@@ -79417,7 +79417,7 @@
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79475,41 +79475,41 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N989" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O989" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P989" t="n">
-        <v>17400</v>
+        <v>9000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>967</v>
+        <v>600</v>
       </c>
       <c r="T989" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="990">
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79555,7 +79555,7 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
@@ -79564,32 +79564,32 @@
         </is>
       </c>
       <c r="M990" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N990" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O990" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="P990" t="n">
-        <v>206250</v>
+        <v>7000</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="T990" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="991">
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79635,41 +79635,41 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M991" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N991" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O991" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P991" t="n">
-        <v>17375</v>
+        <v>5000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>965</v>
+        <v>333</v>
       </c>
       <c r="T991" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="992">
@@ -79715,29 +79715,29 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M992" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="N992" t="n">
-        <v>200000</v>
+        <v>17000</v>
       </c>
       <c r="O992" t="n">
-        <v>220000</v>
+        <v>18000</v>
       </c>
       <c r="P992" t="n">
-        <v>211111</v>
+        <v>17400</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R992" t="inlineStr">
@@ -79746,10 +79746,10 @@
         </is>
       </c>
       <c r="S992" t="n">
-        <v>528</v>
+        <v>967</v>
       </c>
       <c r="T992" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="993">
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79800,24 +79800,24 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>Calibre 88</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="N993" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="O993" t="n">
-        <v>14000</v>
+        <v>210000</v>
       </c>
       <c r="P993" t="n">
-        <v>14000</v>
+        <v>206250</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R993" t="inlineStr">
@@ -79826,10 +79826,10 @@
         </is>
       </c>
       <c r="S993" t="n">
-        <v>778</v>
+        <v>516</v>
       </c>
       <c r="T993" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="994">
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79880,20 +79880,20 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>Calibre 88</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N994" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O994" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P994" t="n">
-        <v>14000</v>
+        <v>17375</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
@@ -79906,7 +79906,7 @@
         </is>
       </c>
       <c r="S994" t="n">
-        <v>778</v>
+        <v>965</v>
       </c>
       <c r="T994" t="n">
         <v>18</v>
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79955,29 +79955,29 @@
       </c>
       <c r="K995" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="N995" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="O995" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="P995" t="n">
-        <v>14000</v>
+        <v>211111</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R995" t="inlineStr">
@@ -79986,10 +79986,10 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>778</v>
+        <v>528</v>
       </c>
       <c r="T995" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="996">
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80040,36 +80040,36 @@
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 88</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="N996" t="n">
-        <v>210000</v>
+        <v>14000</v>
       </c>
       <c r="O996" t="n">
-        <v>210000</v>
+        <v>14000</v>
       </c>
       <c r="P996" t="n">
-        <v>210000</v>
+        <v>14000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>525</v>
+        <v>778</v>
       </c>
       <c r="T996" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="997">
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80115,29 +80115,29 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 88</t>
         </is>
       </c>
       <c r="M997" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N997" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O997" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P997" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R997" t="inlineStr">
@@ -80146,10 +80146,10 @@
         </is>
       </c>
       <c r="S997" t="n">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="T997" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="998">
@@ -80200,36 +80200,36 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="N998" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="O998" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="P998" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>450</v>
+        <v>778</v>
       </c>
       <c r="T998" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="999">
@@ -80280,36 +80280,36 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="N999" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="O999" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="P999" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="T999" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1000">
@@ -80360,36 +80360,36 @@
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N1000" t="n">
-        <v>150000</v>
+        <v>11000</v>
       </c>
       <c r="O1000" t="n">
-        <v>150000</v>
+        <v>11000</v>
       </c>
       <c r="P1000" t="n">
-        <v>150000</v>
+        <v>11000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>375</v>
+        <v>733</v>
       </c>
       <c r="T1000" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1001">
@@ -80435,41 +80435,41 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="N1001" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="O1001" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="P1001" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>722</v>
+        <v>450</v>
       </c>
       <c r="T1001" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1002">
@@ -80515,41 +80515,41 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="N1002" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="O1002" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="P1002" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="T1002" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1003">
@@ -80595,41 +80595,41 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="N1003" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O1003" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P1003" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>667</v>
+        <v>375</v>
       </c>
       <c r="T1003" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1004">
@@ -80680,36 +80680,36 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="N1004" t="n">
-        <v>170000</v>
+        <v>13000</v>
       </c>
       <c r="O1004" t="n">
-        <v>170000</v>
+        <v>13000</v>
       </c>
       <c r="P1004" t="n">
-        <v>170000</v>
+        <v>13000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>425</v>
+        <v>722</v>
       </c>
       <c r="T1004" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1005">
@@ -80760,36 +80760,36 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="N1005" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="O1005" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="P1005" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="T1005" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1006">
@@ -80840,36 +80840,36 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="N1006" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="O1006" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="P1006" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="T1006" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1007">
@@ -80915,41 +80915,41 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="N1007" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="O1007" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="P1007" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>667</v>
+        <v>425</v>
       </c>
       <c r="T1007" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1008">
@@ -80995,41 +80995,41 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="N1008" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="O1008" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="P1008" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="T1008" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1009">
@@ -81075,25 +81075,25 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N1009" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O1009" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P1009" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="T1009" t="n">
         <v>400</v>
@@ -81155,41 +81155,41 @@
       </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="N1010" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O1010" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P1010" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="T1010" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1011">
@@ -81235,25 +81235,25 @@
       </c>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N1011" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="O1011" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="P1011" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81266,7 +81266,7 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="T1011" t="n">
         <v>400</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81315,7 +81315,7 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
@@ -81324,20 +81324,20 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="N1012" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="O1012" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="P1012" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1012" t="inlineStr">
@@ -81346,10 +81346,10 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>933</v>
+        <v>400</v>
       </c>
       <c r="T1012" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1013">
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81395,29 +81395,29 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="N1013" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="O1013" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="P1013" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1013" t="inlineStr">
@@ -81426,10 +81426,10 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>778</v>
+        <v>550</v>
       </c>
       <c r="T1013" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1014">
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81475,7 +81475,7 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
@@ -81484,20 +81484,20 @@
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="N1014" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="O1014" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="P1014" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1014" t="inlineStr">
@@ -81506,10 +81506,10 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>667</v>
+        <v>475</v>
       </c>
       <c r="T1014" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1015">
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81555,16 +81555,16 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N1015" t="n">
         <v>14000</v>
@@ -81577,19 +81577,19 @@
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="T1015" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1016">
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81635,25 +81635,25 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N1016" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O1016" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1016" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81662,11 +81662,11 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T1016" t="n">
         <v>18</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81715,29 +81715,29 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N1017" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="O1017" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="P1017" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
@@ -81746,10 +81746,10 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T1017" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1018">
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81795,41 +81795,41 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="N1018" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="O1018" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="P1018" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>625</v>
+        <v>778</v>
       </c>
       <c r="T1018" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1019">
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81875,41 +81875,41 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N1019" t="n">
-        <v>150000</v>
+        <v>13000</v>
       </c>
       <c r="O1019" t="n">
-        <v>150000</v>
+        <v>13000</v>
       </c>
       <c r="P1019" t="n">
-        <v>150000</v>
+        <v>13000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>375</v>
+        <v>722</v>
       </c>
       <c r="T1019" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1020">
@@ -81955,25 +81955,25 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1020" t="n">
         <v>5</v>
       </c>
       <c r="N1020" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="O1020" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="P1020" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81986,7 +81986,7 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>275</v>
+        <v>750</v>
       </c>
       <c r="T1020" t="n">
         <v>400</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -82035,29 +82035,29 @@
       </c>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="N1021" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="O1021" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="P1021" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
@@ -82066,10 +82066,10 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>933</v>
+        <v>625</v>
       </c>
       <c r="T1021" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1022">
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -82115,7 +82115,7 @@
       </c>
       <c r="K1022" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1022" t="inlineStr">
@@ -82124,20 +82124,20 @@
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N1022" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O1022" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P1022" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1022" t="inlineStr">
@@ -82146,10 +82146,10 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="T1022" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1023">
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -82195,7 +82195,7 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
@@ -82204,20 +82204,20 @@
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N1023" t="n">
-        <v>9000</v>
+        <v>110000</v>
       </c>
       <c r="O1023" t="n">
-        <v>9000</v>
+        <v>110000</v>
       </c>
       <c r="P1023" t="n">
-        <v>9000</v>
+        <v>110000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1023" t="inlineStr">
@@ -82226,10 +82226,10 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="T1023" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1024">
@@ -82275,7 +82275,7 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
@@ -82284,7 +82284,7 @@
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N1024" t="n">
         <v>14000</v>
@@ -82355,7 +82355,7 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
@@ -82364,7 +82364,7 @@
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N1025" t="n">
         <v>12000</v>
@@ -82435,7 +82435,7 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
@@ -82444,7 +82444,7 @@
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N1026" t="n">
         <v>9000</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82515,29 +82515,29 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N1027" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1027" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1027" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1027" t="inlineStr">
@@ -82546,7 +82546,7 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1027" t="n">
         <v>15</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82595,29 +82595,29 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N1028" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1028" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1028" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1028" t="inlineStr">
@@ -82626,7 +82626,7 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1028" t="n">
         <v>15</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82675,25 +82675,25 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N1029" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O1029" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P1029" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82702,11 +82702,11 @@
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T1029" t="n">
         <v>15</v>
@@ -82755,38 +82755,38 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1030" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O1030" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P1030" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T1030" t="n">
         <v>15</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82835,16 +82835,16 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N1031" t="n">
         <v>10000</v>
@@ -82857,7 +82857,7 @@
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1031" t="inlineStr">
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82915,7 +82915,7 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
@@ -82924,7 +82924,7 @@
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N1032" t="n">
         <v>8000</v>
@@ -82942,7 +82942,7 @@
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S1032" t="n">
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -82995,7 +82995,7 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
@@ -83004,7 +83004,7 @@
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N1033" t="n">
         <v>6000</v>
@@ -83022,7 +83022,7 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S1033" t="n">
@@ -83075,7 +83075,7 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
@@ -83084,16 +83084,16 @@
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N1034" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O1034" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1034" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T1034" t="n">
         <v>15</v>
@@ -83155,7 +83155,7 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
@@ -83164,16 +83164,16 @@
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N1035" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O1035" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1035" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83186,7 +83186,7 @@
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T1035" t="n">
         <v>15</v>
@@ -83235,7 +83235,7 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
@@ -83247,13 +83247,13 @@
         <v>50</v>
       </c>
       <c r="N1036" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1036" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P1036" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83266,7 +83266,7 @@
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T1036" t="n">
         <v>15</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83315,7 +83315,7 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
@@ -83324,32 +83324,32 @@
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="N1037" t="n">
-        <v>210000</v>
+        <v>9000</v>
       </c>
       <c r="O1037" t="n">
-        <v>210000</v>
+        <v>9000</v>
       </c>
       <c r="P1037" t="n">
-        <v>210000</v>
+        <v>9000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="T1037" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1038">
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83395,41 +83395,41 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="N1038" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O1038" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P1038" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T1038" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1039">
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83475,41 +83475,41 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N1039" t="n">
-        <v>190000</v>
+        <v>5000</v>
       </c>
       <c r="O1039" t="n">
-        <v>190000</v>
+        <v>5000</v>
       </c>
       <c r="P1039" t="n">
-        <v>190000</v>
+        <v>5000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>475</v>
+        <v>333</v>
       </c>
       <c r="T1039" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1040">
@@ -83560,36 +83560,36 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="N1040" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="O1040" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="P1040" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="T1040" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1041">
@@ -83640,36 +83640,36 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="N1041" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="O1041" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="P1041" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>425</v>
+        <v>556</v>
       </c>
       <c r="T1041" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1042">
@@ -83720,36 +83720,36 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="N1042" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="O1042" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="P1042" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="T1042" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1043">
@@ -83795,41 +83795,41 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="N1043" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="O1043" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="P1043" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T1043" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1044">
@@ -83875,41 +83875,41 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="N1044" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="O1044" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="P1044" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>556</v>
+        <v>425</v>
       </c>
       <c r="T1044" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1045">
@@ -83955,41 +83955,41 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="N1045" t="n">
-        <v>170000</v>
+        <v>7000</v>
       </c>
       <c r="O1045" t="n">
-        <v>170000</v>
+        <v>7000</v>
       </c>
       <c r="P1045" t="n">
-        <v>170000</v>
+        <v>7000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="T1045" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1046">
@@ -84040,36 +84040,36 @@
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="N1046" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="O1046" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="P1046" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="T1046" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1047">
@@ -84120,36 +84120,36 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N1047" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O1047" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P1047" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="T1047" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1048">
@@ -84200,36 +84200,36 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="N1048" t="n">
-        <v>6000</v>
+        <v>170000</v>
       </c>
       <c r="O1048" t="n">
-        <v>6000</v>
+        <v>170000</v>
       </c>
       <c r="P1048" t="n">
-        <v>6000</v>
+        <v>170000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>333</v>
+        <v>425</v>
       </c>
       <c r="T1048" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1049">
@@ -84275,41 +84275,41 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="N1049" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="O1049" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="P1049" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T1049" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1050">
@@ -84355,25 +84355,25 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N1050" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="O1050" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P1050" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84386,7 +84386,7 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="T1050" t="n">
         <v>400</v>
@@ -84435,7 +84435,7 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
@@ -84444,32 +84444,32 @@
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>7</v>
+        <v>310</v>
       </c>
       <c r="N1051" t="n">
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="O1051" t="n">
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="P1051" t="n">
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="T1051" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1052">
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84515,12 +84515,12 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1052" t="n">
@@ -84542,7 +84542,7 @@
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1052" t="n">
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84595,16 +84595,16 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1053" t="n">
         <v>140000</v>
@@ -84622,7 +84622,7 @@
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1053" t="n">
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84675,25 +84675,25 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1054" t="n">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="O1054" t="n">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="P1054" t="n">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84702,11 +84702,11 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>475</v>
+        <v>275</v>
       </c>
       <c r="T1054" t="n">
         <v>400</v>
@@ -84755,40 +84755,280 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1055" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q1055" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1055" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1055" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1055" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1056" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1056" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1056" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1056" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1056" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>140000</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>140000</v>
+      </c>
+      <c r="Q1056" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1056" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1056" t="n">
+        <v>350</v>
+      </c>
+      <c r="T1056" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1057" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1057" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1057" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1057" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
           <t>Granny Smith</t>
         </is>
       </c>
-      <c r="L1055" t="inlineStr">
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1057" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>190000</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>190000</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>190000</v>
+      </c>
+      <c r="Q1057" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1057" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1057" t="n">
+        <v>475</v>
+      </c>
+      <c r="T1057" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1058" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1058" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1058" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1058" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1058" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1055" t="n">
+      <c r="M1058" t="n">
         <v>10</v>
       </c>
-      <c r="N1055" t="n">
+      <c r="N1058" t="n">
         <v>170000</v>
       </c>
-      <c r="O1055" t="n">
+      <c r="O1058" t="n">
         <v>170000</v>
       </c>
-      <c r="P1055" t="n">
+      <c r="P1058" t="n">
         <v>170000</v>
       </c>
-      <c r="Q1055" t="inlineStr">
+      <c r="Q1058" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R1055" t="inlineStr">
+      <c r="R1058" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S1055" t="n">
+      <c r="S1058" t="n">
         <v>425</v>
       </c>
-      <c r="T1055" t="n">
+      <c r="T1058" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1092"/>
+  <dimension ref="A1:T1095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -77004,32 +77004,32 @@
         </is>
       </c>
       <c r="M958" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N958" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="O958" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="P958" t="n">
-        <v>13000</v>
+        <v>224444</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R958" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S958" t="n">
-        <v>722</v>
+        <v>561</v>
       </c>
       <c r="T958" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="959">
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -77075,25 +77075,25 @@
       </c>
       <c r="K959" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M959" t="n">
-        <v>80</v>
+        <v>760</v>
       </c>
       <c r="N959" t="n">
         <v>11000</v>
       </c>
       <c r="O959" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P959" t="n">
-        <v>11000</v>
+        <v>11461</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
@@ -77102,11 +77102,11 @@
       </c>
       <c r="R959" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S959" t="n">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="T959" t="n">
         <v>18</v>
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -77155,25 +77155,25 @@
       </c>
       <c r="K960" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L960" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M960" t="n">
-        <v>110</v>
+        <v>650</v>
       </c>
       <c r="N960" t="n">
         <v>9000</v>
       </c>
       <c r="O960" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P960" t="n">
-        <v>9000</v>
+        <v>9462</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
@@ -77182,11 +77182,11 @@
       </c>
       <c r="R960" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S960" t="n">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="T960" t="n">
         <v>18</v>
@@ -77235,7 +77235,7 @@
       </c>
       <c r="K961" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L961" t="inlineStr">
@@ -77244,16 +77244,16 @@
         </is>
       </c>
       <c r="M961" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N961" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O961" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P961" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
@@ -77266,7 +77266,7 @@
         </is>
       </c>
       <c r="S961" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T961" t="n">
         <v>18</v>
@@ -77315,7 +77315,7 @@
       </c>
       <c r="K962" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L962" t="inlineStr">
@@ -77324,16 +77324,16 @@
         </is>
       </c>
       <c r="M962" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N962" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O962" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P962" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
@@ -77346,7 +77346,7 @@
         </is>
       </c>
       <c r="S962" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T962" t="n">
         <v>18</v>
@@ -77395,7 +77395,7 @@
       </c>
       <c r="K963" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L963" t="inlineStr">
@@ -77404,16 +77404,16 @@
         </is>
       </c>
       <c r="M963" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N963" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O963" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P963" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
@@ -77426,7 +77426,7 @@
         </is>
       </c>
       <c r="S963" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T963" t="n">
         <v>18</v>
@@ -77447,7 +77447,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -77475,7 +77475,7 @@
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L964" t="inlineStr">
@@ -77484,7 +77484,7 @@
         </is>
       </c>
       <c r="M964" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N964" t="n">
         <v>12000</v>
@@ -77497,19 +77497,19 @@
       </c>
       <c r="Q964" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R964" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S964" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T964" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="965">
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -77555,7 +77555,7 @@
       </c>
       <c r="K965" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L965" t="inlineStr">
@@ -77564,7 +77564,7 @@
         </is>
       </c>
       <c r="M965" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N965" t="n">
         <v>10000</v>
@@ -77577,19 +77577,19 @@
       </c>
       <c r="Q965" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S965" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T965" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="966">
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -77635,7 +77635,7 @@
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
@@ -77644,7 +77644,7 @@
         </is>
       </c>
       <c r="M966" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N966" t="n">
         <v>8000</v>
@@ -77657,19 +77657,19 @@
       </c>
       <c r="Q966" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T966" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="967">
@@ -77715,7 +77715,7 @@
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
@@ -77724,16 +77724,16 @@
         </is>
       </c>
       <c r="M967" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N967" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O967" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P967" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77746,7 +77746,7 @@
         </is>
       </c>
       <c r="S967" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T967" t="n">
         <v>15</v>
@@ -77795,7 +77795,7 @@
       </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L968" t="inlineStr">
@@ -77804,16 +77804,16 @@
         </is>
       </c>
       <c r="M968" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="N968" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O968" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P968" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77826,7 +77826,7 @@
         </is>
       </c>
       <c r="S968" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T968" t="n">
         <v>15</v>
@@ -77875,7 +77875,7 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
@@ -77884,16 +77884,16 @@
         </is>
       </c>
       <c r="M969" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="N969" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O969" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P969" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77906,7 +77906,7 @@
         </is>
       </c>
       <c r="S969" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T969" t="n">
         <v>15</v>
@@ -77955,25 +77955,25 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M970" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="N970" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O970" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P970" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T970" t="n">
         <v>15</v>
@@ -78035,25 +78035,25 @@
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M971" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="N971" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O971" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P971" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78062,11 +78062,11 @@
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T971" t="n">
         <v>15</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -78115,41 +78115,41 @@
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="N972" t="n">
-        <v>280000</v>
+        <v>7000</v>
       </c>
       <c r="O972" t="n">
-        <v>280000</v>
+        <v>7000</v>
       </c>
       <c r="P972" t="n">
-        <v>280000</v>
+        <v>7000</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R972" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S972" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T972" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="973">
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -78195,41 +78195,41 @@
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M973" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="N973" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O973" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="P973" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R973" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S973" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="T973" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="974">
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -78275,38 +78275,38 @@
       </c>
       <c r="K974" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M974" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N974" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O974" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P974" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T974" t="n">
         <v>15</v>
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -78360,36 +78360,36 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="N975" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="O975" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="P975" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S975" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T975" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="976">
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -78435,25 +78435,25 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M976" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N976" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O976" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P976" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
@@ -78462,11 +78462,11 @@
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="T976" t="n">
         <v>400</v>
@@ -78520,20 +78520,20 @@
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N977" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O977" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P977" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78546,7 +78546,7 @@
         </is>
       </c>
       <c r="S977" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T977" t="n">
         <v>15</v>
@@ -78595,25 +78595,25 @@
       </c>
       <c r="K978" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N978" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O978" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P978" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
@@ -78626,7 +78626,7 @@
         </is>
       </c>
       <c r="S978" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T978" t="n">
         <v>15</v>
@@ -78675,7 +78675,7 @@
       </c>
       <c r="K979" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L979" t="inlineStr">
@@ -78684,20 +78684,20 @@
         </is>
       </c>
       <c r="M979" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N979" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="O979" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="P979" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R979" t="inlineStr">
@@ -78706,10 +78706,10 @@
         </is>
       </c>
       <c r="S979" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="T979" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="980">
@@ -78755,29 +78755,29 @@
       </c>
       <c r="K980" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N980" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="O980" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="P980" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R980" t="inlineStr">
@@ -78786,10 +78786,10 @@
         </is>
       </c>
       <c r="S980" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="T980" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="981">
@@ -78840,20 +78840,20 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N981" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O981" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P981" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78866,7 +78866,7 @@
         </is>
       </c>
       <c r="S981" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T981" t="n">
         <v>15</v>
@@ -78915,7 +78915,7 @@
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
@@ -78924,7 +78924,7 @@
         </is>
       </c>
       <c r="M982" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N982" t="n">
         <v>7000</v>
@@ -78995,29 +78995,29 @@
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M983" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="N983" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O983" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="P983" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R983" t="inlineStr">
@@ -79026,10 +79026,10 @@
         </is>
       </c>
       <c r="S983" t="n">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="T983" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="984">
@@ -79075,25 +79075,25 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N984" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O984" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P984" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79106,7 +79106,7 @@
         </is>
       </c>
       <c r="S984" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="T984" t="n">
         <v>15</v>
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -79155,29 +79155,29 @@
       </c>
       <c r="K985" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N985" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O985" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P985" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R985" t="inlineStr">
@@ -79186,10 +79186,10 @@
         </is>
       </c>
       <c r="S985" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="T985" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="986">
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -79235,41 +79235,41 @@
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="N986" t="n">
-        <v>280000</v>
+        <v>5000</v>
       </c>
       <c r="O986" t="n">
-        <v>280000</v>
+        <v>5000</v>
       </c>
       <c r="P986" t="n">
-        <v>280000</v>
+        <v>5000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="T986" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="987">
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79315,29 +79315,29 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M987" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N987" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O987" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P987" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R987" t="inlineStr">
@@ -79346,10 +79346,10 @@
         </is>
       </c>
       <c r="S987" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="T987" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="988">
@@ -79395,41 +79395,41 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="N988" t="n">
-        <v>280000</v>
+        <v>18000</v>
       </c>
       <c r="O988" t="n">
-        <v>280000</v>
+        <v>18000</v>
       </c>
       <c r="P988" t="n">
-        <v>280000</v>
+        <v>18000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T988" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="989">
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79484,16 +79484,16 @@
         </is>
       </c>
       <c r="M989" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N989" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="O989" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="P989" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79502,11 +79502,11 @@
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="T989" t="n">
         <v>400</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79555,29 +79555,29 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N990" t="n">
-        <v>160000</v>
+        <v>18000</v>
       </c>
       <c r="O990" t="n">
-        <v>160000</v>
+        <v>18000</v>
       </c>
       <c r="P990" t="n">
-        <v>160000</v>
+        <v>18000</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R990" t="inlineStr">
@@ -79586,10 +79586,10 @@
         </is>
       </c>
       <c r="S990" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T990" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="991">
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79640,20 +79640,20 @@
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Calibre 40</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M991" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N991" t="n">
-        <v>130000</v>
+        <v>280000</v>
       </c>
       <c r="O991" t="n">
-        <v>130000</v>
+        <v>280000</v>
       </c>
       <c r="P991" t="n">
-        <v>130000</v>
+        <v>280000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79662,11 +79662,11 @@
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>325</v>
+        <v>700</v>
       </c>
       <c r="T991" t="n">
         <v>400</v>
@@ -79715,25 +79715,25 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M992" t="n">
         <v>4</v>
       </c>
       <c r="N992" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O992" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P992" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79746,7 +79746,7 @@
         </is>
       </c>
       <c r="S992" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T992" t="n">
         <v>400</v>
@@ -79795,7 +79795,7 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
@@ -79804,16 +79804,16 @@
         </is>
       </c>
       <c r="M993" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N993" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O993" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P993" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
@@ -79826,7 +79826,7 @@
         </is>
       </c>
       <c r="S993" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="T993" t="n">
         <v>400</v>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79875,29 +79875,29 @@
       </c>
       <c r="K994" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 40</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="N994" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="O994" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="P994" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R994" t="inlineStr">
@@ -79906,10 +79906,10 @@
         </is>
       </c>
       <c r="S994" t="n">
-        <v>667</v>
+        <v>325</v>
       </c>
       <c r="T994" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="995">
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79955,7 +79955,7 @@
       </c>
       <c r="K995" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L995" t="inlineStr">
@@ -79964,20 +79964,20 @@
         </is>
       </c>
       <c r="M995" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N995" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="O995" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="P995" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R995" t="inlineStr">
@@ -79986,10 +79986,10 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>533</v>
+        <v>375</v>
       </c>
       <c r="T995" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="996">
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80035,29 +80035,29 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="N996" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="O996" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="P996" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R996" t="inlineStr">
@@ -80066,10 +80066,10 @@
         </is>
       </c>
       <c r="S996" t="n">
+        <v>375</v>
+      </c>
+      <c r="T996" t="n">
         <v>400</v>
-      </c>
-      <c r="T996" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="997">
@@ -80115,7 +80115,7 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
@@ -80124,16 +80124,16 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N997" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O997" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P997" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80146,7 +80146,7 @@
         </is>
       </c>
       <c r="S997" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T997" t="n">
         <v>15</v>
@@ -80195,7 +80195,7 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
@@ -80207,13 +80207,13 @@
         <v>100</v>
       </c>
       <c r="N998" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O998" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P998" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80226,7 +80226,7 @@
         </is>
       </c>
       <c r="S998" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T998" t="n">
         <v>15</v>
@@ -80275,7 +80275,7 @@
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
@@ -80284,16 +80284,16 @@
         </is>
       </c>
       <c r="M999" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N999" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O999" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P999" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80306,7 +80306,7 @@
         </is>
       </c>
       <c r="S999" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T999" t="n">
         <v>15</v>
@@ -80355,25 +80355,25 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N1000" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O1000" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P1000" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80386,7 +80386,7 @@
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T1000" t="n">
         <v>15</v>
@@ -80435,25 +80435,25 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1001" t="n">
         <v>100</v>
       </c>
       <c r="N1001" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O1001" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1001" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80466,7 +80466,7 @@
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="T1001" t="n">
         <v>15</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80515,25 +80515,25 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="N1002" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O1002" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="P1002" t="n">
-        <v>10182</v>
+        <v>5000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80542,11 +80542,11 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>679</v>
+        <v>333</v>
       </c>
       <c r="T1002" t="n">
         <v>15</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80595,7 +80595,7 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
@@ -80604,16 +80604,16 @@
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N1003" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O1003" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P1003" t="n">
-        <v>9725</v>
+        <v>7000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>648</v>
+        <v>467</v>
       </c>
       <c r="T1003" t="n">
         <v>15</v>
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80680,20 +80680,20 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N1004" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O1004" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P1004" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80702,11 +80702,11 @@
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T1004" t="n">
         <v>15</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -80764,20 +80764,20 @@
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="N1005" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O1005" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P1005" t="n">
-        <v>14000</v>
+        <v>10182</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1005" t="inlineStr">
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>933</v>
+        <v>679</v>
       </c>
       <c r="T1005" t="n">
         <v>15</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80835,29 +80835,29 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N1006" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O1006" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1006" t="n">
-        <v>12000</v>
+        <v>9725</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1006" t="inlineStr">
@@ -80866,7 +80866,7 @@
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>800</v>
+        <v>648</v>
       </c>
       <c r="T1006" t="n">
         <v>15</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80915,16 +80915,16 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="N1007" t="n">
         <v>10000</v>
@@ -80937,7 +80937,7 @@
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
@@ -80995,7 +80995,7 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
@@ -81004,7 +81004,7 @@
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1008" t="n">
         <v>14000</v>
@@ -81075,7 +81075,7 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
@@ -81084,7 +81084,7 @@
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="N1009" t="n">
         <v>12000</v>
@@ -81155,16 +81155,16 @@
       </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N1010" t="n">
         <v>10000</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81235,7 +81235,7 @@
       </c>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1011" t="inlineStr">
@@ -81244,32 +81244,32 @@
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="N1011" t="n">
-        <v>190000</v>
+        <v>14000</v>
       </c>
       <c r="O1011" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="P1011" t="n">
-        <v>194444</v>
+        <v>14000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>486</v>
+        <v>933</v>
       </c>
       <c r="T1011" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1012">
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81315,41 +81315,41 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N1012" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O1012" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P1012" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T1012" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1013">
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81395,7 +81395,7 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
@@ -81404,7 +81404,7 @@
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="N1013" t="n">
         <v>10000</v>
@@ -81417,19 +81417,19 @@
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T1013" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1014">
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81480,36 +81480,36 @@
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="N1014" t="n">
-        <v>9000</v>
+        <v>190000</v>
       </c>
       <c r="O1014" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P1014" t="n">
-        <v>9500</v>
+        <v>194444</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>633</v>
+        <v>486</v>
       </c>
       <c r="T1014" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1015">
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81555,29 +81555,29 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="N1015" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="O1015" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="P1015" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
@@ -81586,10 +81586,10 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="T1015" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1016">
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81635,7 +81635,7 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
@@ -81644,32 +81644,32 @@
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="N1016" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1016" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1016" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T1016" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1017">
@@ -81720,24 +81720,24 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N1017" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="O1017" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="P1017" t="n">
-        <v>160000</v>
+        <v>9500</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
@@ -81746,10 +81746,10 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>400</v>
+        <v>633</v>
       </c>
       <c r="T1017" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1018">
@@ -81800,24 +81800,24 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N1018" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O1018" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="P1018" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
@@ -81826,10 +81826,10 @@
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="T1018" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1019">
@@ -81875,25 +81875,25 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N1019" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O1019" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P1019" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81906,7 +81906,7 @@
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T1019" t="n">
         <v>15</v>
@@ -81955,7 +81955,7 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
@@ -81964,20 +81964,20 @@
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N1020" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="O1020" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="P1020" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1020" t="inlineStr">
@@ -81986,10 +81986,10 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="T1020" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1021">
@@ -82035,29 +82035,29 @@
       </c>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N1021" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="O1021" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="P1021" t="n">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
@@ -82066,10 +82066,10 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="T1021" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1022">
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N1022" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O1022" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P1022" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T1022" t="n">
         <v>15</v>
@@ -82195,29 +82195,29 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N1023" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O1023" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P1023" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1023" t="inlineStr">
@@ -82226,7 +82226,7 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T1023" t="n">
         <v>15</v>
@@ -82275,7 +82275,7 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
@@ -82284,20 +82284,20 @@
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N1024" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="O1024" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="P1024" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1024" t="inlineStr">
@@ -82306,10 +82306,10 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="T1024" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1025">
@@ -82355,7 +82355,7 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
@@ -82364,7 +82364,7 @@
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N1025" t="n">
         <v>5000</v>
@@ -82377,7 +82377,7 @@
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1025" t="inlineStr">
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82435,41 +82435,41 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N1026" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O1026" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P1026" t="n">
-        <v>17400</v>
+        <v>9000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>967</v>
+        <v>600</v>
       </c>
       <c r="T1026" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1027">
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82515,7 +82515,7 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
@@ -82524,32 +82524,32 @@
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N1027" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O1027" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="P1027" t="n">
-        <v>206250</v>
+        <v>7000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="T1027" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1028">
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82595,41 +82595,41 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N1028" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O1028" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P1028" t="n">
-        <v>17375</v>
+        <v>5000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>965</v>
+        <v>333</v>
       </c>
       <c r="T1028" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1029">
@@ -82675,29 +82675,29 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="N1029" t="n">
-        <v>200000</v>
+        <v>17000</v>
       </c>
       <c r="O1029" t="n">
-        <v>220000</v>
+        <v>18000</v>
       </c>
       <c r="P1029" t="n">
-        <v>211111</v>
+        <v>17400</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1029" t="inlineStr">
@@ -82706,10 +82706,10 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>528</v>
+        <v>967</v>
       </c>
       <c r="T1029" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1030">
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82760,24 +82760,24 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Calibre 88</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="N1030" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="O1030" t="n">
-        <v>14000</v>
+        <v>210000</v>
       </c>
       <c r="P1030" t="n">
-        <v>14000</v>
+        <v>206250</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
@@ -82786,10 +82786,10 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>778</v>
+        <v>516</v>
       </c>
       <c r="T1030" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1031">
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82840,20 +82840,20 @@
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Calibre 88</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N1031" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O1031" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P1031" t="n">
-        <v>14000</v>
+        <v>17375</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82866,7 +82866,7 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>778</v>
+        <v>965</v>
       </c>
       <c r="T1031" t="n">
         <v>18</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82915,29 +82915,29 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="N1032" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="O1032" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="P1032" t="n">
-        <v>14000</v>
+        <v>211111</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1032" t="inlineStr">
@@ -82946,10 +82946,10 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>778</v>
+        <v>528</v>
       </c>
       <c r="T1032" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1033">
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -83000,36 +83000,36 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 88</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="N1033" t="n">
-        <v>210000</v>
+        <v>14000</v>
       </c>
       <c r="O1033" t="n">
-        <v>210000</v>
+        <v>14000</v>
       </c>
       <c r="P1033" t="n">
-        <v>210000</v>
+        <v>14000</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>525</v>
+        <v>778</v>
       </c>
       <c r="T1033" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1034">
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83075,29 +83075,29 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 88</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N1034" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O1034" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P1034" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1034" t="inlineStr">
@@ -83106,10 +83106,10 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="T1034" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1035">
@@ -83160,36 +83160,36 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="N1035" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="O1035" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="P1035" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>450</v>
+        <v>778</v>
       </c>
       <c r="T1035" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1036">
@@ -83240,36 +83240,36 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="N1036" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="O1036" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="P1036" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="T1036" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1037">
@@ -83320,36 +83320,36 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N1037" t="n">
-        <v>150000</v>
+        <v>11000</v>
       </c>
       <c r="O1037" t="n">
-        <v>150000</v>
+        <v>11000</v>
       </c>
       <c r="P1037" t="n">
-        <v>150000</v>
+        <v>11000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>375</v>
+        <v>733</v>
       </c>
       <c r="T1037" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1038">
@@ -83395,41 +83395,41 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="N1038" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="O1038" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="P1038" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>722</v>
+        <v>450</v>
       </c>
       <c r="T1038" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1039">
@@ -83475,41 +83475,41 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="N1039" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="O1039" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="P1039" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="T1039" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1040">
@@ -83555,41 +83555,41 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="N1040" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O1040" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P1040" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>667</v>
+        <v>375</v>
       </c>
       <c r="T1040" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1041">
@@ -83640,36 +83640,36 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="N1041" t="n">
-        <v>170000</v>
+        <v>13000</v>
       </c>
       <c r="O1041" t="n">
-        <v>170000</v>
+        <v>13000</v>
       </c>
       <c r="P1041" t="n">
-        <v>170000</v>
+        <v>13000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>425</v>
+        <v>722</v>
       </c>
       <c r="T1041" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1042">
@@ -83720,36 +83720,36 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="N1042" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="O1042" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="P1042" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="T1042" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1043">
@@ -83800,36 +83800,36 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="N1043" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="O1043" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="P1043" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="T1043" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1044">
@@ -83875,41 +83875,41 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="N1044" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="O1044" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="P1044" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>667</v>
+        <v>425</v>
       </c>
       <c r="T1044" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1045">
@@ -83955,41 +83955,41 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="N1045" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="O1045" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="P1045" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="T1045" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1046">
@@ -84035,25 +84035,25 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N1046" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O1046" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P1046" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84062,11 +84062,11 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="T1046" t="n">
         <v>400</v>
@@ -84115,41 +84115,41 @@
       </c>
       <c r="K1047" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="N1047" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O1047" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P1047" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="T1047" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1048">
@@ -84195,25 +84195,25 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N1048" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="O1048" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="P1048" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84226,7 +84226,7 @@
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="T1048" t="n">
         <v>400</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84275,7 +84275,7 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
@@ -84284,20 +84284,20 @@
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="N1049" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="O1049" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="P1049" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1049" t="inlineStr">
@@ -84306,10 +84306,10 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>933</v>
+        <v>400</v>
       </c>
       <c r="T1049" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1050">
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84355,29 +84355,29 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="N1050" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="O1050" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="P1050" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1050" t="inlineStr">
@@ -84386,10 +84386,10 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>778</v>
+        <v>550</v>
       </c>
       <c r="T1050" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1051">
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84435,7 +84435,7 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
@@ -84444,20 +84444,20 @@
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="N1051" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="O1051" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="P1051" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1051" t="inlineStr">
@@ -84466,10 +84466,10 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>667</v>
+        <v>475</v>
       </c>
       <c r="T1051" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1052">
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84515,16 +84515,16 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N1052" t="n">
         <v>14000</v>
@@ -84537,19 +84537,19 @@
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="T1052" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1053">
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84595,25 +84595,25 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N1053" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O1053" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1053" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84622,11 +84622,11 @@
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T1053" t="n">
         <v>18</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84675,29 +84675,29 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N1054" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="O1054" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="P1054" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1054" t="inlineStr">
@@ -84706,10 +84706,10 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T1054" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1055">
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84755,41 +84755,41 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="N1055" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="O1055" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="P1055" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>625</v>
+        <v>778</v>
       </c>
       <c r="T1055" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1056">
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -84835,41 +84835,41 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N1056" t="n">
-        <v>150000</v>
+        <v>13000</v>
       </c>
       <c r="O1056" t="n">
-        <v>150000</v>
+        <v>13000</v>
       </c>
       <c r="P1056" t="n">
-        <v>150000</v>
+        <v>13000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>375</v>
+        <v>722</v>
       </c>
       <c r="T1056" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1057">
@@ -84915,25 +84915,25 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1057" t="n">
         <v>5</v>
       </c>
       <c r="N1057" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="O1057" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="P1057" t="n">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84946,7 +84946,7 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>275</v>
+        <v>750</v>
       </c>
       <c r="T1057" t="n">
         <v>400</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -84995,29 +84995,29 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="N1058" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="O1058" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="P1058" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1058" t="inlineStr">
@@ -85026,10 +85026,10 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>933</v>
+        <v>625</v>
       </c>
       <c r="T1058" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1059">
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85075,7 +85075,7 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
@@ -85084,20 +85084,20 @@
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N1059" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O1059" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P1059" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1059" t="inlineStr">
@@ -85106,10 +85106,10 @@
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="T1059" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1060">
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,20 +85164,20 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N1060" t="n">
-        <v>9000</v>
+        <v>110000</v>
       </c>
       <c r="O1060" t="n">
-        <v>9000</v>
+        <v>110000</v>
       </c>
       <c r="P1060" t="n">
-        <v>9000</v>
+        <v>110000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
@@ -85186,10 +85186,10 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="T1060" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1061">
@@ -85235,7 +85235,7 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
@@ -85244,7 +85244,7 @@
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N1061" t="n">
         <v>14000</v>
@@ -85315,7 +85315,7 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
@@ -85324,7 +85324,7 @@
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N1062" t="n">
         <v>12000</v>
@@ -85395,7 +85395,7 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
@@ -85404,7 +85404,7 @@
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N1063" t="n">
         <v>9000</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85475,29 +85475,29 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N1064" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1064" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1064" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1064" t="inlineStr">
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1064" t="n">
         <v>15</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,29 +85555,29 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N1065" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1065" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1065" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1065" t="inlineStr">
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1065" t="n">
         <v>15</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85635,25 +85635,25 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N1066" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O1066" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P1066" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85662,11 +85662,11 @@
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T1066" t="n">
         <v>15</v>
@@ -85715,38 +85715,38 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1067" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O1067" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P1067" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T1067" t="n">
         <v>15</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85795,16 +85795,16 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N1068" t="n">
         <v>10000</v>
@@ -85817,7 +85817,7 @@
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1068" t="inlineStr">
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85875,7 +85875,7 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
@@ -85884,7 +85884,7 @@
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N1069" t="n">
         <v>8000</v>
@@ -85902,7 +85902,7 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S1069" t="n">
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85955,7 +85955,7 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
@@ -85964,7 +85964,7 @@
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N1070" t="n">
         <v>6000</v>
@@ -85982,7 +85982,7 @@
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S1070" t="n">
@@ -86035,7 +86035,7 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
@@ -86044,16 +86044,16 @@
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N1071" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O1071" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1071" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
@@ -86066,7 +86066,7 @@
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T1071" t="n">
         <v>15</v>
@@ -86115,7 +86115,7 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
@@ -86124,16 +86124,16 @@
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N1072" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O1072" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1072" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86146,7 +86146,7 @@
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T1072" t="n">
         <v>15</v>
@@ -86195,7 +86195,7 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
@@ -86207,13 +86207,13 @@
         <v>50</v>
       </c>
       <c r="N1073" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1073" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P1073" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86226,7 +86226,7 @@
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T1073" t="n">
         <v>15</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86275,7 +86275,7 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
@@ -86284,32 +86284,32 @@
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="N1074" t="n">
-        <v>210000</v>
+        <v>9000</v>
       </c>
       <c r="O1074" t="n">
-        <v>210000</v>
+        <v>9000</v>
       </c>
       <c r="P1074" t="n">
-        <v>210000</v>
+        <v>9000</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="T1074" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1075">
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86355,41 +86355,41 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="N1075" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O1075" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P1075" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T1075" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1076">
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86435,41 +86435,41 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N1076" t="n">
-        <v>190000</v>
+        <v>5000</v>
       </c>
       <c r="O1076" t="n">
-        <v>190000</v>
+        <v>5000</v>
       </c>
       <c r="P1076" t="n">
-        <v>190000</v>
+        <v>5000</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>475</v>
+        <v>333</v>
       </c>
       <c r="T1076" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1077">
@@ -86520,36 +86520,36 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="N1077" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="O1077" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="P1077" t="n">
-        <v>9000</v>
+        <v>210000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="T1077" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1078">
@@ -86600,36 +86600,36 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="N1078" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="O1078" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="P1078" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>425</v>
+        <v>556</v>
       </c>
       <c r="T1078" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1079">
@@ -86680,36 +86680,36 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="N1079" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="O1079" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="P1079" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="T1079" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1080">
@@ -86755,41 +86755,41 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="N1080" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="O1080" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="P1080" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T1080" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1081">
@@ -86835,41 +86835,41 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="N1081" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="O1081" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="P1081" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>556</v>
+        <v>425</v>
       </c>
       <c r="T1081" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1082">
@@ -86915,41 +86915,41 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="N1082" t="n">
-        <v>170000</v>
+        <v>7000</v>
       </c>
       <c r="O1082" t="n">
-        <v>170000</v>
+        <v>7000</v>
       </c>
       <c r="P1082" t="n">
-        <v>170000</v>
+        <v>7000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="T1082" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1083">
@@ -87000,36 +87000,36 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="N1083" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="O1083" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="P1083" t="n">
-        <v>8000</v>
+        <v>190000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="T1083" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1084">
@@ -87080,36 +87080,36 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N1084" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O1084" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P1084" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="T1084" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1085">
@@ -87160,36 +87160,36 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="N1085" t="n">
-        <v>6000</v>
+        <v>170000</v>
       </c>
       <c r="O1085" t="n">
-        <v>6000</v>
+        <v>170000</v>
       </c>
       <c r="P1085" t="n">
-        <v>6000</v>
+        <v>170000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>333</v>
+        <v>425</v>
       </c>
       <c r="T1085" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1086">
@@ -87235,41 +87235,41 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="N1086" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="O1086" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="P1086" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T1086" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1087">
@@ -87315,25 +87315,25 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N1087" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="O1087" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P1087" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="T1087" t="n">
         <v>400</v>
@@ -87395,7 +87395,7 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
@@ -87404,32 +87404,32 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>7</v>
+        <v>310</v>
       </c>
       <c r="N1088" t="n">
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="O1088" t="n">
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="P1088" t="n">
-        <v>110000</v>
+        <v>6000</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="T1088" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1089">
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87475,12 +87475,12 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1089" t="n">
@@ -87502,7 +87502,7 @@
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1089" t="n">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87555,16 +87555,16 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1090" t="n">
         <v>140000</v>
@@ -87582,7 +87582,7 @@
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1090" t="n">
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87635,25 +87635,25 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1091" t="n">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="O1091" t="n">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="P1091" t="n">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87662,11 +87662,11 @@
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>475</v>
+        <v>275</v>
       </c>
       <c r="T1091" t="n">
         <v>400</v>
@@ -87715,40 +87715,280 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1092" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q1092" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1092" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1092" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1092" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1093" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1093" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1093" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1093" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1093" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>140000</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>140000</v>
+      </c>
+      <c r="Q1093" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1093" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1093" t="n">
+        <v>350</v>
+      </c>
+      <c r="T1093" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1094" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1094" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1094" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1094" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1094" t="inlineStr">
+        <is>
           <t>Granny Smith</t>
         </is>
       </c>
-      <c r="L1092" t="inlineStr">
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1094" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>190000</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>190000</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>190000</v>
+      </c>
+      <c r="Q1094" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1094" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1094" t="n">
+        <v>475</v>
+      </c>
+      <c r="T1094" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1095" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1095" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1095" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1095" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1095" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1092" t="n">
+      <c r="M1095" t="n">
         <v>10</v>
       </c>
-      <c r="N1092" t="n">
+      <c r="N1095" t="n">
         <v>170000</v>
       </c>
-      <c r="O1092" t="n">
+      <c r="O1095" t="n">
         <v>170000</v>
       </c>
-      <c r="P1092" t="n">
+      <c r="P1095" t="n">
         <v>170000</v>
       </c>
-      <c r="Q1092" t="inlineStr">
+      <c r="Q1095" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R1092" t="inlineStr">
+      <c r="R1095" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S1092" t="n">
+      <c r="S1095" t="n">
         <v>425</v>
       </c>
-      <c r="T1092" t="n">
+      <c r="T1095" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1140"/>
+  <dimension ref="A1:T1146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -79080,36 +79080,36 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N984" t="n">
-        <v>15000</v>
+        <v>210000</v>
       </c>
       <c r="O984" t="n">
-        <v>15000</v>
+        <v>210000</v>
       </c>
       <c r="P984" t="n">
-        <v>15000</v>
+        <v>210000</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>1000</v>
+        <v>525</v>
       </c>
       <c r="T984" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="985">
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -79160,36 +79160,36 @@
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N985" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O985" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P985" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S985" t="n">
-        <v>933</v>
+        <v>611</v>
       </c>
       <c r="T985" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="986">
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -79240,36 +79240,36 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="N986" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="O986" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="P986" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>867</v>
+        <v>450</v>
       </c>
       <c r="T986" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="987">
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79315,7 +79315,7 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
@@ -79324,32 +79324,32 @@
         </is>
       </c>
       <c r="M987" t="n">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="N987" t="n">
-        <v>12000</v>
+        <v>210000</v>
       </c>
       <c r="O987" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P987" t="n">
-        <v>12000</v>
+        <v>214545</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>800</v>
+        <v>536</v>
       </c>
       <c r="T987" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="988">
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79395,29 +79395,29 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="N988" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O988" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P988" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
@@ -79426,10 +79426,10 @@
         </is>
       </c>
       <c r="S988" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T988" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="989">
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79475,29 +79475,29 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N989" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O989" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P989" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R989" t="inlineStr">
@@ -79506,10 +79506,10 @@
         </is>
       </c>
       <c r="S989" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T989" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="990">
@@ -79555,25 +79555,25 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M990" t="n">
         <v>150</v>
       </c>
       <c r="N990" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O990" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P990" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79582,11 +79582,11 @@
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T990" t="n">
         <v>15</v>
@@ -79635,25 +79635,25 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M991" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N991" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O991" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P991" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79666,7 +79666,7 @@
         </is>
       </c>
       <c r="S991" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T991" t="n">
         <v>15</v>
@@ -79715,25 +79715,25 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M992" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N992" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O992" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P992" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79742,11 +79742,11 @@
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>400</v>
+        <v>867</v>
       </c>
       <c r="T992" t="n">
         <v>15</v>
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79800,20 +79800,20 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N993" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O993" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P993" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
@@ -79826,7 +79826,7 @@
         </is>
       </c>
       <c r="S993" t="n">
-        <v>633</v>
+        <v>800</v>
       </c>
       <c r="T993" t="n">
         <v>15</v>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79880,24 +79880,24 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="N994" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O994" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P994" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R994" t="inlineStr">
@@ -79906,10 +79906,10 @@
         </is>
       </c>
       <c r="S994" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="T994" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="995">
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79955,25 +79955,25 @@
       </c>
       <c r="K995" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N995" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O995" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P995" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79986,7 +79986,7 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T995" t="n">
         <v>15</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80035,7 +80035,7 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
@@ -80044,20 +80044,20 @@
         </is>
       </c>
       <c r="M996" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N996" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="O996" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="P996" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R996" t="inlineStr">
@@ -80066,10 +80066,10 @@
         </is>
       </c>
       <c r="S996" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T996" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="997">
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80115,7 +80115,7 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
@@ -80124,16 +80124,16 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N997" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O997" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P997" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80146,7 +80146,7 @@
         </is>
       </c>
       <c r="S997" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="T997" t="n">
         <v>15</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80200,20 +80200,20 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N998" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O998" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P998" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80226,7 +80226,7 @@
         </is>
       </c>
       <c r="S998" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T998" t="n">
         <v>15</v>
@@ -80275,25 +80275,25 @@
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N999" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O999" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P999" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80306,7 +80306,7 @@
         </is>
       </c>
       <c r="S999" t="n">
-        <v>467</v>
+        <v>633</v>
       </c>
       <c r="T999" t="n">
         <v>15</v>
@@ -80355,25 +80355,25 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1000" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O1000" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P1000" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80386,7 +80386,7 @@
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T1000" t="n">
         <v>400</v>
@@ -80435,25 +80435,25 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N1001" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O1001" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P1001" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80466,7 +80466,7 @@
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T1001" t="n">
         <v>15</v>
@@ -80515,29 +80515,29 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="N1002" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="O1002" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="P1002" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1002" t="inlineStr">
@@ -80546,10 +80546,10 @@
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T1002" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1003">
@@ -80595,29 +80595,29 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1003" t="n">
         <v>150</v>
       </c>
       <c r="N1003" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O1003" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P1003" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1003" t="inlineStr">
@@ -80626,7 +80626,7 @@
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="T1003" t="n">
         <v>15</v>
@@ -80675,29 +80675,29 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N1004" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O1004" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P1004" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1004" t="inlineStr">
@@ -80706,7 +80706,7 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T1004" t="n">
         <v>15</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -80755,41 +80755,41 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N1005" t="n">
-        <v>190000</v>
+        <v>7000</v>
       </c>
       <c r="O1005" t="n">
-        <v>190000</v>
+        <v>7000</v>
       </c>
       <c r="P1005" t="n">
-        <v>190000</v>
+        <v>7000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="T1005" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1006">
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80835,7 +80835,7 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
@@ -80844,16 +80844,16 @@
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N1006" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O1006" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P1006" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80862,11 +80862,11 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="T1006" t="n">
         <v>400</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80920,36 +80920,36 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="N1007" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O1007" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="P1007" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="T1007" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1008">
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -80995,41 +80995,41 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="N1008" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="O1008" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="P1008" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T1008" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1009">
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -81084,20 +81084,20 @@
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="N1009" t="n">
-        <v>150000</v>
+        <v>7000</v>
       </c>
       <c r="O1009" t="n">
-        <v>150000</v>
+        <v>7000</v>
       </c>
       <c r="P1009" t="n">
-        <v>150000</v>
+        <v>7000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1009" t="inlineStr">
@@ -81106,10 +81106,10 @@
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="T1009" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1010">
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81155,29 +81155,29 @@
       </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N1010" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="O1010" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="P1010" t="n">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1010" t="inlineStr">
@@ -81186,10 +81186,10 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T1010" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1011">
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81240,20 +81240,20 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N1011" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="O1011" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="P1011" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81262,11 +81262,11 @@
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="T1011" t="n">
         <v>400</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81315,25 +81315,25 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N1012" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="O1012" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="P1012" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81342,11 +81342,11 @@
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="T1012" t="n">
         <v>400</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81400,20 +81400,20 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N1013" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O1013" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P1013" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81422,11 +81422,11 @@
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T1013" t="n">
         <v>400</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81475,7 +81475,7 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
@@ -81484,16 +81484,16 @@
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N1014" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O1014" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P1014" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81502,11 +81502,11 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="T1014" t="n">
         <v>400</v>
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81555,7 +81555,7 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
@@ -81564,20 +81564,20 @@
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="N1015" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="O1015" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="P1015" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
@@ -81586,10 +81586,10 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>867</v>
+        <v>375</v>
       </c>
       <c r="T1015" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1016">
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81640,24 +81640,24 @@
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="N1016" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O1016" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P1016" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1016" t="inlineStr">
@@ -81666,10 +81666,10 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T1016" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1017">
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81715,7 +81715,7 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
@@ -81724,20 +81724,20 @@
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="N1017" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="O1017" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="P1017" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
@@ -81746,10 +81746,10 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>800</v>
+        <v>425</v>
       </c>
       <c r="T1017" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1018">
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81800,24 +81800,24 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="N1018" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="O1018" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="P1018" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
@@ -81826,10 +81826,10 @@
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>667</v>
+        <v>475</v>
       </c>
       <c r="T1018" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1019">
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81875,7 +81875,7 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
@@ -81884,20 +81884,20 @@
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N1019" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="O1019" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="P1019" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
@@ -81906,10 +81906,10 @@
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T1019" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1020">
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -81960,24 +81960,24 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N1020" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="O1020" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="P1020" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1020" t="inlineStr">
@@ -81986,10 +81986,10 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>667</v>
+        <v>425</v>
       </c>
       <c r="T1020" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1021">
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -82040,36 +82040,36 @@
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="N1021" t="n">
-        <v>210000</v>
+        <v>13000</v>
       </c>
       <c r="O1021" t="n">
-        <v>210000</v>
+        <v>13000</v>
       </c>
       <c r="P1021" t="n">
-        <v>210000</v>
+        <v>13000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>525</v>
+        <v>867</v>
       </c>
       <c r="T1021" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1022">
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -82120,36 +82120,36 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N1022" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="O1022" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="P1022" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>450</v>
+        <v>733</v>
       </c>
       <c r="T1022" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1023">
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -82195,7 +82195,7 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
@@ -82204,29 +82204,29 @@
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="N1023" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O1023" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P1023" t="n">
-        <v>9269</v>
+        <v>12000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>618</v>
+        <v>800</v>
       </c>
       <c r="T1023" t="n">
         <v>15</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -82275,7 +82275,7 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
@@ -82284,29 +82284,29 @@
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N1024" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1024" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P1024" t="n">
-        <v>7273</v>
+        <v>10000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>485</v>
+        <v>667</v>
       </c>
       <c r="T1024" t="n">
         <v>15</v>
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -82355,29 +82355,29 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N1025" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O1025" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1025" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1025" t="inlineStr">
@@ -82386,10 +82386,10 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T1025" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1026">
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82435,29 +82435,29 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N1026" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="O1026" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="P1026" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1026" t="inlineStr">
@@ -82466,10 +82466,10 @@
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>425</v>
+        <v>667</v>
       </c>
       <c r="T1026" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1027">
@@ -82515,25 +82515,25 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N1027" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="O1027" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="P1027" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82542,11 +82542,11 @@
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="T1027" t="n">
         <v>400</v>
@@ -82595,7 +82595,7 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
@@ -82604,16 +82604,16 @@
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1028" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O1028" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P1028" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82622,11 +82622,11 @@
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T1028" t="n">
         <v>400</v>
@@ -82675,7 +82675,7 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
@@ -82684,16 +82684,16 @@
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>630</v>
+        <v>260</v>
       </c>
       <c r="N1029" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O1029" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P1029" t="n">
-        <v>7778</v>
+        <v>9269</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82706,7 +82706,7 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>519</v>
+        <v>618</v>
       </c>
       <c r="T1029" t="n">
         <v>15</v>
@@ -82755,41 +82755,41 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="N1030" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="O1030" t="n">
-        <v>160000</v>
+        <v>7500</v>
       </c>
       <c r="P1030" t="n">
-        <v>160000</v>
+        <v>7273</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="T1030" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1031">
@@ -82835,29 +82835,29 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="N1031" t="n">
-        <v>140000</v>
+        <v>11000</v>
       </c>
       <c r="O1031" t="n">
-        <v>140000</v>
+        <v>11000</v>
       </c>
       <c r="P1031" t="n">
-        <v>140000</v>
+        <v>11000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1031" t="inlineStr">
@@ -82866,10 +82866,10 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>350</v>
+        <v>611</v>
       </c>
       <c r="T1031" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1032">
@@ -82915,25 +82915,25 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1032" t="n">
         <v>5</v>
       </c>
       <c r="N1032" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O1032" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P1032" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82946,7 +82946,7 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T1032" t="n">
         <v>400</v>
@@ -82995,25 +82995,25 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N1033" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O1033" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P1033" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83022,11 +83022,11 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="T1033" t="n">
         <v>400</v>
@@ -83075,25 +83075,25 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N1034" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O1034" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P1034" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83155,7 +83155,7 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
@@ -83164,32 +83164,32 @@
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>6</v>
+        <v>630</v>
       </c>
       <c r="N1035" t="n">
-        <v>160000</v>
+        <v>7500</v>
       </c>
       <c r="O1035" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="P1035" t="n">
-        <v>160000</v>
+        <v>7778</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>400</v>
+        <v>519</v>
       </c>
       <c r="T1035" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1036">
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83235,41 +83235,41 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="N1036" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="O1036" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="P1036" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="T1036" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1037">
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83315,41 +83315,41 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="N1037" t="n">
-        <v>11000</v>
+        <v>140000</v>
       </c>
       <c r="O1037" t="n">
-        <v>11000</v>
+        <v>140000</v>
       </c>
       <c r="P1037" t="n">
-        <v>11000</v>
+        <v>140000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>733</v>
+        <v>350</v>
       </c>
       <c r="T1037" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1038">
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83395,7 +83395,7 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
@@ -83404,32 +83404,32 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="N1038" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="O1038" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="P1038" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T1038" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1039">
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83475,7 +83475,7 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
@@ -83484,32 +83484,32 @@
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="N1039" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="O1039" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="P1039" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="T1039" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1040">
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83555,41 +83555,41 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="N1040" t="n">
-        <v>13000</v>
+        <v>170000</v>
       </c>
       <c r="O1040" t="n">
-        <v>13000</v>
+        <v>170000</v>
       </c>
       <c r="P1040" t="n">
-        <v>13000</v>
+        <v>170000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>722</v>
+        <v>425</v>
       </c>
       <c r="T1040" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1041">
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83635,41 +83635,41 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="N1041" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O1041" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="P1041" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T1041" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1042">
@@ -83715,29 +83715,29 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="N1042" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O1042" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P1042" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
@@ -83746,10 +83746,10 @@
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T1042" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1043">
@@ -83795,25 +83795,25 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N1043" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O1043" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P1043" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83826,7 +83826,7 @@
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="T1043" t="n">
         <v>15</v>
@@ -83875,7 +83875,7 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
@@ -83884,32 +83884,32 @@
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="N1044" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="O1044" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="P1044" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T1044" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1045">
@@ -83955,41 +83955,41 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="N1045" t="n">
-        <v>190000</v>
+        <v>7000</v>
       </c>
       <c r="O1045" t="n">
-        <v>190000</v>
+        <v>7000</v>
       </c>
       <c r="P1045" t="n">
-        <v>190000</v>
+        <v>7000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="T1045" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1046">
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84035,41 +84035,41 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N1046" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O1046" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P1046" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T1046" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1047">
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84120,7 +84120,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1047" t="n">
@@ -84142,7 +84142,7 @@
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1047" t="n">
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84195,7 +84195,7 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
@@ -84204,16 +84204,16 @@
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N1048" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1048" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P1048" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84222,11 +84222,11 @@
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T1048" t="n">
         <v>15</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84275,41 +84275,41 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N1049" t="n">
-        <v>210000</v>
+        <v>6000</v>
       </c>
       <c r="O1049" t="n">
-        <v>210000</v>
+        <v>6000</v>
       </c>
       <c r="P1049" t="n">
-        <v>210000</v>
+        <v>6000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="T1049" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1050">
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84355,7 +84355,7 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
@@ -84364,16 +84364,16 @@
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N1050" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O1050" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P1050" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84386,7 +84386,7 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="T1050" t="n">
         <v>400</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84435,25 +84435,25 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N1051" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="O1051" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P1051" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="T1051" t="n">
         <v>400</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84515,29 +84515,29 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="N1052" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O1052" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P1052" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1052" t="inlineStr">
@@ -84546,10 +84546,10 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T1052" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1053">
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84604,20 +84604,20 @@
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="N1053" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="O1053" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="P1053" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1053" t="inlineStr">
@@ -84626,10 +84626,10 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>425</v>
+        <v>667</v>
       </c>
       <c r="T1053" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1054">
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84680,24 +84680,24 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="N1054" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O1054" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P1054" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1054" t="inlineStr">
@@ -84706,10 +84706,10 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="T1054" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1055">
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84760,36 +84760,36 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="N1055" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="O1055" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="P1055" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>667</v>
+        <v>525</v>
       </c>
       <c r="T1055" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1056">
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -84840,36 +84840,36 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="N1056" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="O1056" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P1056" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>533</v>
+        <v>425</v>
       </c>
       <c r="T1056" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1057">
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84915,25 +84915,25 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N1057" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O1057" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P1057" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84946,7 +84946,7 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T1057" t="n">
         <v>400</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -85000,24 +85000,24 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N1058" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="O1058" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="P1058" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1058" t="inlineStr">
@@ -85026,10 +85026,10 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T1058" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1059">
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85080,20 +85080,20 @@
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N1059" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O1059" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P1059" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85106,7 +85106,7 @@
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="T1059" t="n">
         <v>400</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,20 +85164,20 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="N1060" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="O1060" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="P1060" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
@@ -85186,10 +85186,10 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="T1060" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1061">
@@ -85235,7 +85235,7 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
@@ -85244,16 +85244,16 @@
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N1061" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O1061" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1061" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85262,11 +85262,11 @@
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T1061" t="n">
         <v>15</v>
@@ -85315,7 +85315,7 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
@@ -85324,16 +85324,16 @@
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="N1062" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O1062" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1062" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85342,11 +85342,11 @@
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T1062" t="n">
         <v>15</v>
@@ -85395,25 +85395,25 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1063" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O1063" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P1063" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85426,7 +85426,7 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="T1063" t="n">
         <v>400</v>
@@ -85475,7 +85475,7 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
@@ -85484,20 +85484,20 @@
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="N1064" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="O1064" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="P1064" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1064" t="inlineStr">
@@ -85506,10 +85506,10 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T1064" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1065">
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N1065" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O1065" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="P1065" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85582,11 +85582,11 @@
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="T1065" t="n">
         <v>400</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85635,41 +85635,41 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1066" t="n">
         <v>140</v>
       </c>
       <c r="N1066" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O1066" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P1066" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T1066" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1067">
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85715,7 +85715,7 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
@@ -85724,32 +85724,32 @@
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="N1067" t="n">
-        <v>190000</v>
+        <v>8000</v>
       </c>
       <c r="O1067" t="n">
-        <v>190000</v>
+        <v>8000</v>
       </c>
       <c r="P1067" t="n">
-        <v>190000</v>
+        <v>8000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="T1067" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1068">
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85795,41 +85795,41 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="N1068" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O1068" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P1068" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T1068" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1069">
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85875,25 +85875,25 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N1069" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O1069" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P1069" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85902,11 +85902,11 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="T1069" t="n">
         <v>400</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85955,41 +85955,41 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="N1070" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="O1070" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="P1070" t="n">
-        <v>7000</v>
+        <v>160000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="T1070" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1071">
@@ -86035,7 +86035,7 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
@@ -86044,16 +86044,16 @@
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N1071" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="O1071" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1071" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
@@ -86062,11 +86062,11 @@
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="T1071" t="n">
         <v>400</v>
@@ -86115,7 +86115,7 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
@@ -86124,7 +86124,7 @@
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N1072" t="n">
         <v>10000</v>
@@ -86195,7 +86195,7 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
@@ -86204,16 +86204,16 @@
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1073" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="O1073" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="P1073" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="T1073" t="n">
         <v>400</v>
@@ -86275,7 +86275,7 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
@@ -86284,16 +86284,16 @@
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N1074" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O1074" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P1074" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86306,7 +86306,7 @@
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T1074" t="n">
         <v>18</v>
@@ -86355,7 +86355,7 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
@@ -86364,16 +86364,16 @@
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N1075" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O1075" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P1075" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="T1075" t="n">
         <v>400</v>
@@ -86435,7 +86435,7 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
@@ -86444,16 +86444,16 @@
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="N1076" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O1076" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P1076" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86466,7 +86466,7 @@
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T1076" t="n">
         <v>18</v>
@@ -86515,7 +86515,7 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
@@ -86524,16 +86524,16 @@
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1077" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O1077" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P1077" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T1077" t="n">
         <v>400</v>
@@ -86595,41 +86595,41 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N1078" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="O1078" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="P1078" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>350</v>
+        <v>556</v>
       </c>
       <c r="T1078" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1079">
@@ -86675,25 +86675,25 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1079" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="O1079" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="P1079" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>275</v>
+        <v>425</v>
       </c>
       <c r="T1079" t="n">
         <v>400</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86755,41 +86755,41 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="N1080" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O1080" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P1080" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T1080" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1081">
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86835,25 +86835,25 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N1081" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O1081" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P1081" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T1081" t="n">
         <v>400</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86915,7 +86915,7 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
@@ -86924,32 +86924,32 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>7</v>
+        <v>310</v>
       </c>
       <c r="N1082" t="n">
-        <v>130000</v>
+        <v>6000</v>
       </c>
       <c r="O1082" t="n">
-        <v>130000</v>
+        <v>6000</v>
       </c>
       <c r="P1082" t="n">
-        <v>130000</v>
+        <v>6000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="T1082" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1083">
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -86995,7 +86995,7 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
@@ -87004,16 +87004,16 @@
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N1083" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O1083" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P1083" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87022,11 +87022,11 @@
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="T1083" t="n">
         <v>400</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87075,7 +87075,7 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
@@ -87084,16 +87084,16 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1084" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O1084" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P1084" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="T1084" t="n">
         <v>400</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87155,7 +87155,7 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
@@ -87164,16 +87164,16 @@
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N1085" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="O1085" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P1085" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="T1085" t="n">
         <v>400</v>
@@ -87235,7 +87235,7 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
@@ -87262,7 +87262,7 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1086" t="n">
@@ -87315,7 +87315,7 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
@@ -87324,7 +87324,7 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N1087" t="n">
         <v>160000</v>
@@ -87342,7 +87342,7 @@
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1087" t="n">
@@ -87395,7 +87395,7 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
@@ -87407,13 +87407,13 @@
         <v>7</v>
       </c>
       <c r="N1088" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O1088" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P1088" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87422,11 +87422,11 @@
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="T1088" t="n">
         <v>400</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87475,41 +87475,41 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="N1089" t="n">
-        <v>19000</v>
+        <v>170000</v>
       </c>
       <c r="O1089" t="n">
-        <v>20000</v>
+        <v>170000</v>
       </c>
       <c r="P1089" t="n">
-        <v>19538</v>
+        <v>170000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>1085</v>
+        <v>425</v>
       </c>
       <c r="T1089" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1090">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87555,29 +87555,29 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="N1090" t="n">
-        <v>16000</v>
+        <v>150000</v>
       </c>
       <c r="O1090" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="P1090" t="n">
-        <v>16571</v>
+        <v>150000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1090" t="inlineStr">
@@ -87586,10 +87586,10 @@
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>921</v>
+        <v>375</v>
       </c>
       <c r="T1090" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1091">
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87635,41 +87635,41 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N1091" t="n">
-        <v>12000</v>
+        <v>130000</v>
       </c>
       <c r="O1091" t="n">
-        <v>12000</v>
+        <v>130000</v>
       </c>
       <c r="P1091" t="n">
-        <v>12000</v>
+        <v>130000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>667</v>
+        <v>325</v>
       </c>
       <c r="T1091" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1092">
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87715,29 +87715,29 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="N1092" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="O1092" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P1092" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
@@ -87746,10 +87746,10 @@
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>556</v>
+        <v>450</v>
       </c>
       <c r="T1092" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1093">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87795,29 +87795,29 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="N1093" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="O1093" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="P1093" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1093" t="inlineStr">
@@ -87826,10 +87826,10 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>611</v>
+        <v>400</v>
       </c>
       <c r="T1093" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1094">
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87875,29 +87875,29 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="N1094" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="O1094" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="P1094" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
@@ -87906,10 +87906,10 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="T1094" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1095">
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87955,38 +87955,38 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>85</v>
+        <v>390</v>
       </c>
       <c r="N1095" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O1095" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P1095" t="n">
-        <v>7000</v>
+        <v>19538</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>389</v>
+        <v>1085</v>
       </c>
       <c r="T1095" t="n">
         <v>18</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -88040,36 +88040,36 @@
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="N1096" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O1096" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P1096" t="n">
-        <v>12000</v>
+        <v>16571</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>800</v>
+        <v>921</v>
       </c>
       <c r="T1096" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1097">
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -88115,29 +88115,29 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N1097" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1097" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1097" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1097" t="inlineStr">
@@ -88149,7 +88149,7 @@
         <v>667</v>
       </c>
       <c r="T1097" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1098">
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88200,24 +88200,24 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="N1098" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="O1098" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="P1098" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
@@ -88226,10 +88226,10 @@
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>875</v>
+        <v>556</v>
       </c>
       <c r="T1098" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1099">
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88275,7 +88275,7 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
@@ -88284,32 +88284,32 @@
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N1099" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O1099" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P1099" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="T1099" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1100">
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88355,7 +88355,7 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
@@ -88364,32 +88364,32 @@
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N1100" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O1100" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1100" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T1100" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1101">
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,7 +88435,7 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
@@ -88444,7 +88444,7 @@
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="N1101" t="n">
         <v>7000</v>
@@ -88457,19 +88457,19 @@
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="T1101" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1102">
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88515,25 +88515,25 @@
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N1102" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1102" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1102" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88542,11 +88542,11 @@
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1102" t="n">
         <v>15</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88595,7 +88595,7 @@
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1103" t="inlineStr">
@@ -88604,16 +88604,16 @@
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N1103" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O1103" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1103" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88622,11 +88622,11 @@
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T1103" t="n">
         <v>15</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88684,32 +88684,32 @@
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="N1104" t="n">
-        <v>13000</v>
+        <v>350000</v>
       </c>
       <c r="O1104" t="n">
-        <v>13000</v>
+        <v>350000</v>
       </c>
       <c r="P1104" t="n">
-        <v>13000</v>
+        <v>350000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>722</v>
+        <v>875</v>
       </c>
       <c r="T1104" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1105">
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88755,29 +88755,29 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1105" t="n">
         <v>80</v>
       </c>
       <c r="N1105" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O1105" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1105" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1105" t="inlineStr">
@@ -88786,10 +88786,10 @@
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T1105" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1106">
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -88835,29 +88835,29 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N1106" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O1106" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1106" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1106" t="inlineStr">
@@ -88866,10 +88866,10 @@
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T1106" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1107">
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -88920,24 +88920,24 @@
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N1107" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O1107" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P1107" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1107" t="inlineStr">
@@ -88946,10 +88946,10 @@
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T1107" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1108">
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -88995,16 +88995,16 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N1108" t="n">
         <v>10000</v>
@@ -89017,7 +89017,7 @@
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
@@ -89026,10 +89026,10 @@
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T1108" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1109">
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -89075,16 +89075,16 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N1109" t="n">
         <v>8000</v>
@@ -89097,7 +89097,7 @@
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1109" t="inlineStr">
@@ -89106,10 +89106,10 @@
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T1109" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1110">
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89160,36 +89160,36 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1110" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q1110" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1110" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1110" t="n">
+        <v>722</v>
+      </c>
+      <c r="T1110" t="n">
         <v>18</v>
-      </c>
-      <c r="N1110" t="n">
-        <v>190000</v>
-      </c>
-      <c r="O1110" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P1110" t="n">
-        <v>194444</v>
-      </c>
-      <c r="Q1110" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1110" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S1110" t="n">
-        <v>486</v>
-      </c>
-      <c r="T1110" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="1111">
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89235,7 +89235,7 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
@@ -89244,16 +89244,16 @@
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="N1111" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O1111" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P1111" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89262,11 +89262,11 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T1111" t="n">
         <v>18</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -89315,25 +89315,25 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="N1112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O1112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89342,11 +89342,11 @@
       </c>
       <c r="R1112" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T1112" t="n">
         <v>18</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -89395,38 +89395,38 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N1113" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O1113" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P1113" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T1113" t="n">
         <v>18</v>
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -89480,33 +89480,33 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N1114" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O1114" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P1114" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>1056</v>
+        <v>556</v>
       </c>
       <c r="T1114" t="n">
         <v>18</v>
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -89555,41 +89555,41 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="N1115" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O1115" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P1115" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="T1115" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1116">
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -89635,25 +89635,25 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N1116" t="n">
-        <v>250000</v>
+        <v>190000</v>
       </c>
       <c r="O1116" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P1116" t="n">
-        <v>250000</v>
+        <v>194444</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89666,7 +89666,7 @@
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>625</v>
+        <v>486</v>
       </c>
       <c r="T1116" t="n">
         <v>400</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89715,38 +89715,38 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N1117" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O1117" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P1117" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T1117" t="n">
         <v>18</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89795,38 +89795,38 @@
       </c>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="N1118" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1118" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1118" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T1118" t="n">
         <v>18</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89875,41 +89875,41 @@
       </c>
       <c r="K1119" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N1119" t="n">
-        <v>180000</v>
+        <v>19000</v>
       </c>
       <c r="O1119" t="n">
-        <v>180000</v>
+        <v>19000</v>
       </c>
       <c r="P1119" t="n">
-        <v>180000</v>
+        <v>19000</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>450</v>
+        <v>1056</v>
       </c>
       <c r="T1119" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1120">
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -89955,41 +89955,41 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N1120" t="n">
-        <v>160000</v>
+        <v>19000</v>
       </c>
       <c r="O1120" t="n">
-        <v>160000</v>
+        <v>19000</v>
       </c>
       <c r="P1120" t="n">
-        <v>160000</v>
+        <v>19000</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>400</v>
+        <v>1056</v>
       </c>
       <c r="T1120" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1121">
@@ -90007,7 +90007,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -90040,36 +90040,36 @@
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="N1121" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="O1121" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="P1121" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T1121" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1122">
@@ -90087,7 +90087,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -90120,36 +90120,36 @@
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="N1122" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O1122" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="P1122" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="T1122" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1123">
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -90200,24 +90200,24 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N1123" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1123" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1123" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1123" t="inlineStr">
@@ -90226,7 +90226,7 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T1123" t="n">
         <v>18</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90280,24 +90280,24 @@
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N1124" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1124" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1124" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1124" t="inlineStr">
@@ -90306,7 +90306,7 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T1124" t="n">
         <v>18</v>
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90355,41 +90355,41 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="N1125" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="O1125" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P1125" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>556</v>
+        <v>450</v>
       </c>
       <c r="T1125" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1126">
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -90435,41 +90435,41 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="N1126" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="O1126" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="P1126" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>833</v>
+        <v>400</v>
       </c>
       <c r="T1126" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1127">
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90520,36 +90520,36 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N1127" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O1127" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P1127" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="T1127" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1128">
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90595,25 +90595,25 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N1128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90626,7 +90626,7 @@
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T1128" t="n">
         <v>18</v>
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -90684,32 +90684,32 @@
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N1129" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O1129" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P1129" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T1129" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1130">
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90755,7 +90755,7 @@
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1130" t="inlineStr">
@@ -90764,7 +90764,7 @@
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N1130" t="n">
         <v>10000</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90835,25 +90835,25 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="N1131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O1131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90866,7 +90866,7 @@
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T1131" t="n">
         <v>18</v>
@@ -90915,7 +90915,7 @@
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1132" t="inlineStr">
@@ -90924,16 +90924,16 @@
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="N1132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O1132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P1132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90946,7 +90946,7 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T1132" t="n">
         <v>18</v>
@@ -90995,7 +90995,7 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
@@ -91004,16 +91004,16 @@
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N1133" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O1133" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P1133" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91026,7 +91026,7 @@
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T1133" t="n">
         <v>400</v>
@@ -91075,7 +91075,7 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
@@ -91084,16 +91084,16 @@
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N1134" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O1134" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1134" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91106,7 +91106,7 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T1134" t="n">
         <v>18</v>
@@ -91155,7 +91155,7 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
@@ -91164,16 +91164,16 @@
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1135" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O1135" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P1135" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91186,7 +91186,7 @@
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="T1135" t="n">
         <v>400</v>
@@ -91235,7 +91235,7 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
@@ -91244,16 +91244,16 @@
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N1136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O1136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91266,7 +91266,7 @@
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T1136" t="n">
         <v>18</v>
@@ -91315,7 +91315,7 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
@@ -91324,16 +91324,16 @@
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="N1137" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O1137" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1137" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91346,7 +91346,7 @@
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T1137" t="n">
         <v>18</v>
@@ -91395,41 +91395,41 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="N1138" t="n">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="O1138" t="n">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="P1138" t="n">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>375</v>
+        <v>778</v>
       </c>
       <c r="T1138" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1139">
@@ -91475,25 +91475,25 @@
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N1139" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O1139" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P1139" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91506,7 +91506,7 @@
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="T1139" t="n">
         <v>400</v>
@@ -91555,40 +91555,520 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1140" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1140" t="n">
+        <v>170</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1140" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1140" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1140" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1140" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1141" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1141" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1141" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1141" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1141" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1141" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1141" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1141" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1141" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1141" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1141" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1141" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1142" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1142" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1142" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1142" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1142" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1142" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1142" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1142" t="n">
+        <v>240</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q1142" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1142" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1142" t="n">
+        <v>500</v>
+      </c>
+      <c r="T1142" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1143" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1143" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1143" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1143" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1143" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1143" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1143" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1143" t="n">
+        <v>280</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q1143" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1143" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1143" t="n">
+        <v>389</v>
+      </c>
+      <c r="T1143" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1144" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1144" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1144" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1144" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1144" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1144" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1144" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1144" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q1144" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1144" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1144" t="n">
+        <v>375</v>
+      </c>
+      <c r="T1144" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1145" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1145" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1145" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1145" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1145" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1145" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1145" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>130000</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>130000</v>
+      </c>
+      <c r="Q1145" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1145" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1145" t="n">
+        <v>325</v>
+      </c>
+      <c r="T1145" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1146" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1146" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1146" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1146" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
           <t>Scarlett</t>
         </is>
       </c>
-      <c r="L1140" t="inlineStr">
+      <c r="L1146" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1140" t="n">
+      <c r="M1146" t="n">
         <v>3</v>
       </c>
-      <c r="N1140" t="n">
+      <c r="N1146" t="n">
         <v>210000</v>
       </c>
-      <c r="O1140" t="n">
+      <c r="O1146" t="n">
         <v>210000</v>
       </c>
-      <c r="P1140" t="n">
+      <c r="P1146" t="n">
         <v>210000</v>
       </c>
-      <c r="Q1140" t="inlineStr">
+      <c r="Q1146" t="inlineStr">
         <is>
           <t>$/bins (400 kilos)</t>
         </is>
       </c>
-      <c r="R1140" t="inlineStr">
+      <c r="R1146" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1140" t="n">
+      <c r="S1146" t="n">
         <v>525</v>
       </c>
-      <c r="T1140" t="n">
+      <c r="T1146" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1182"/>
+  <dimension ref="A1:T1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80044,16 +80044,16 @@
         </is>
       </c>
       <c r="M996" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N996" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O996" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P996" t="n">
-        <v>10521</v>
+        <v>12667</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80062,11 +80062,11 @@
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>584</v>
+        <v>704</v>
       </c>
       <c r="T996" t="n">
         <v>18</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80124,16 +80124,16 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="N997" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O997" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P997" t="n">
-        <v>10532</v>
+        <v>13000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80142,11 +80142,11 @@
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>585</v>
+        <v>722</v>
       </c>
       <c r="T997" t="n">
         <v>18</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80204,16 +80204,16 @@
         </is>
       </c>
       <c r="M998" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="N998" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O998" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P998" t="n">
-        <v>9359</v>
+        <v>12000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80226,7 +80226,7 @@
         </is>
       </c>
       <c r="S998" t="n">
-        <v>520</v>
+        <v>667</v>
       </c>
       <c r="T998" t="n">
         <v>18</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80284,16 +80284,16 @@
         </is>
       </c>
       <c r="M999" t="n">
-        <v>300</v>
+        <v>570</v>
       </c>
       <c r="N999" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O999" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P999" t="n">
-        <v>10000</v>
+        <v>12386</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>556</v>
+        <v>688</v>
       </c>
       <c r="T999" t="n">
         <v>18</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80360,24 +80360,24 @@
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>3</v>
+        <v>480</v>
       </c>
       <c r="N1000" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="O1000" t="n">
-        <v>210000</v>
+        <v>11000</v>
       </c>
       <c r="P1000" t="n">
-        <v>210000</v>
+        <v>10521</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
@@ -80386,10 +80386,10 @@
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="T1000" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1001">
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80435,25 +80435,25 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="N1001" t="n">
         <v>10000</v>
       </c>
       <c r="O1001" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P1001" t="n">
-        <v>10000</v>
+        <v>10532</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="T1001" t="n">
         <v>18</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80515,7 +80515,7 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
@@ -80524,32 +80524,32 @@
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>5</v>
+        <v>390</v>
       </c>
       <c r="N1002" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="O1002" t="n">
-        <v>190000</v>
+        <v>10000</v>
       </c>
       <c r="P1002" t="n">
-        <v>190000</v>
+        <v>9359</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="T1002" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1003">
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80595,7 +80595,7 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
@@ -80604,16 +80604,16 @@
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N1003" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O1003" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1003" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T1003" t="n">
         <v>18</v>
@@ -80680,20 +80680,20 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N1004" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="O1004" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="P1004" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80706,7 +80706,7 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="T1004" t="n">
         <v>400</v>
@@ -80760,20 +80760,20 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N1005" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1005" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P1005" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T1005" t="n">
         <v>18</v>
@@ -80835,12 +80835,12 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1006" t="n">
@@ -80862,7 +80862,7 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1006" t="n">
@@ -80915,25 +80915,25 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N1007" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O1007" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1007" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80946,7 +80946,7 @@
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T1007" t="n">
         <v>18</v>
@@ -80995,16 +80995,16 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1008" t="n">
         <v>170000</v>
@@ -81022,7 +81022,7 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1008" t="n">
@@ -81075,25 +81075,25 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="N1009" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O1009" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P1009" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81106,7 +81106,7 @@
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T1009" t="n">
         <v>18</v>
@@ -81160,20 +81160,20 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N1010" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="O1010" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P1010" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81186,7 +81186,7 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="T1010" t="n">
         <v>400</v>
@@ -81240,20 +81240,20 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="N1011" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O1011" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P1011" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81266,7 +81266,7 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T1011" t="n">
         <v>18</v>
@@ -81315,25 +81315,25 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N1012" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O1012" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P1012" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81346,7 +81346,7 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T1012" t="n">
         <v>400</v>
@@ -81395,7 +81395,7 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
@@ -81404,32 +81404,32 @@
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="N1013" t="n">
-        <v>140000</v>
+        <v>8000</v>
       </c>
       <c r="O1013" t="n">
-        <v>140000</v>
+        <v>8000</v>
       </c>
       <c r="P1013" t="n">
-        <v>140000</v>
+        <v>8000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="T1013" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1014">
@@ -81475,7 +81475,7 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
@@ -81484,16 +81484,16 @@
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N1014" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="O1014" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P1014" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81506,7 +81506,7 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="T1014" t="n">
         <v>400</v>
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81555,41 +81555,41 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="N1015" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="O1015" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="P1015" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="T1015" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1016">
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81635,29 +81635,29 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N1016" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="O1016" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="P1016" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1016" t="inlineStr">
@@ -81666,10 +81666,10 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T1016" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1017">
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81715,7 +81715,7 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
@@ -81727,13 +81727,13 @@
         <v>5</v>
       </c>
       <c r="N1017" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O1017" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P1017" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81742,11 +81742,11 @@
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="T1017" t="n">
         <v>400</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81795,7 +81795,7 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
@@ -81804,20 +81804,20 @@
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="N1018" t="n">
-        <v>7000</v>
+        <v>110000</v>
       </c>
       <c r="O1018" t="n">
-        <v>7000</v>
+        <v>110000</v>
       </c>
       <c r="P1018" t="n">
-        <v>7000</v>
+        <v>110000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
@@ -81826,10 +81826,10 @@
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>467</v>
+        <v>275</v>
       </c>
       <c r="T1018" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1019">
@@ -81880,20 +81880,20 @@
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N1019" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O1019" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P1019" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81906,7 +81906,7 @@
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="T1019" t="n">
         <v>400</v>
@@ -81955,29 +81955,29 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N1020" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="O1020" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="P1020" t="n">
-        <v>160000</v>
+        <v>9000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1020" t="inlineStr">
@@ -81986,10 +81986,10 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T1020" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1021">
@@ -82035,7 +82035,7 @@
       </c>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1021" t="inlineStr">
@@ -82044,32 +82044,32 @@
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="N1021" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="O1021" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="P1021" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T1021" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1022">
@@ -82115,29 +82115,29 @@
       </c>
       <c r="K1022" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="N1022" t="n">
-        <v>140000</v>
+        <v>7000</v>
       </c>
       <c r="O1022" t="n">
-        <v>140000</v>
+        <v>7000</v>
       </c>
       <c r="P1022" t="n">
-        <v>140000</v>
+        <v>7000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1022" t="inlineStr">
@@ -82146,10 +82146,10 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>350</v>
+        <v>467</v>
       </c>
       <c r="T1022" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1023">
@@ -82195,7 +82195,7 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
@@ -82204,32 +82204,32 @@
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>340</v>
+        <v>7</v>
       </c>
       <c r="N1023" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="O1023" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="P1023" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="T1023" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1024">
@@ -82280,20 +82280,20 @@
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N1024" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O1024" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P1024" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82306,7 +82306,7 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T1024" t="n">
         <v>400</v>
@@ -82360,20 +82360,20 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N1025" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O1025" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P1025" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82386,7 +82386,7 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T1025" t="n">
         <v>15</v>
@@ -82435,7 +82435,7 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
@@ -82444,20 +82444,20 @@
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="N1026" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="O1026" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="P1026" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1026" t="inlineStr">
@@ -82466,10 +82466,10 @@
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="T1026" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1027">
@@ -82515,7 +82515,7 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
@@ -82524,7 +82524,7 @@
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="N1027" t="n">
         <v>7000</v>
@@ -82595,29 +82595,29 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="N1028" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O1028" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="P1028" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1028" t="inlineStr">
@@ -82626,10 +82626,10 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="T1028" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1029">
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82675,29 +82675,29 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Ambrosia</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="N1029" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="O1029" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="P1029" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1029" t="inlineStr">
@@ -82706,10 +82706,10 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="T1029" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1030">
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82755,29 +82755,29 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="N1030" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="O1030" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="P1030" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
@@ -82786,10 +82786,10 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T1030" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1031">
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82835,29 +82835,29 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="N1031" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="O1031" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="P1031" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1031" t="inlineStr">
@@ -82866,10 +82866,10 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="T1031" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1032">
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82915,29 +82915,29 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="N1032" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="O1032" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="P1032" t="n">
-        <v>140000</v>
+        <v>5000</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1032" t="inlineStr">
@@ -82946,10 +82946,10 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="T1032" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1033">
@@ -82995,25 +82995,25 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Ambrosia</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1033" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O1033" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P1033" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83026,7 +83026,7 @@
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="T1033" t="n">
         <v>400</v>
@@ -83075,25 +83075,25 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N1034" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O1034" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P1034" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83155,7 +83155,7 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
@@ -83164,16 +83164,16 @@
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N1035" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O1035" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P1035" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83186,7 +83186,7 @@
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T1035" t="n">
         <v>400</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N1036" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="O1036" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="P1036" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="T1036" t="n">
         <v>400</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83315,25 +83315,25 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N1037" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O1037" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P1037" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83342,11 +83342,11 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="T1037" t="n">
         <v>400</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83395,7 +83395,7 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
@@ -83404,32 +83404,32 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>380</v>
+        <v>8</v>
       </c>
       <c r="N1038" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="O1038" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="P1038" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="T1038" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1039">
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83475,7 +83475,7 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
@@ -83484,32 +83484,32 @@
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="N1039" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="O1039" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="P1039" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>556</v>
+        <v>350</v>
       </c>
       <c r="T1039" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1040">
@@ -83560,20 +83560,20 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N1040" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O1040" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P1040" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83586,7 +83586,7 @@
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="T1040" t="n">
         <v>400</v>
@@ -83635,7 +83635,7 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
@@ -83647,13 +83647,13 @@
         <v>5</v>
       </c>
       <c r="N1041" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O1041" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P1041" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83666,7 +83666,7 @@
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T1041" t="n">
         <v>400</v>
@@ -83715,7 +83715,7 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
@@ -83724,7 +83724,7 @@
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N1042" t="n">
         <v>7000</v>
@@ -83795,7 +83795,7 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
@@ -83804,7 +83804,7 @@
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="N1043" t="n">
         <v>10000</v>
@@ -83875,25 +83875,25 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N1044" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O1044" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P1044" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83902,11 +83902,11 @@
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="T1044" t="n">
         <v>400</v>
@@ -83955,7 +83955,7 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
@@ -83964,32 +83964,32 @@
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="N1045" t="n">
-        <v>9000</v>
+        <v>190000</v>
       </c>
       <c r="O1045" t="n">
-        <v>9000</v>
+        <v>190000</v>
       </c>
       <c r="P1045" t="n">
-        <v>9000</v>
+        <v>190000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="T1045" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1046">
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84035,41 +84035,41 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="N1046" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O1046" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P1046" t="n">
-        <v>19400</v>
+        <v>7000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>1078</v>
+        <v>467</v>
       </c>
       <c r="T1046" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1047">
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84115,41 +84115,41 @@
       </c>
       <c r="K1047" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>6</v>
+        <v>480</v>
       </c>
       <c r="N1047" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O1047" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P1047" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T1047" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1048">
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84195,25 +84195,25 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1048" t="n">
-        <v>320000</v>
+        <v>150000</v>
       </c>
       <c r="O1048" t="n">
-        <v>320000</v>
+        <v>150000</v>
       </c>
       <c r="P1048" t="n">
-        <v>320000</v>
+        <v>150000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84222,11 +84222,11 @@
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="T1048" t="n">
         <v>400</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84275,29 +84275,29 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>105</v>
+        <v>380</v>
       </c>
       <c r="N1049" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O1049" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P1049" t="n">
-        <v>19571</v>
+        <v>9000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1049" t="inlineStr">
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>1087</v>
+        <v>500</v>
       </c>
       <c r="T1049" t="n">
         <v>18</v>
@@ -84355,41 +84355,41 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="N1050" t="n">
-        <v>260000</v>
+        <v>19000</v>
       </c>
       <c r="O1050" t="n">
-        <v>260000</v>
+        <v>20000</v>
       </c>
       <c r="P1050" t="n">
-        <v>260000</v>
+        <v>19400</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>650</v>
+        <v>1078</v>
       </c>
       <c r="T1050" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1051">
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84440,36 +84440,36 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="N1051" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="O1051" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="P1051" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T1051" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1052">
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84520,36 +84520,36 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="N1052" t="n">
-        <v>12000</v>
+        <v>320000</v>
       </c>
       <c r="O1052" t="n">
-        <v>12000</v>
+        <v>320000</v>
       </c>
       <c r="P1052" t="n">
-        <v>12000</v>
+        <v>320000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1052" t="n">
         <v>800</v>
       </c>
       <c r="T1052" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1053">
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84595,41 +84595,41 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N1053" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O1053" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P1053" t="n">
-        <v>10000</v>
+        <v>19571</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>667</v>
+        <v>1087</v>
       </c>
       <c r="T1053" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1054">
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84680,36 +84680,36 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="N1054" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O1054" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P1054" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>933</v>
+        <v>650</v>
       </c>
       <c r="T1054" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1055">
@@ -84755,25 +84755,25 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="N1055" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O1055" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P1055" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T1055" t="n">
         <v>15</v>
@@ -84835,25 +84835,25 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N1056" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1056" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1056" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1056" t="n">
         <v>15</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84920,11 +84920,11 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N1057" t="n">
         <v>10000</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -84995,25 +84995,25 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N1058" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O1058" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P1058" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T1058" t="n">
         <v>15</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85080,36 +85080,36 @@
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N1059" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="O1059" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="P1059" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T1059" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1060">
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,16 +85164,16 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N1060" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O1060" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1060" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85182,11 +85182,11 @@
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T1060" t="n">
         <v>15</v>
@@ -85235,41 +85235,41 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="N1061" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="O1061" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="P1061" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="T1061" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1062">
@@ -85315,7 +85315,7 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
@@ -85324,16 +85324,16 @@
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N1062" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O1062" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1062" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85342,11 +85342,11 @@
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T1062" t="n">
         <v>15</v>
@@ -85395,7 +85395,7 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
@@ -85404,20 +85404,20 @@
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="N1063" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="O1063" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="P1063" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
@@ -85426,10 +85426,10 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="T1063" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1064">
@@ -85475,25 +85475,25 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N1064" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O1064" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P1064" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T1064" t="n">
         <v>15</v>
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N1065" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O1065" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P1065" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="T1065" t="n">
         <v>400</v>
@@ -85635,29 +85635,29 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="N1066" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="O1066" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="P1066" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
@@ -85666,10 +85666,10 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="T1066" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1067">
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85715,41 +85715,41 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="N1067" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O1067" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P1067" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T1067" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1068">
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85795,41 +85795,41 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="N1068" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="O1068" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="P1068" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="T1068" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1069">
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85875,7 +85875,7 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
@@ -85884,20 +85884,20 @@
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="N1069" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="O1069" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="P1069" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1069" t="inlineStr">
@@ -85906,10 +85906,10 @@
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>833</v>
+        <v>450</v>
       </c>
       <c r="T1069" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1070">
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85955,7 +85955,7 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
@@ -85964,20 +85964,20 @@
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="N1070" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="O1070" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="P1070" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
@@ -85986,10 +85986,10 @@
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>722</v>
+        <v>400</v>
       </c>
       <c r="T1070" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1071">
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86040,36 +86040,36 @@
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="N1071" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="O1071" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="P1071" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>611</v>
+        <v>700</v>
       </c>
       <c r="T1071" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86115,25 +86115,25 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N1072" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="O1072" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="P1072" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86146,7 +86146,7 @@
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="T1072" t="n">
         <v>400</v>
@@ -86195,41 +86195,41 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N1073" t="n">
-        <v>160000</v>
+        <v>15000</v>
       </c>
       <c r="O1073" t="n">
-        <v>160000</v>
+        <v>15000</v>
       </c>
       <c r="P1073" t="n">
-        <v>160000</v>
+        <v>15000</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>400</v>
+        <v>833</v>
       </c>
       <c r="T1073" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1074">
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86280,24 +86280,24 @@
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N1074" t="n">
-        <v>190000</v>
+        <v>13000</v>
       </c>
       <c r="O1074" t="n">
-        <v>190000</v>
+        <v>13000</v>
       </c>
       <c r="P1074" t="n">
-        <v>190000</v>
+        <v>13000</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1074" t="inlineStr">
@@ -86306,10 +86306,10 @@
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>475</v>
+        <v>722</v>
       </c>
       <c r="T1074" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1075">
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86360,24 +86360,24 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="N1075" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="O1075" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="P1075" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1075" t="inlineStr">
@@ -86386,10 +86386,10 @@
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>425</v>
+        <v>611</v>
       </c>
       <c r="T1075" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1076">
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86435,25 +86435,25 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N1076" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O1076" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P1076" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="T1076" t="n">
         <v>400</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86515,25 +86515,25 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1077" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O1077" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P1077" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="T1077" t="n">
         <v>400</v>
@@ -86595,25 +86595,25 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N1078" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O1078" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P1078" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86626,7 +86626,7 @@
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T1078" t="n">
         <v>400</v>
@@ -86675,25 +86675,25 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1079" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O1079" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P1079" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="T1079" t="n">
         <v>400</v>
@@ -86755,25 +86755,25 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1080" t="n">
-        <v>125000</v>
+        <v>140000</v>
       </c>
       <c r="O1080" t="n">
-        <v>125000</v>
+        <v>140000</v>
       </c>
       <c r="P1080" t="n">
-        <v>125000</v>
+        <v>140000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="T1080" t="n">
         <v>400</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86835,25 +86835,25 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N1081" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O1081" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P1081" t="n">
-        <v>213333</v>
+        <v>180000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="T1081" t="n">
         <v>400</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86915,7 +86915,7 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
@@ -86924,32 +86924,32 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="N1082" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O1082" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="P1082" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T1082" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1083">
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -87000,20 +87000,20 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N1083" t="n">
-        <v>210000</v>
+        <v>130000</v>
       </c>
       <c r="O1083" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="P1083" t="n">
-        <v>214444</v>
+        <v>130000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87026,7 +87026,7 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>536</v>
+        <v>325</v>
       </c>
       <c r="T1083" t="n">
         <v>400</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87075,7 +87075,7 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
@@ -87084,32 +87084,32 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>650</v>
+        <v>6</v>
       </c>
       <c r="N1084" t="n">
-        <v>10000</v>
+        <v>125000</v>
       </c>
       <c r="O1084" t="n">
-        <v>11000</v>
+        <v>125000</v>
       </c>
       <c r="P1084" t="n">
-        <v>10538</v>
+        <v>125000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>585</v>
+        <v>312</v>
       </c>
       <c r="T1084" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1085">
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87160,24 +87160,24 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N1085" t="n">
-        <v>19000</v>
+        <v>200000</v>
       </c>
       <c r="O1085" t="n">
-        <v>19000</v>
+        <v>220000</v>
       </c>
       <c r="P1085" t="n">
-        <v>19000</v>
+        <v>213333</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1085" t="inlineStr">
@@ -87186,10 +87186,10 @@
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>1056</v>
+        <v>533</v>
       </c>
       <c r="T1085" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1086">
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87244,32 +87244,32 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="N1086" t="n">
-        <v>240000</v>
+        <v>10000</v>
       </c>
       <c r="O1086" t="n">
-        <v>240000</v>
+        <v>10000</v>
       </c>
       <c r="P1086" t="n">
-        <v>240000</v>
+        <v>10000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T1086" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1087">
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87324,20 +87324,20 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="N1087" t="n">
-        <v>11000</v>
+        <v>210000</v>
       </c>
       <c r="O1087" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="P1087" t="n">
-        <v>11000</v>
+        <v>214444</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1087" t="inlineStr">
@@ -87346,10 +87346,10 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>733</v>
+        <v>536</v>
       </c>
       <c r="T1087" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1088">
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87395,29 +87395,29 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N1088" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O1088" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P1088" t="n">
-        <v>18000</v>
+        <v>10538</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
@@ -87426,7 +87426,7 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>1000</v>
+        <v>585</v>
       </c>
       <c r="T1088" t="n">
         <v>18</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87480,36 +87480,36 @@
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N1089" t="n">
-        <v>180000</v>
+        <v>19000</v>
       </c>
       <c r="O1089" t="n">
-        <v>180000</v>
+        <v>19000</v>
       </c>
       <c r="P1089" t="n">
-        <v>180000</v>
+        <v>19000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>450</v>
+        <v>1056</v>
       </c>
       <c r="T1089" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1090">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87564,16 +87564,16 @@
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N1090" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="O1090" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P1090" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T1090" t="n">
         <v>400</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87635,7 +87635,7 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
@@ -87644,32 +87644,32 @@
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N1091" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O1091" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P1091" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="T1091" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1092">
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87715,38 +87715,38 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1092" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O1092" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P1092" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>389</v>
+        <v>1000</v>
       </c>
       <c r="T1092" t="n">
         <v>18</v>
@@ -87795,7 +87795,7 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
@@ -87804,16 +87804,16 @@
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N1093" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O1093" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P1093" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T1093" t="n">
         <v>400</v>
@@ -87875,7 +87875,7 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
@@ -87884,16 +87884,16 @@
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1094" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O1094" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P1094" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="T1094" t="n">
         <v>400</v>
@@ -87955,7 +87955,7 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
@@ -87964,7 +87964,7 @@
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N1095" t="n">
         <v>9000</v>
@@ -88035,7 +88035,7 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
@@ -88044,7 +88044,7 @@
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="N1096" t="n">
         <v>7000</v>
@@ -88115,41 +88115,41 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N1097" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="O1097" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="P1097" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T1097" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1098">
@@ -88195,41 +88195,41 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="N1098" t="n">
-        <v>7000</v>
+        <v>140000</v>
       </c>
       <c r="O1098" t="n">
-        <v>7000</v>
+        <v>140000</v>
       </c>
       <c r="P1098" t="n">
-        <v>7000</v>
+        <v>140000</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="T1098" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1099">
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88275,29 +88275,29 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="N1099" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O1099" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P1099" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
@@ -88306,7 +88306,7 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T1099" t="n">
         <v>18</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88360,24 +88360,24 @@
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="N1100" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O1100" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P1100" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
@@ -88386,7 +88386,7 @@
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>944</v>
+        <v>389</v>
       </c>
       <c r="T1100" t="n">
         <v>18</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,7 +88435,7 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
@@ -88444,20 +88444,20 @@
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N1101" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O1101" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1101" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
@@ -88466,10 +88466,10 @@
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T1101" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1102">
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88520,24 +88520,24 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N1102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O1102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P1102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1102" t="inlineStr">
@@ -88546,10 +88546,10 @@
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T1102" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1103">
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88600,36 +88600,36 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="N1103" t="n">
-        <v>190000</v>
+        <v>16000</v>
       </c>
       <c r="O1103" t="n">
-        <v>190000</v>
+        <v>16000</v>
       </c>
       <c r="P1103" t="n">
-        <v>190000</v>
+        <v>16000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>475</v>
+        <v>889</v>
       </c>
       <c r="T1103" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1104">
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88675,41 +88675,41 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="N1104" t="n">
-        <v>170000</v>
+        <v>17000</v>
       </c>
       <c r="O1104" t="n">
-        <v>170000</v>
+        <v>17000</v>
       </c>
       <c r="P1104" t="n">
-        <v>170000</v>
+        <v>17000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>425</v>
+        <v>944</v>
       </c>
       <c r="T1104" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1105">
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88760,36 +88760,36 @@
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="N1105" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O1105" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P1105" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="T1105" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1106">
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -88835,7 +88835,7 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
@@ -88844,32 +88844,32 @@
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N1106" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="O1106" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="P1106" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T1106" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1107">
@@ -88915,25 +88915,25 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1107" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="O1107" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P1107" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="T1107" t="n">
         <v>400</v>
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -89000,24 +89000,24 @@
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="N1108" t="n">
-        <v>15000</v>
+        <v>170000</v>
       </c>
       <c r="O1108" t="n">
-        <v>15000</v>
+        <v>170000</v>
       </c>
       <c r="P1108" t="n">
-        <v>15000</v>
+        <v>170000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
@@ -89026,10 +89026,10 @@
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>1000</v>
+        <v>425</v>
       </c>
       <c r="T1108" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1109">
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -89075,7 +89075,7 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
@@ -89084,32 +89084,32 @@
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="N1109" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O1109" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="P1109" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>933</v>
+        <v>450</v>
       </c>
       <c r="T1109" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1110">
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89155,7 +89155,7 @@
       </c>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1110" t="inlineStr">
@@ -89164,20 +89164,20 @@
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="N1110" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="O1110" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="P1110" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1110" t="inlineStr">
@@ -89186,10 +89186,10 @@
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>867</v>
+        <v>400</v>
       </c>
       <c r="T1110" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1111">
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89235,7 +89235,7 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
@@ -89244,20 +89244,20 @@
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="N1111" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O1111" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P1111" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1111" t="inlineStr">
@@ -89266,10 +89266,10 @@
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="T1111" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1112">
@@ -89320,20 +89320,20 @@
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N1112" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O1112" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P1112" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89342,11 +89342,11 @@
       </c>
       <c r="R1112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T1112" t="n">
         <v>15</v>
@@ -89395,7 +89395,7 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
@@ -89404,16 +89404,16 @@
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N1113" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O1113" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P1113" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89426,7 +89426,7 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T1113" t="n">
         <v>15</v>
@@ -89475,7 +89475,7 @@
       </c>
       <c r="K1114" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1114" t="inlineStr">
@@ -89484,16 +89484,16 @@
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N1114" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O1114" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P1114" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89502,11 +89502,11 @@
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T1114" t="n">
         <v>15</v>
@@ -89555,25 +89555,25 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N1115" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O1115" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P1115" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89586,7 +89586,7 @@
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T1115" t="n">
         <v>15</v>
@@ -89635,7 +89635,7 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
@@ -89644,16 +89644,16 @@
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="N1116" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O1116" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P1116" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89666,7 +89666,7 @@
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T1116" t="n">
         <v>15</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89715,29 +89715,29 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1117" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O1117" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P1117" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1117" t="inlineStr">
@@ -89746,10 +89746,10 @@
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T1117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1118">
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89795,7 +89795,7 @@
       </c>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1118" t="inlineStr">
@@ -89804,20 +89804,20 @@
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N1118" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="O1118" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="P1118" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1118" t="inlineStr">
@@ -89826,10 +89826,10 @@
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>425</v>
+        <v>667</v>
       </c>
       <c r="T1118" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1119">
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89880,24 +89880,24 @@
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N1119" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O1119" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P1119" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1119" t="inlineStr">
@@ -89906,10 +89906,10 @@
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>833</v>
+        <v>533</v>
       </c>
       <c r="T1119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1120">
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -89960,24 +89960,24 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="N1120" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="O1120" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="P1120" t="n">
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1120" t="inlineStr">
@@ -89989,7 +89989,7 @@
         <v>400</v>
       </c>
       <c r="T1120" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1121">
@@ -90035,29 +90035,29 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N1121" t="n">
-        <v>140000</v>
+        <v>16000</v>
       </c>
       <c r="O1121" t="n">
-        <v>140000</v>
+        <v>16000</v>
       </c>
       <c r="P1121" t="n">
-        <v>140000</v>
+        <v>16000</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1121" t="inlineStr">
@@ -90066,10 +90066,10 @@
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>350</v>
+        <v>889</v>
       </c>
       <c r="T1121" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1122">
@@ -90115,29 +90115,29 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="N1122" t="n">
-        <v>16000</v>
+        <v>170000</v>
       </c>
       <c r="O1122" t="n">
-        <v>16000</v>
+        <v>170000</v>
       </c>
       <c r="P1122" t="n">
-        <v>16000</v>
+        <v>170000</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1122" t="inlineStr">
@@ -90146,10 +90146,10 @@
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>889</v>
+        <v>425</v>
       </c>
       <c r="T1122" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1123">
@@ -90195,29 +90195,29 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="N1123" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O1123" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="P1123" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1123" t="inlineStr">
@@ -90226,10 +90226,10 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>375</v>
+        <v>833</v>
       </c>
       <c r="T1123" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1124">
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90275,7 +90275,7 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
@@ -90284,20 +90284,20 @@
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="N1124" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="O1124" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="P1124" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1124" t="inlineStr">
@@ -90306,10 +90306,10 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T1124" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1125">
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90360,24 +90360,24 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="N1125" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="O1125" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="P1125" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
@@ -90386,10 +90386,10 @@
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>667</v>
+        <v>350</v>
       </c>
       <c r="T1125" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1126">
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -90435,29 +90435,29 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="N1126" t="n">
-        <v>230000</v>
+        <v>16000</v>
       </c>
       <c r="O1126" t="n">
-        <v>230000</v>
+        <v>16000</v>
       </c>
       <c r="P1126" t="n">
-        <v>230000</v>
+        <v>16000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1126" t="inlineStr">
@@ -90466,10 +90466,10 @@
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>575</v>
+        <v>889</v>
       </c>
       <c r="T1126" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1127">
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90515,7 +90515,7 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
@@ -90524,16 +90524,16 @@
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1127" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O1127" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P1127" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90546,7 +90546,7 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="T1127" t="n">
         <v>400</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90595,29 +90595,29 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="N1128" t="n">
-        <v>190000</v>
+        <v>12000</v>
       </c>
       <c r="O1128" t="n">
-        <v>190000</v>
+        <v>12000</v>
       </c>
       <c r="P1128" t="n">
-        <v>190000</v>
+        <v>12000</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1128" t="inlineStr">
@@ -90626,10 +90626,10 @@
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="T1128" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1129">
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -90684,20 +90684,20 @@
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="N1129" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="O1129" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="P1129" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1129" t="inlineStr">
@@ -90706,10 +90706,10 @@
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T1129" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1130">
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90764,16 +90764,16 @@
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N1130" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="O1130" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P1130" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90786,7 +90786,7 @@
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="T1130" t="n">
         <v>400</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90844,16 +90844,16 @@
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N1131" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O1131" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P1131" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90866,7 +90866,7 @@
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T1131" t="n">
         <v>400</v>
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -90915,25 +90915,25 @@
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N1132" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="O1132" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="P1132" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90946,7 +90946,7 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="T1132" t="n">
         <v>400</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -91000,20 +91000,20 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N1133" t="n">
-        <v>190000</v>
+        <v>160000</v>
       </c>
       <c r="O1133" t="n">
-        <v>190000</v>
+        <v>160000</v>
       </c>
       <c r="P1133" t="n">
-        <v>190000</v>
+        <v>160000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91026,7 +91026,7 @@
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="T1133" t="n">
         <v>400</v>
@@ -91075,25 +91075,25 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N1134" t="n">
-        <v>150000</v>
+        <v>210000</v>
       </c>
       <c r="O1134" t="n">
-        <v>150000</v>
+        <v>210000</v>
       </c>
       <c r="P1134" t="n">
-        <v>150000</v>
+        <v>210000</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91106,7 +91106,7 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="T1134" t="n">
         <v>400</v>
@@ -91155,25 +91155,25 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1135" t="n">
-        <v>130000</v>
+        <v>190000</v>
       </c>
       <c r="O1135" t="n">
-        <v>130000</v>
+        <v>190000</v>
       </c>
       <c r="P1135" t="n">
-        <v>130000</v>
+        <v>190000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91186,7 +91186,7 @@
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="T1135" t="n">
         <v>400</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -91240,36 +91240,36 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="N1136" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="O1136" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="P1136" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>667</v>
+        <v>425</v>
       </c>
       <c r="T1136" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1137">
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -91315,25 +91315,25 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N1137" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O1137" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P1137" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91342,11 +91342,11 @@
       </c>
       <c r="R1137" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T1137" t="n">
         <v>400</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91400,36 +91400,36 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="N1138" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O1138" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P1138" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>667</v>
+        <v>375</v>
       </c>
       <c r="T1138" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1139">
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91480,20 +91480,20 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N1139" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="O1139" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="P1139" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91502,11 +91502,11 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="T1139" t="n">
         <v>400</v>
@@ -91555,29 +91555,29 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="N1140" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="O1140" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="P1140" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1140" t="inlineStr">
@@ -91586,10 +91586,10 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>325</v>
+        <v>667</v>
       </c>
       <c r="T1140" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1141">
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91635,41 +91635,41 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N1141" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="O1141" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="P1141" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="T1141" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1142">
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -91715,41 +91715,41 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N1142" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O1142" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P1142" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T1142" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91795,25 +91795,25 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N1143" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O1143" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P1143" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91826,7 +91826,7 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="T1143" t="n">
         <v>400</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91875,7 +91875,7 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
@@ -91887,13 +91887,13 @@
         <v>8</v>
       </c>
       <c r="N1144" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O1144" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P1144" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91906,7 +91906,7 @@
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="T1144" t="n">
         <v>400</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91960,36 +91960,36 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="N1145" t="n">
-        <v>190000</v>
+        <v>14000</v>
       </c>
       <c r="O1145" t="n">
-        <v>190000</v>
+        <v>14000</v>
       </c>
       <c r="P1145" t="n">
-        <v>190000</v>
+        <v>14000</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>475</v>
+        <v>778</v>
       </c>
       <c r="T1145" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1146">
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -92035,41 +92035,41 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N1146" t="n">
-        <v>170000</v>
+        <v>13000</v>
       </c>
       <c r="O1146" t="n">
-        <v>170000</v>
+        <v>13000</v>
       </c>
       <c r="P1146" t="n">
-        <v>170000</v>
+        <v>13000</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>425</v>
+        <v>722</v>
       </c>
       <c r="T1146" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1147">
@@ -92115,25 +92115,25 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1147" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O1147" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P1147" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92142,11 +92142,11 @@
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T1147" t="n">
         <v>400</v>
@@ -92195,7 +92195,7 @@
       </c>
       <c r="K1148" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1148" t="inlineStr">
@@ -92204,16 +92204,16 @@
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N1148" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="O1148" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="P1148" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
@@ -92222,11 +92222,11 @@
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="T1148" t="n">
         <v>400</v>
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92275,25 +92275,25 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N1149" t="n">
-        <v>250000</v>
+        <v>190000</v>
       </c>
       <c r="O1149" t="n">
-        <v>250000</v>
+        <v>190000</v>
       </c>
       <c r="P1149" t="n">
-        <v>250000</v>
+        <v>190000</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
@@ -92306,7 +92306,7 @@
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="T1149" t="n">
         <v>400</v>
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -92355,25 +92355,25 @@
       </c>
       <c r="K1150" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N1150" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="O1150" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="P1150" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92386,7 +92386,7 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="T1150" t="n">
         <v>400</v>
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92435,7 +92435,7 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
@@ -92444,16 +92444,16 @@
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N1151" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O1151" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P1151" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92466,7 +92466,7 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="T1151" t="n">
         <v>400</v>
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -92515,25 +92515,25 @@
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N1152" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="O1152" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="P1152" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92546,7 +92546,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="T1152" t="n">
         <v>400</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -92600,24 +92600,24 @@
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="N1153" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O1153" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P1153" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1153" t="inlineStr">
@@ -92626,10 +92626,10 @@
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="T1153" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1154">
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92680,20 +92680,20 @@
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N1154" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O1154" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P1154" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
@@ -92702,11 +92702,11 @@
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T1154" t="n">
         <v>400</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92755,7 +92755,7 @@
       </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1155" t="inlineStr">
@@ -92764,20 +92764,20 @@
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="N1155" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="O1155" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P1155" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1155" t="inlineStr">
@@ -92786,10 +92786,10 @@
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>556</v>
+        <v>450</v>
       </c>
       <c r="T1155" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1156">
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92835,7 +92835,7 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
@@ -92844,20 +92844,20 @@
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="N1156" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="O1156" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="P1156" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1156" t="inlineStr">
@@ -92866,10 +92866,10 @@
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T1156" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1157">
@@ -92915,7 +92915,7 @@
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1157" t="inlineStr">
@@ -92924,16 +92924,16 @@
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N1157" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O1157" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1157" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92946,7 +92946,7 @@
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T1157" t="n">
         <v>18</v>
@@ -92995,7 +92995,7 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
@@ -93004,32 +93004,32 @@
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="N1158" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="O1158" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="P1158" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1158" t="n">
         <v>500</v>
       </c>
       <c r="T1158" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1159">
@@ -93075,25 +93075,25 @@
       </c>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N1159" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1159" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P1159" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T1159" t="n">
         <v>18</v>
@@ -93155,29 +93155,29 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="N1160" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="O1160" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="P1160" t="n">
-        <v>160000</v>
+        <v>8000</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1160" t="inlineStr">
@@ -93186,10 +93186,10 @@
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T1160" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1161">
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93235,7 +93235,7 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
@@ -93244,32 +93244,32 @@
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N1161" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O1161" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P1161" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>933</v>
+        <v>611</v>
       </c>
       <c r="T1161" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1162">
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93315,29 +93315,29 @@
       </c>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="N1162" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O1162" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P1162" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1162" t="inlineStr">
@@ -93346,10 +93346,10 @@
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="T1162" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1163">
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93395,41 +93395,41 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N1163" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O1163" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P1163" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="T1163" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1164">
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93475,7 +93475,7 @@
       </c>
       <c r="K1164" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1164" t="inlineStr">
@@ -93484,20 +93484,20 @@
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="N1164" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="O1164" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="P1164" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1164" t="inlineStr">
@@ -93506,10 +93506,10 @@
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>733</v>
+        <v>400</v>
       </c>
       <c r="T1164" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1165">
@@ -93560,20 +93560,20 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1165" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O1165" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P1165" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93582,11 +93582,11 @@
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T1165" t="n">
         <v>15</v>
@@ -93635,7 +93635,7 @@
       </c>
       <c r="K1166" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1166" t="inlineStr">
@@ -93644,16 +93644,16 @@
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N1166" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O1166" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P1166" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93666,7 +93666,7 @@
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T1166" t="n">
         <v>15</v>
@@ -93715,7 +93715,7 @@
       </c>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1167" t="inlineStr">
@@ -93724,16 +93724,16 @@
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N1167" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1167" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1167" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93742,11 +93742,11 @@
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1167" t="n">
         <v>15</v>
@@ -93795,25 +93795,25 @@
       </c>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1168" t="n">
         <v>120</v>
       </c>
       <c r="N1168" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O1168" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P1168" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93826,7 +93826,7 @@
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T1168" t="n">
         <v>15</v>
@@ -93875,25 +93875,25 @@
       </c>
       <c r="K1169" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1169" t="n">
         <v>80</v>
       </c>
       <c r="N1169" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O1169" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P1169" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93906,7 +93906,7 @@
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T1169" t="n">
         <v>15</v>
@@ -93955,7 +93955,7 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
@@ -93964,16 +93964,16 @@
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N1170" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1170" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P1170" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
@@ -93982,11 +93982,11 @@
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T1170" t="n">
         <v>15</v>
@@ -94035,7 +94035,7 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
@@ -94044,16 +94044,16 @@
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N1171" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1171" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1171" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94062,11 +94062,11 @@
       </c>
       <c r="R1171" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T1171" t="n">
         <v>15</v>
@@ -94115,7 +94115,7 @@
       </c>
       <c r="K1172" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1172" t="inlineStr">
@@ -94124,16 +94124,16 @@
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1172" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1172" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P1172" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94142,11 +94142,11 @@
       </c>
       <c r="R1172" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T1172" t="n">
         <v>15</v>
@@ -94195,25 +94195,25 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1173" t="n">
         <v>80</v>
       </c>
       <c r="N1173" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O1173" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P1173" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94222,11 +94222,11 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T1173" t="n">
         <v>15</v>
@@ -94275,25 +94275,25 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N1174" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1174" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1174" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94306,7 +94306,7 @@
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1174" t="n">
         <v>15</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94355,41 +94355,41 @@
       </c>
       <c r="K1175" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N1175" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O1175" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P1175" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T1175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1176">
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94435,41 +94435,41 @@
       </c>
       <c r="K1176" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N1176" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O1176" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P1176" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>1111</v>
+        <v>667</v>
       </c>
       <c r="T1176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1177">
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94515,41 +94515,41 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1177" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1177" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1177" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1177" t="n">
+        <v>800</v>
+      </c>
+      <c r="T1177" t="n">
         <v>15</v>
-      </c>
-      <c r="N1177" t="n">
-        <v>210000</v>
-      </c>
-      <c r="O1177" t="n">
-        <v>210000</v>
-      </c>
-      <c r="P1177" t="n">
-        <v>210000</v>
-      </c>
-      <c r="Q1177" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1177" t="inlineStr">
-        <is>
-          <t>Provincia de Linares</t>
-        </is>
-      </c>
-      <c r="S1177" t="n">
-        <v>525</v>
-      </c>
-      <c r="T1177" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="1178">
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94595,7 +94595,7 @@
       </c>
       <c r="K1178" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1178" t="inlineStr">
@@ -94604,20 +94604,20 @@
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N1178" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O1178" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P1178" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1178" t="inlineStr">
@@ -94626,10 +94626,10 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T1178" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1179">
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -94680,36 +94680,36 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N1179" t="n">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="O1179" t="n">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="P1179" t="n">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>450</v>
+        <v>1111</v>
       </c>
       <c r="T1179" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1180">
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -94760,36 +94760,36 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N1180" t="n">
-        <v>210000</v>
+        <v>20000</v>
       </c>
       <c r="O1180" t="n">
-        <v>220000</v>
+        <v>20000</v>
       </c>
       <c r="P1180" t="n">
-        <v>214545</v>
+        <v>20000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>536</v>
+        <v>1111</v>
       </c>
       <c r="T1180" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1181">
@@ -94835,7 +94835,7 @@
       </c>
       <c r="K1181" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1181" t="inlineStr">
@@ -94844,32 +94844,32 @@
         </is>
       </c>
       <c r="M1181" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q1181" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1181" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S1181" t="n">
+        <v>525</v>
+      </c>
+      <c r="T1181" t="n">
         <v>400</v>
-      </c>
-      <c r="N1181" t="n">
-        <v>11000</v>
-      </c>
-      <c r="O1181" t="n">
-        <v>11000</v>
-      </c>
-      <c r="P1181" t="n">
-        <v>11000</v>
-      </c>
-      <c r="Q1181" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R1181" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1181" t="n">
-        <v>611</v>
-      </c>
-      <c r="T1181" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="1182">
@@ -94915,40 +94915,360 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1182" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1182" t="n">
+        <v>380</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1182" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1182" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1182" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1182" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1183" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1183" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1183" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1183" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1183" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1183" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1183" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1183" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1183" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1183" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S1183" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1183" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1184" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1184" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1184" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1184" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1184" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1184" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1184" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1184" t="n">
+        <v>22</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>214545</v>
+      </c>
+      <c r="Q1184" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1184" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1184" t="n">
+        <v>536</v>
+      </c>
+      <c r="T1184" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1185" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1185" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1185" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1185" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1185" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1185" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1185" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1185" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1185" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1185" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1185" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1185" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1186" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1186" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1186" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1186" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1186" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1186" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1186" t="inlineStr">
+        <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L1182" t="inlineStr">
+      <c r="L1186" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1182" t="n">
+      <c r="M1186" t="n">
         <v>400</v>
       </c>
-      <c r="N1182" t="n">
+      <c r="N1186" t="n">
         <v>10000</v>
       </c>
-      <c r="O1182" t="n">
+      <c r="O1186" t="n">
         <v>10000</v>
       </c>
-      <c r="P1182" t="n">
+      <c r="P1186" t="n">
         <v>10000</v>
       </c>
-      <c r="Q1182" t="inlineStr">
+      <c r="Q1186" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R1182" t="inlineStr">
+      <c r="R1186" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1182" t="n">
+      <c r="S1186" t="n">
         <v>556</v>
       </c>
-      <c r="T1182" t="n">
+      <c r="T1186" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1189"/>
+  <dimension ref="A1:T1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -91315,29 +91315,29 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Fuji</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="N1137" t="n">
-        <v>210000</v>
+        <v>15000</v>
       </c>
       <c r="O1137" t="n">
-        <v>210000</v>
+        <v>16000</v>
       </c>
       <c r="P1137" t="n">
-        <v>210000</v>
+        <v>15615</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1137" t="inlineStr">
@@ -91346,10 +91346,10 @@
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>525</v>
+        <v>868</v>
       </c>
       <c r="T1137" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1138">
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91395,7 +91395,7 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Fuji</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
@@ -91404,32 +91404,32 @@
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="N1138" t="n">
-        <v>190000</v>
+        <v>12000</v>
       </c>
       <c r="O1138" t="n">
-        <v>190000</v>
+        <v>12000</v>
       </c>
       <c r="P1138" t="n">
-        <v>190000</v>
+        <v>12000</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>475</v>
+        <v>667</v>
       </c>
       <c r="T1138" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1139">
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91475,41 +91475,41 @@
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>4</v>
+        <v>470</v>
       </c>
       <c r="N1139" t="n">
-        <v>170000</v>
+        <v>15000</v>
       </c>
       <c r="O1139" t="n">
-        <v>170000</v>
+        <v>16000</v>
       </c>
       <c r="P1139" t="n">
-        <v>170000</v>
+        <v>15532</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>425</v>
+        <v>863</v>
       </c>
       <c r="T1139" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1140">
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91555,29 +91555,29 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="N1140" t="n">
-        <v>190000</v>
+        <v>11000</v>
       </c>
       <c r="O1140" t="n">
-        <v>190000</v>
+        <v>11000</v>
       </c>
       <c r="P1140" t="n">
-        <v>190000</v>
+        <v>11000</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1140" t="inlineStr">
@@ -91586,10 +91586,10 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>475</v>
+        <v>611</v>
       </c>
       <c r="T1140" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1141">
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91635,41 +91635,41 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="N1141" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O1141" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="P1141" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>375</v>
+        <v>833</v>
       </c>
       <c r="T1141" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1142">
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -91715,29 +91715,29 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="N1142" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="O1142" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="P1142" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
@@ -91746,10 +91746,10 @@
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>325</v>
+        <v>667</v>
       </c>
       <c r="T1142" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91800,36 +91800,36 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="N1143" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="O1143" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="P1143" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>667</v>
+        <v>525</v>
       </c>
       <c r="T1143" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1144">
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91884,16 +91884,16 @@
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N1144" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O1144" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P1144" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91902,11 +91902,11 @@
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T1144" t="n">
         <v>400</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91955,41 +91955,41 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="N1145" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="O1145" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="P1145" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>667</v>
+        <v>425</v>
       </c>
       <c r="T1145" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1146">
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -92040,20 +92040,20 @@
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N1146" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="O1146" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P1146" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
@@ -92062,11 +92062,11 @@
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="T1146" t="n">
         <v>400</v>
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -92115,7 +92115,7 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
@@ -92124,16 +92124,16 @@
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N1147" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O1147" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P1147" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92142,11 +92142,11 @@
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="T1147" t="n">
         <v>400</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -92200,36 +92200,36 @@
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N1148" t="n">
-        <v>14000</v>
+        <v>130000</v>
       </c>
       <c r="O1148" t="n">
-        <v>14000</v>
+        <v>130000</v>
       </c>
       <c r="P1148" t="n">
-        <v>14000</v>
+        <v>130000</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>778</v>
+        <v>325</v>
       </c>
       <c r="T1148" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1149">
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92275,41 +92275,41 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N1149" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O1149" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P1149" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T1149" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1150">
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -92360,20 +92360,20 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N1150" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O1150" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P1150" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92386,7 +92386,7 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T1150" t="n">
         <v>400</v>
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92435,29 +92435,29 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N1151" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="O1151" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="P1151" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1151" t="inlineStr">
@@ -92466,10 +92466,10 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>425</v>
+        <v>667</v>
       </c>
       <c r="T1151" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1152">
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -92520,20 +92520,20 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N1152" t="n">
-        <v>190000</v>
+        <v>150000</v>
       </c>
       <c r="O1152" t="n">
-        <v>190000</v>
+        <v>150000</v>
       </c>
       <c r="P1152" t="n">
-        <v>190000</v>
+        <v>150000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92542,11 +92542,11 @@
       </c>
       <c r="R1152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="T1152" t="n">
         <v>400</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -92595,7 +92595,7 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
@@ -92607,13 +92607,13 @@
         <v>8</v>
       </c>
       <c r="N1153" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O1153" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P1153" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92622,11 +92622,11 @@
       </c>
       <c r="R1153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="T1153" t="n">
         <v>400</v>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92675,41 +92675,41 @@
       </c>
       <c r="K1154" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="N1154" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="O1154" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="P1154" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>550</v>
+        <v>778</v>
       </c>
       <c r="T1154" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1155">
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92755,41 +92755,41 @@
       </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N1155" t="n">
-        <v>210000</v>
+        <v>13000</v>
       </c>
       <c r="O1155" t="n">
-        <v>210000</v>
+        <v>13000</v>
       </c>
       <c r="P1155" t="n">
-        <v>210000</v>
+        <v>13000</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>525</v>
+        <v>722</v>
       </c>
       <c r="T1155" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1156">
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92840,20 +92840,20 @@
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1156" t="n">
         <v>5</v>
       </c>
       <c r="N1156" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O1156" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P1156" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92862,11 +92862,11 @@
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T1156" t="n">
         <v>400</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92920,20 +92920,20 @@
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N1157" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="O1157" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="P1157" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92942,11 +92942,11 @@
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="T1157" t="n">
         <v>400</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -93000,20 +93000,20 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N1158" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O1158" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P1158" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93026,7 +93026,7 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="T1158" t="n">
         <v>400</v>
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93080,20 +93080,20 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1159" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O1159" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P1159" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T1159" t="n">
         <v>400</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93155,29 +93155,29 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="N1160" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O1160" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P1160" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1160" t="inlineStr">
@@ -93186,10 +93186,10 @@
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="T1160" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1161">
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93235,7 +93235,7 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
@@ -93247,13 +93247,13 @@
         <v>5</v>
       </c>
       <c r="N1161" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="O1161" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P1161" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93262,11 +93262,11 @@
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="T1161" t="n">
         <v>400</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93324,20 +93324,20 @@
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="N1162" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O1162" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="P1162" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1162" t="inlineStr">
@@ -93346,10 +93346,10 @@
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="T1162" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1163">
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93404,20 +93404,20 @@
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="N1163" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="O1163" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="P1163" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1163" t="inlineStr">
@@ -93426,10 +93426,10 @@
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="T1163" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1164">
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93480,24 +93480,24 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N1164" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="O1164" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="P1164" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1164" t="inlineStr">
@@ -93506,10 +93506,10 @@
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>611</v>
+        <v>450</v>
       </c>
       <c r="T1164" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1165">
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93560,24 +93560,24 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>290</v>
+        <v>7</v>
       </c>
       <c r="N1165" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="O1165" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="P1165" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1165" t="inlineStr">
@@ -93586,10 +93586,10 @@
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T1165" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1166">
@@ -93635,25 +93635,25 @@
       </c>
       <c r="K1166" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N1166" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O1166" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P1166" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93666,7 +93666,7 @@
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T1166" t="n">
         <v>18</v>
@@ -93715,7 +93715,7 @@
       </c>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1167" t="inlineStr">
@@ -93724,16 +93724,16 @@
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1167" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O1167" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P1167" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93742,11 +93742,11 @@
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T1167" t="n">
         <v>400</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93800,36 +93800,36 @@
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N1168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O1168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P1168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>933</v>
+        <v>556</v>
       </c>
       <c r="T1168" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1169">
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93880,24 +93880,24 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N1169" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O1169" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P1169" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1169" t="inlineStr">
@@ -93906,10 +93906,10 @@
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>867</v>
+        <v>444</v>
       </c>
       <c r="T1169" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1170">
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93955,41 +93955,41 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N1170" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O1170" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P1170" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="T1170" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94035,7 +94035,7 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
@@ -94044,20 +94044,20 @@
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="N1171" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O1171" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P1171" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1171" t="inlineStr">
@@ -94066,10 +94066,10 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T1171" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1172">
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -94115,7 +94115,7 @@
       </c>
       <c r="K1172" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1172" t="inlineStr">
@@ -94124,20 +94124,20 @@
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N1172" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O1172" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P1172" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1172" t="inlineStr">
@@ -94146,10 +94146,10 @@
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="T1172" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1173">
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -94195,29 +94195,29 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="N1173" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="O1173" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="P1173" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1173" t="inlineStr">
@@ -94226,10 +94226,10 @@
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T1173" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1174">
@@ -94275,25 +94275,25 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N1174" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1174" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1174" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94302,11 +94302,11 @@
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1174" t="n">
         <v>15</v>
@@ -94355,25 +94355,25 @@
       </c>
       <c r="K1175" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N1175" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O1175" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1175" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94386,7 +94386,7 @@
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T1175" t="n">
         <v>15</v>
@@ -94435,25 +94435,25 @@
       </c>
       <c r="K1176" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1176" t="n">
         <v>80</v>
       </c>
       <c r="N1176" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O1176" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P1176" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94462,11 +94462,11 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T1176" t="n">
         <v>15</v>
@@ -94515,25 +94515,25 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N1177" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O1177" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P1177" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94542,11 +94542,11 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T1177" t="n">
         <v>15</v>
@@ -94595,25 +94595,25 @@
       </c>
       <c r="K1178" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N1178" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O1178" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P1178" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94622,11 +94622,11 @@
       </c>
       <c r="R1178" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T1178" t="n">
         <v>15</v>
@@ -94675,25 +94675,25 @@
       </c>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94702,11 +94702,11 @@
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1179" t="n">
         <v>15</v>
@@ -94755,25 +94755,25 @@
       </c>
       <c r="K1180" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N1180" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1180" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1180" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T1180" t="n">
         <v>15</v>
@@ -94835,25 +94835,25 @@
       </c>
       <c r="K1181" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1181" t="n">
         <v>120</v>
       </c>
       <c r="N1181" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1181" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P1181" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94862,11 +94862,11 @@
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T1181" t="n">
         <v>15</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -94915,41 +94915,41 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N1182" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O1182" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P1182" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>1111</v>
+        <v>400</v>
       </c>
       <c r="T1182" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1183">
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -94995,41 +94995,41 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N1183" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O1183" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P1183" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>1111</v>
+        <v>933</v>
       </c>
       <c r="T1183" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1184">
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95075,7 +95075,7 @@
       </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1184" t="inlineStr">
@@ -95084,32 +95084,32 @@
         </is>
       </c>
       <c r="M1184" t="n">
+        <v>100</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1184" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1184" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1184" t="n">
+        <v>800</v>
+      </c>
+      <c r="T1184" t="n">
         <v>15</v>
-      </c>
-      <c r="N1184" t="n">
-        <v>210000</v>
-      </c>
-      <c r="O1184" t="n">
-        <v>210000</v>
-      </c>
-      <c r="P1184" t="n">
-        <v>210000</v>
-      </c>
-      <c r="Q1184" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1184" t="inlineStr">
-        <is>
-          <t>Provincia de Linares</t>
-        </is>
-      </c>
-      <c r="S1184" t="n">
-        <v>525</v>
-      </c>
-      <c r="T1184" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="1185">
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -95155,29 +95155,29 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N1185" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O1185" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P1185" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1185" t="inlineStr">
@@ -95186,10 +95186,10 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T1185" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1186">
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95235,41 +95235,41 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="N1186" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O1186" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P1186" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="T1186" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1187">
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -95315,7 +95315,7 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
@@ -95324,20 +95324,20 @@
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="N1187" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="O1187" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P1187" t="n">
-        <v>214545</v>
+        <v>10000</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1187" t="inlineStr">
@@ -95346,10 +95346,10 @@
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>536</v>
+        <v>667</v>
       </c>
       <c r="T1187" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1188">
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -95395,38 +95395,38 @@
       </c>
       <c r="K1188" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="N1188" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O1188" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P1188" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="T1188" t="n">
         <v>18</v>
@@ -95447,68 +95447,548 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1189" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1189" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1189" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1189" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1189" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1189" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M1189" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q1189" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1189" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1189" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T1189" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1190" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1189" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1189" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H1189" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I1189" t="n">
-        <v>100104002</v>
-      </c>
-      <c r="J1189" t="inlineStr">
-        <is>
-          <t>Manzana</t>
-        </is>
-      </c>
-      <c r="K1189" t="inlineStr">
+      <c r="E1190" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1190" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1190" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1190" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1190" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1190" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1190" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q1190" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1190" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S1190" t="n">
+        <v>525</v>
+      </c>
+      <c r="T1190" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1191" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1191" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1191" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1191" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1191" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1191" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1191" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1191" t="n">
+        <v>380</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1191" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1191" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1191" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1191" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1192" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1192" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1192" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1192" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1192" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1192" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1192" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1192" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1192" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1192" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S1192" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1192" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1193" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1193" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1193" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1193" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1193" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1193" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1193" t="n">
+        <v>22</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>214545</v>
+      </c>
+      <c r="Q1193" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1193" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1193" t="n">
+        <v>536</v>
+      </c>
+      <c r="T1193" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1194" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1194" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1194" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1194" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1194" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1194" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1194" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1194" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1194" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1194" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1194" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1195" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1195" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1195" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1195" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1195" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1195" t="inlineStr">
         <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L1189" t="inlineStr">
+      <c r="L1195" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1189" t="n">
+      <c r="M1195" t="n">
         <v>400</v>
       </c>
-      <c r="N1189" t="n">
+      <c r="N1195" t="n">
         <v>10000</v>
       </c>
-      <c r="O1189" t="n">
+      <c r="O1195" t="n">
         <v>10000</v>
       </c>
-      <c r="P1189" t="n">
+      <c r="P1195" t="n">
         <v>10000</v>
       </c>
-      <c r="Q1189" t="inlineStr">
+      <c r="Q1195" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R1189" t="inlineStr">
+      <c r="R1195" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1189" t="n">
+      <c r="S1195" t="n">
         <v>556</v>
       </c>
-      <c r="T1189" t="n">
+      <c r="T1195" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1209"/>
+  <dimension ref="A1:T1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91960,36 +91960,36 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N1145" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O1145" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P1145" t="n">
-        <v>12000</v>
+        <v>255455</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>800</v>
+        <v>639</v>
       </c>
       <c r="T1145" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1146">
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -92035,7 +92035,7 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
@@ -92044,32 +92044,32 @@
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N1146" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O1146" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="P1146" t="n">
-        <v>10000</v>
+        <v>235556</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T1146" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1147">
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -92115,16 +92115,16 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N1147" t="n">
         <v>230000</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -92195,25 +92195,25 @@
       </c>
       <c r="K1148" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N1148" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="O1148" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P1148" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
@@ -92226,7 +92226,7 @@
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="T1148" t="n">
         <v>400</v>
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92275,25 +92275,25 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N1149" t="n">
-        <v>190000</v>
+        <v>240000</v>
       </c>
       <c r="O1149" t="n">
-        <v>190000</v>
+        <v>240000</v>
       </c>
       <c r="P1149" t="n">
-        <v>190000</v>
+        <v>240000</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
@@ -92302,11 +92302,11 @@
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="T1149" t="n">
         <v>400</v>
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -92355,7 +92355,7 @@
       </c>
       <c r="K1150" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1150" t="inlineStr">
@@ -92364,20 +92364,20 @@
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N1150" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="O1150" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="P1150" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1150" t="inlineStr">
@@ -92386,10 +92386,10 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T1150" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1151">
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44509</v>
+        <v>44270</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92435,29 +92435,29 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Fuji</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>520</v>
+        <v>55</v>
       </c>
       <c r="N1151" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O1151" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P1151" t="n">
-        <v>15615</v>
+        <v>10000</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1151" t="inlineStr">
@@ -92466,10 +92466,10 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>868</v>
+        <v>667</v>
       </c>
       <c r="T1151" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1152">
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -92515,41 +92515,41 @@
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>Fuji</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>350</v>
+        <v>4</v>
       </c>
       <c r="N1152" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O1152" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P1152" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="T1152" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1153">
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -92595,41 +92595,41 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>470</v>
+        <v>6</v>
       </c>
       <c r="N1153" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="O1153" t="n">
-        <v>16000</v>
+        <v>200000</v>
       </c>
       <c r="P1153" t="n">
-        <v>15532</v>
+        <v>200000</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>863</v>
+        <v>500</v>
       </c>
       <c r="T1153" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1154">
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92675,29 +92675,29 @@
       </c>
       <c r="K1154" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="N1154" t="n">
-        <v>11000</v>
+        <v>190000</v>
       </c>
       <c r="O1154" t="n">
-        <v>11000</v>
+        <v>190000</v>
       </c>
       <c r="P1154" t="n">
-        <v>11000</v>
+        <v>190000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1154" t="inlineStr">
@@ -92706,10 +92706,10 @@
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>611</v>
+        <v>475</v>
       </c>
       <c r="T1154" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1155">
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92755,41 +92755,41 @@
       </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="N1155" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="O1155" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="P1155" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>833</v>
+        <v>400</v>
       </c>
       <c r="T1155" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1156">
@@ -92835,29 +92835,29 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="N1156" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O1156" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P1156" t="n">
-        <v>12000</v>
+        <v>15615</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1156" t="inlineStr">
@@ -92866,7 +92866,7 @@
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>667</v>
+        <v>868</v>
       </c>
       <c r="T1156" t="n">
         <v>18</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92915,41 +92915,41 @@
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Fuji</t>
         </is>
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="N1157" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="O1157" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="P1157" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>525</v>
+        <v>667</v>
       </c>
       <c r="T1157" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1158">
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -92995,41 +92995,41 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>5</v>
+        <v>470</v>
       </c>
       <c r="N1158" t="n">
-        <v>190000</v>
+        <v>15000</v>
       </c>
       <c r="O1158" t="n">
-        <v>190000</v>
+        <v>16000</v>
       </c>
       <c r="P1158" t="n">
-        <v>190000</v>
+        <v>15532</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>475</v>
+        <v>863</v>
       </c>
       <c r="T1158" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1159">
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93075,29 +93075,29 @@
       </c>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="N1159" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="O1159" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="P1159" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1159" t="inlineStr">
@@ -93106,10 +93106,10 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>425</v>
+        <v>611</v>
       </c>
       <c r="T1159" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1160">
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93155,41 +93155,41 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="N1160" t="n">
-        <v>190000</v>
+        <v>15000</v>
       </c>
       <c r="O1160" t="n">
-        <v>190000</v>
+        <v>15000</v>
       </c>
       <c r="P1160" t="n">
-        <v>190000</v>
+        <v>15000</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>475</v>
+        <v>833</v>
       </c>
       <c r="T1160" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1161">
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93235,7 +93235,7 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
@@ -93244,20 +93244,20 @@
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="N1161" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O1161" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P1161" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1161" t="inlineStr">
@@ -93266,10 +93266,10 @@
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>375</v>
+        <v>667</v>
       </c>
       <c r="T1161" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1162">
@@ -93315,25 +93315,25 @@
       </c>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N1162" t="n">
-        <v>130000</v>
+        <v>210000</v>
       </c>
       <c r="O1162" t="n">
-        <v>130000</v>
+        <v>210000</v>
       </c>
       <c r="P1162" t="n">
-        <v>130000</v>
+        <v>210000</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
@@ -93346,7 +93346,7 @@
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="T1162" t="n">
         <v>400</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93400,36 +93400,36 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N1163" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="O1163" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="P1163" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>667</v>
+        <v>475</v>
       </c>
       <c r="T1163" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1164">
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93480,20 +93480,20 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N1164" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O1164" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P1164" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
@@ -93502,11 +93502,11 @@
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T1164" t="n">
         <v>400</v>
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93560,36 +93560,36 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="N1165" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="O1165" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="P1165" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>667</v>
+        <v>475</v>
       </c>
       <c r="T1165" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1166">
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -93644,7 +93644,7 @@
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N1166" t="n">
         <v>150000</v>
@@ -93662,7 +93662,7 @@
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1166" t="n">
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -93715,12 +93715,12 @@
       </c>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1167" t="n">
@@ -93742,7 +93742,7 @@
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1167" t="n">
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93795,41 +93795,41 @@
       </c>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O1168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P1168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T1168" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1169">
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93875,41 +93875,41 @@
       </c>
       <c r="K1169" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="N1169" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="O1169" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="P1169" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>722</v>
+        <v>400</v>
       </c>
       <c r="T1169" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1170">
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93955,29 +93955,29 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N1170" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O1170" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P1170" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
@@ -93986,10 +93986,10 @@
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T1170" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94035,7 +94035,7 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
@@ -94044,16 +94044,16 @@
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N1171" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O1171" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P1171" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94066,7 +94066,7 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="T1171" t="n">
         <v>400</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -94115,25 +94115,25 @@
       </c>
       <c r="K1172" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N1172" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="O1172" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="P1172" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94142,11 +94142,11 @@
       </c>
       <c r="R1172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>475</v>
+        <v>325</v>
       </c>
       <c r="T1172" t="n">
         <v>400</v>
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -94200,36 +94200,36 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N1173" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="O1173" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="P1173" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>425</v>
+        <v>778</v>
       </c>
       <c r="T1173" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1174">
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -94275,41 +94275,41 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="N1174" t="n">
-        <v>220000</v>
+        <v>13000</v>
       </c>
       <c r="O1174" t="n">
-        <v>220000</v>
+        <v>13000</v>
       </c>
       <c r="P1174" t="n">
-        <v>220000</v>
+        <v>13000</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>550</v>
+        <v>722</v>
       </c>
       <c r="T1174" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1175">
@@ -94355,25 +94355,25 @@
       </c>
       <c r="K1175" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1175" t="n">
         <v>5</v>
       </c>
       <c r="N1175" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O1175" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P1175" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94382,11 +94382,11 @@
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="T1175" t="n">
         <v>400</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94444,16 +94444,16 @@
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N1176" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="O1176" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="P1176" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94462,11 +94462,11 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="T1176" t="n">
         <v>400</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94515,25 +94515,25 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1177" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="O1177" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="P1177" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94546,7 +94546,7 @@
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="T1177" t="n">
         <v>400</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94604,16 +94604,16 @@
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N1178" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O1178" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P1178" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94626,7 +94626,7 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="T1178" t="n">
         <v>400</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -94675,25 +94675,25 @@
       </c>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N1179" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O1179" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P1179" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94706,7 +94706,7 @@
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T1179" t="n">
         <v>400</v>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -94755,29 +94755,29 @@
       </c>
       <c r="K1180" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="N1180" t="n">
-        <v>12000</v>
+        <v>210000</v>
       </c>
       <c r="O1180" t="n">
-        <v>12000</v>
+        <v>210000</v>
       </c>
       <c r="P1180" t="n">
-        <v>12000</v>
+        <v>210000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1180" t="inlineStr">
@@ -94786,10 +94786,10 @@
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>667</v>
+        <v>525</v>
       </c>
       <c r="T1180" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1181">
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -94847,13 +94847,13 @@
         <v>5</v>
       </c>
       <c r="N1181" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O1181" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P1181" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94862,11 +94862,11 @@
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T1181" t="n">
         <v>400</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -94920,24 +94920,24 @@
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="N1182" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O1182" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P1182" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1182" t="inlineStr">
@@ -94946,10 +94946,10 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="T1182" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1183">
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -94995,29 +94995,29 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="N1183" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="O1183" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P1183" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1183" t="inlineStr">
@@ -95026,10 +95026,10 @@
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="T1183" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1184">
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95080,24 +95080,24 @@
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="N1184" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="O1184" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="P1184" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1184" t="inlineStr">
@@ -95106,10 +95106,10 @@
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>611</v>
+        <v>400</v>
       </c>
       <c r="T1184" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1185">
@@ -95155,25 +95155,25 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N1185" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O1185" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P1185" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95186,7 +95186,7 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T1185" t="n">
         <v>18</v>
@@ -95235,41 +95235,41 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="N1186" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="O1186" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="P1186" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T1186" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1187">
@@ -95315,7 +95315,7 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
@@ -95324,20 +95324,20 @@
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="N1187" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="O1187" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="P1187" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1187" t="inlineStr">
@@ -95346,10 +95346,10 @@
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T1187" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1188">
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -95400,36 +95400,36 @@
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N1188" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O1188" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P1188" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>933</v>
+        <v>444</v>
       </c>
       <c r="T1188" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1189">
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -95475,7 +95475,7 @@
       </c>
       <c r="K1189" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1189" t="inlineStr">
@@ -95484,20 +95484,20 @@
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N1189" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O1189" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P1189" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1189" t="inlineStr">
@@ -95506,10 +95506,10 @@
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>867</v>
+        <v>611</v>
       </c>
       <c r="T1189" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1190">
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -95555,7 +95555,7 @@
       </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1190" t="inlineStr">
@@ -95564,32 +95564,32 @@
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="N1190" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O1190" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P1190" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T1190" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1191">
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -95635,29 +95635,29 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N1191" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O1191" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P1191" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1191" t="inlineStr">
@@ -95666,10 +95666,10 @@
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>733</v>
+        <v>389</v>
       </c>
       <c r="T1191" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1192">
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -95715,29 +95715,29 @@
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="N1192" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="O1192" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="P1192" t="n">
-        <v>9000</v>
+        <v>160000</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1192" t="inlineStr">
@@ -95746,10 +95746,10 @@
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T1192" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1193">
@@ -95795,7 +95795,7 @@
       </c>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1193" t="inlineStr">
@@ -95804,16 +95804,16 @@
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N1193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O1193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P1193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95822,11 +95822,11 @@
       </c>
       <c r="R1193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T1193" t="n">
         <v>15</v>
@@ -95875,25 +95875,25 @@
       </c>
       <c r="K1194" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N1194" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O1194" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P1194" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95906,7 +95906,7 @@
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T1194" t="n">
         <v>15</v>
@@ -95955,25 +95955,25 @@
       </c>
       <c r="K1195" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N1195" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O1195" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P1195" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
@@ -95982,11 +95982,11 @@
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T1195" t="n">
         <v>15</v>
@@ -96035,25 +96035,25 @@
       </c>
       <c r="K1196" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1196" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O1196" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P1196" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
@@ -96066,7 +96066,7 @@
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="T1196" t="n">
         <v>15</v>
@@ -96115,25 +96115,25 @@
       </c>
       <c r="K1197" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N1197" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O1197" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P1197" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
@@ -96142,11 +96142,11 @@
       </c>
       <c r="R1197" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T1197" t="n">
         <v>15</v>
@@ -96195,16 +96195,16 @@
       </c>
       <c r="K1198" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1198" t="n">
         <v>12000</v>
@@ -96222,7 +96222,7 @@
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1198" t="n">
@@ -96275,16 +96275,16 @@
       </c>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N1199" t="n">
         <v>10000</v>
@@ -96302,7 +96302,7 @@
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1199" t="n">
@@ -96355,25 +96355,25 @@
       </c>
       <c r="K1200" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1200" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1200" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1200" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
@@ -96382,11 +96382,11 @@
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T1200" t="n">
         <v>15</v>
@@ -96435,25 +96435,25 @@
       </c>
       <c r="K1201" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N1201" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O1201" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P1201" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
@@ -96462,11 +96462,11 @@
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T1201" t="n">
         <v>15</v>
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -96515,41 +96515,41 @@
       </c>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N1202" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O1202" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P1202" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>1111</v>
+        <v>933</v>
       </c>
       <c r="T1202" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1203">
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -96595,41 +96595,41 @@
       </c>
       <c r="K1203" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1203" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N1203" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O1203" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P1203" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T1203" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1204">
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -96675,41 +96675,41 @@
       </c>
       <c r="K1204" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1204" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1204" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1204" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1204" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1204" t="n">
         <v>15</v>
-      </c>
-      <c r="N1204" t="n">
-        <v>210000</v>
-      </c>
-      <c r="O1204" t="n">
-        <v>210000</v>
-      </c>
-      <c r="P1204" t="n">
-        <v>210000</v>
-      </c>
-      <c r="Q1204" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1204" t="inlineStr">
-        <is>
-          <t>Provincia de Linares</t>
-        </is>
-      </c>
-      <c r="S1204" t="n">
-        <v>525</v>
-      </c>
-      <c r="T1204" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="1205">
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -96755,29 +96755,29 @@
       </c>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N1205" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O1205" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1205" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1205" t="inlineStr">
@@ -96786,10 +96786,10 @@
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T1205" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1206">
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -96835,41 +96835,41 @@
       </c>
       <c r="K1206" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N1206" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O1206" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P1206" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1206" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="T1206" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1207">
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -96915,41 +96915,41 @@
       </c>
       <c r="K1207" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N1207" t="n">
-        <v>210000</v>
+        <v>20000</v>
       </c>
       <c r="O1207" t="n">
-        <v>220000</v>
+        <v>20000</v>
       </c>
       <c r="P1207" t="n">
-        <v>214545</v>
+        <v>20000</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>536</v>
+        <v>1111</v>
       </c>
       <c r="T1207" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1208">
@@ -96967,7 +96967,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -97000,33 +97000,33 @@
       </c>
       <c r="L1208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1208" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="N1208" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O1208" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P1208" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="T1208" t="n">
         <v>18</v>
@@ -97075,40 +97075,440 @@
       </c>
       <c r="K1209" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1209" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1209" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q1209" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1209" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S1209" t="n">
+        <v>525</v>
+      </c>
+      <c r="T1209" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1210" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1210" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1210" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1210" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1210" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1210" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1210" t="n">
+        <v>380</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1210" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1210" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1210" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1210" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1211" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1211" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1211" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1211" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1211" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1211" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1211" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1211" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1211" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S1211" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1211" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1212" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1212" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1212" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1212" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1212" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1212" t="n">
+        <v>22</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>214545</v>
+      </c>
+      <c r="Q1212" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1212" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1212" t="n">
+        <v>536</v>
+      </c>
+      <c r="T1212" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1213" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1213" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1213" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1213" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1213" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1213" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1213" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1213" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1213" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1213" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1214" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1214" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1214" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1214" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1214" t="inlineStr">
+        <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L1209" t="inlineStr">
+      <c r="L1214" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1209" t="n">
+      <c r="M1214" t="n">
         <v>400</v>
       </c>
-      <c r="N1209" t="n">
+      <c r="N1214" t="n">
         <v>10000</v>
       </c>
-      <c r="O1209" t="n">
+      <c r="O1214" t="n">
         <v>10000</v>
       </c>
-      <c r="P1209" t="n">
+      <c r="P1214" t="n">
         <v>10000</v>
       </c>
-      <c r="Q1209" t="inlineStr">
+      <c r="Q1214" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R1209" t="inlineStr">
+      <c r="R1214" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1209" t="n">
+      <c r="S1214" t="n">
         <v>556</v>
       </c>
-      <c r="T1209" t="n">
+      <c r="T1214" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1226"/>
+  <dimension ref="A1:T1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84524,20 +84524,20 @@
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N1052" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1052" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1052" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1052" t="inlineStr">
@@ -84549,7 +84549,7 @@
         <v>667</v>
       </c>
       <c r="T1052" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1053">
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84595,7 +84595,7 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
@@ -84604,20 +84604,20 @@
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N1053" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O1053" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1053" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1053" t="inlineStr">
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T1053" t="n">
         <v>15</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84675,7 +84675,7 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
@@ -84684,32 +84684,32 @@
         </is>
       </c>
       <c r="M1054" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1054" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1054" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1054" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1054" t="n">
         <v>15</v>
-      </c>
-      <c r="N1054" t="n">
-        <v>210000</v>
-      </c>
-      <c r="O1054" t="n">
-        <v>210000</v>
-      </c>
-      <c r="P1054" t="n">
-        <v>210000</v>
-      </c>
-      <c r="Q1054" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1054" t="inlineStr">
-        <is>
-          <t>Provincia de Linares</t>
-        </is>
-      </c>
-      <c r="S1054" t="n">
-        <v>525</v>
-      </c>
-      <c r="T1054" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="1055">
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84755,7 +84755,7 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
@@ -84764,32 +84764,32 @@
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N1055" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O1055" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P1055" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T1055" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1056">
@@ -84840,20 +84840,20 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N1056" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="O1056" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P1056" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="T1056" t="n">
         <v>400</v>
@@ -84915,7 +84915,7 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
@@ -84924,20 +84924,20 @@
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="N1057" t="n">
-        <v>210000</v>
+        <v>11000</v>
       </c>
       <c r="O1057" t="n">
-        <v>220000</v>
+        <v>11000</v>
       </c>
       <c r="P1057" t="n">
-        <v>214545</v>
+        <v>11000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1057" t="inlineStr">
@@ -84946,10 +84946,10 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>536</v>
+        <v>611</v>
       </c>
       <c r="T1057" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1058">
@@ -84995,41 +84995,41 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1058" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1058" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1058" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S1058" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1058" t="n">
         <v>400</v>
-      </c>
-      <c r="N1058" t="n">
-        <v>11000</v>
-      </c>
-      <c r="O1058" t="n">
-        <v>11000</v>
-      </c>
-      <c r="P1058" t="n">
-        <v>11000</v>
-      </c>
-      <c r="Q1058" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R1058" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1058" t="n">
-        <v>611</v>
-      </c>
-      <c r="T1058" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="1059">
@@ -85075,7 +85075,7 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
@@ -85084,32 +85084,32 @@
         </is>
       </c>
       <c r="M1059" t="n">
+        <v>22</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>214545</v>
+      </c>
+      <c r="Q1059" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1059" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1059" t="n">
+        <v>536</v>
+      </c>
+      <c r="T1059" t="n">
         <v>400</v>
-      </c>
-      <c r="N1059" t="n">
-        <v>10000</v>
-      </c>
-      <c r="O1059" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P1059" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Q1059" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R1059" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1059" t="n">
-        <v>556</v>
-      </c>
-      <c r="T1059" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="1060">
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,20 +85164,20 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="N1060" t="n">
-        <v>250000</v>
+        <v>11000</v>
       </c>
       <c r="O1060" t="n">
-        <v>250000</v>
+        <v>11000</v>
       </c>
       <c r="P1060" t="n">
-        <v>250000</v>
+        <v>11000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
@@ -85186,10 +85186,10 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="T1060" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1061">
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85235,7 +85235,7 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
@@ -85244,20 +85244,20 @@
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="N1061" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O1061" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P1061" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
@@ -85266,10 +85266,10 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="T1061" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1062">
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85324,32 +85324,32 @@
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N1062" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O1062" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="P1062" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="T1062" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1063">
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85404,32 +85404,32 @@
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="N1063" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="O1063" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P1063" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="T1063" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1064">
@@ -85475,7 +85475,7 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
@@ -85484,7 +85484,7 @@
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N1064" t="n">
         <v>10000</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N1065" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O1065" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P1065" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85582,11 +85582,11 @@
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T1065" t="n">
         <v>15</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85635,7 +85635,7 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
@@ -85644,16 +85644,16 @@
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N1066" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1066" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1066" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85662,11 +85662,11 @@
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T1066" t="n">
         <v>15</v>
@@ -85720,20 +85720,20 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N1067" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1067" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1067" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85746,7 +85746,7 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1067" t="n">
         <v>15</v>
@@ -85795,7 +85795,7 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
@@ -85804,7 +85804,7 @@
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N1068" t="n">
         <v>12000</v>
@@ -85875,7 +85875,7 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
@@ -85884,7 +85884,7 @@
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N1069" t="n">
         <v>10000</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85955,7 +85955,7 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
@@ -85964,20 +85964,20 @@
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N1070" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O1070" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1070" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
@@ -85986,7 +85986,7 @@
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T1070" t="n">
         <v>15</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86035,41 +86035,41 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="N1071" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="O1071" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="P1071" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>525</v>
+        <v>667</v>
       </c>
       <c r="T1071" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86115,41 +86115,41 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="N1072" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O1072" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P1072" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="T1072" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1073">
@@ -86200,20 +86200,20 @@
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N1073" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="O1073" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1073" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86226,7 +86226,7 @@
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="T1073" t="n">
         <v>400</v>
@@ -86280,20 +86280,20 @@
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N1074" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O1074" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P1074" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86306,7 +86306,7 @@
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T1074" t="n">
         <v>18</v>
@@ -86360,36 +86360,36 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="N1075" t="n">
-        <v>5000</v>
+        <v>190000</v>
       </c>
       <c r="O1075" t="n">
-        <v>5000</v>
+        <v>190000</v>
       </c>
       <c r="P1075" t="n">
-        <v>5000</v>
+        <v>190000</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>278</v>
+        <v>475</v>
       </c>
       <c r="T1075" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1076">
@@ -86435,41 +86435,41 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="N1076" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O1076" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="P1076" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T1076" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1077">
@@ -86515,25 +86515,25 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N1077" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O1077" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P1077" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="T1077" t="n">
         <v>18</v>
@@ -86600,20 +86600,20 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N1078" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O1078" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P1078" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86626,7 +86626,7 @@
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="T1078" t="n">
         <v>400</v>
@@ -86680,20 +86680,20 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N1079" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O1079" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1079" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T1079" t="n">
         <v>18</v>
@@ -86760,36 +86760,36 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="N1080" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="O1080" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="P1080" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>278</v>
+        <v>450</v>
       </c>
       <c r="T1080" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1081">
@@ -86835,7 +86835,7 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
@@ -86844,32 +86844,32 @@
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="N1081" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="O1081" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="P1081" t="n">
-        <v>160000</v>
+        <v>7000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="T1081" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1082">
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86915,41 +86915,41 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="N1082" t="n">
-        <v>210000</v>
+        <v>5000</v>
       </c>
       <c r="O1082" t="n">
-        <v>210000</v>
+        <v>5000</v>
       </c>
       <c r="P1082" t="n">
-        <v>210000</v>
+        <v>5000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>525</v>
+        <v>278</v>
       </c>
       <c r="T1082" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1083">
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -86995,41 +86995,41 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="N1083" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O1083" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="P1083" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T1083" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1084">
@@ -87080,20 +87080,20 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N1084" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="O1084" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1084" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87106,7 +87106,7 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="T1084" t="n">
         <v>400</v>
@@ -87160,20 +87160,20 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="N1085" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O1085" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1085" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87186,7 +87186,7 @@
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T1085" t="n">
         <v>18</v>
@@ -87240,20 +87240,20 @@
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N1086" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="O1086" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="P1086" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87266,7 +87266,7 @@
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="T1086" t="n">
         <v>400</v>
@@ -87320,20 +87320,20 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N1087" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O1087" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P1087" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T1087" t="n">
         <v>18</v>
@@ -87395,25 +87395,25 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N1088" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="O1088" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="P1088" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87422,11 +87422,11 @@
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="T1088" t="n">
         <v>400</v>
@@ -87475,25 +87475,25 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N1089" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O1089" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P1089" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87506,7 +87506,7 @@
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T1089" t="n">
         <v>18</v>
@@ -87560,20 +87560,20 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1090" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="O1090" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="P1090" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="T1090" t="n">
         <v>400</v>
@@ -87640,20 +87640,20 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="N1091" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O1091" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1091" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87666,7 +87666,7 @@
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T1091" t="n">
         <v>18</v>
@@ -87720,20 +87720,20 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N1092" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O1092" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P1092" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87746,7 +87746,7 @@
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="T1092" t="n">
         <v>400</v>
@@ -87800,20 +87800,20 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="N1093" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O1093" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P1093" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T1093" t="n">
         <v>18</v>
@@ -87875,25 +87875,25 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N1094" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O1094" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P1094" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T1094" t="n">
         <v>400</v>
@@ -87955,41 +87955,41 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="N1095" t="n">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="O1095" t="n">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="P1095" t="n">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="T1095" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1096">
@@ -88040,20 +88040,20 @@
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N1096" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="O1096" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="P1096" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
@@ -88066,7 +88066,7 @@
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="T1096" t="n">
         <v>400</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -88115,25 +88115,25 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1097" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O1097" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P1097" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88142,11 +88142,11 @@
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="T1097" t="n">
         <v>400</v>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88195,25 +88195,25 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1098" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="O1098" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P1098" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
@@ -88222,11 +88222,11 @@
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>425</v>
+        <v>275</v>
       </c>
       <c r="T1098" t="n">
         <v>400</v>
@@ -88280,20 +88280,20 @@
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N1099" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O1099" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P1099" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88306,7 +88306,7 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="T1099" t="n">
         <v>400</v>
@@ -88355,25 +88355,25 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1100" t="n">
         <v>6</v>
       </c>
       <c r="N1100" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="O1100" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="P1100" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88382,11 +88382,11 @@
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="T1100" t="n">
         <v>400</v>
@@ -88435,25 +88435,25 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N1101" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O1101" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P1101" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88462,11 +88462,11 @@
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T1101" t="n">
         <v>400</v>
@@ -88520,20 +88520,20 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N1102" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O1102" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="P1102" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88546,7 +88546,7 @@
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="T1102" t="n">
         <v>400</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88595,29 +88595,29 @@
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N1103" t="n">
-        <v>11000</v>
+        <v>160000</v>
       </c>
       <c r="O1103" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="P1103" t="n">
-        <v>11467</v>
+        <v>160000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1103" t="inlineStr">
@@ -88626,10 +88626,10 @@
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>637</v>
+        <v>400</v>
       </c>
       <c r="T1103" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1104">
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88675,25 +88675,25 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N1104" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O1104" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P1104" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88702,11 +88702,11 @@
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="T1104" t="n">
         <v>400</v>
@@ -88760,36 +88760,36 @@
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N1105" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="O1105" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="P1105" t="n">
-        <v>160000</v>
+        <v>11467</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>400</v>
+        <v>637</v>
       </c>
       <c r="T1105" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1106">
@@ -88835,41 +88835,41 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="N1106" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="O1106" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="P1106" t="n">
-        <v>11462</v>
+        <v>180000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>637</v>
+        <v>450</v>
       </c>
       <c r="T1106" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1107">
@@ -88915,25 +88915,25 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1107" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O1107" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P1107" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="T1107" t="n">
         <v>400</v>
@@ -88995,29 +88995,29 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="N1108" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="O1108" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="P1108" t="n">
-        <v>160000</v>
+        <v>11462</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
@@ -89026,10 +89026,10 @@
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>400</v>
+        <v>637</v>
       </c>
       <c r="T1108" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1109">
@@ -89075,29 +89075,29 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="N1109" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="O1109" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="P1109" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1109" t="inlineStr">
@@ -89106,10 +89106,10 @@
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>667</v>
+        <v>425</v>
       </c>
       <c r="T1109" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1110">
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89155,29 +89155,29 @@
       </c>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="N1110" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="O1110" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="P1110" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1110" t="inlineStr">
@@ -89186,10 +89186,10 @@
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>833</v>
+        <v>400</v>
       </c>
       <c r="T1110" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1111">
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89235,7 +89235,7 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
@@ -89244,16 +89244,16 @@
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N1111" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O1111" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P1111" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89266,7 +89266,7 @@
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T1111" t="n">
         <v>18</v>
@@ -89315,7 +89315,7 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
@@ -89324,16 +89324,16 @@
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N1112" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O1112" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P1112" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89346,7 +89346,7 @@
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T1112" t="n">
         <v>18</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -89395,25 +89395,25 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N1113" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O1113" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P1113" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89422,11 +89422,11 @@
       </c>
       <c r="R1113" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T1113" t="n">
         <v>18</v>
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -89475,38 +89475,38 @@
       </c>
       <c r="K1114" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N1114" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O1114" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P1114" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T1114" t="n">
         <v>18</v>
@@ -89555,7 +89555,7 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
@@ -89564,7 +89564,7 @@
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N1115" t="n">
         <v>18000</v>
@@ -89582,7 +89582,7 @@
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1115" t="n">
@@ -89635,7 +89635,7 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
@@ -89644,7 +89644,7 @@
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N1116" t="n">
         <v>12000</v>
@@ -89662,7 +89662,7 @@
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1116" t="n">
@@ -89715,38 +89715,38 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N1117" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O1117" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P1117" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T1117" t="n">
         <v>18</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89800,24 +89800,24 @@
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="N1118" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1118" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P1118" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1118" t="inlineStr">
@@ -89826,10 +89826,10 @@
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T1118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1119">
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89875,7 +89875,7 @@
       </c>
       <c r="K1119" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1119" t="inlineStr">
@@ -89884,7 +89884,7 @@
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N1119" t="n">
         <v>12000</v>
@@ -89897,19 +89897,19 @@
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T1119" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1120">
@@ -89960,20 +89960,20 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N1120" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1120" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1120" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89986,7 +89986,7 @@
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1120" t="n">
         <v>15</v>
@@ -90035,25 +90035,25 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N1121" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1121" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P1121" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90066,7 +90066,7 @@
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T1121" t="n">
         <v>15</v>
@@ -90115,25 +90115,25 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N1122" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1122" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1122" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90146,7 +90146,7 @@
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T1122" t="n">
         <v>15</v>
@@ -90200,20 +90200,20 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N1123" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1123" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1123" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90226,7 +90226,7 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1123" t="n">
         <v>15</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90275,29 +90275,29 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N1124" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O1124" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P1124" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1124" t="inlineStr">
@@ -90306,10 +90306,10 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="T1124" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1125">
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90355,29 +90355,29 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N1125" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="O1125" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="P1125" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
@@ -90386,10 +90386,10 @@
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T1125" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1126">
@@ -90440,20 +90440,20 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N1126" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O1126" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P1126" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
@@ -90466,7 +90466,7 @@
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="T1126" t="n">
         <v>400</v>
@@ -90515,25 +90515,25 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1127" t="n">
         <v>8</v>
       </c>
       <c r="N1127" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O1127" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P1127" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90546,7 +90546,7 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="T1127" t="n">
         <v>400</v>
@@ -90595,25 +90595,25 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N1128" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="O1128" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="P1128" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90626,7 +90626,7 @@
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="T1128" t="n">
         <v>400</v>
@@ -90680,20 +90680,20 @@
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1129" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O1129" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P1129" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90706,7 +90706,7 @@
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="T1129" t="n">
         <v>400</v>
@@ -90755,25 +90755,25 @@
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N1130" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O1130" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P1130" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90786,7 +90786,7 @@
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T1130" t="n">
         <v>400</v>
@@ -90835,25 +90835,25 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N1131" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O1131" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P1131" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90866,7 +90866,7 @@
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="T1131" t="n">
         <v>400</v>
@@ -90920,20 +90920,20 @@
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N1132" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="O1132" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="P1132" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90946,7 +90946,7 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="T1132" t="n">
         <v>400</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -90995,25 +90995,25 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N1133" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="O1133" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="P1133" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91022,11 +91022,11 @@
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="T1133" t="n">
         <v>400</v>
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91075,25 +91075,25 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N1134" t="n">
-        <v>240000</v>
+        <v>110000</v>
       </c>
       <c r="O1134" t="n">
-        <v>240000</v>
+        <v>110000</v>
       </c>
       <c r="P1134" t="n">
-        <v>240000</v>
+        <v>110000</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91102,11 +91102,11 @@
       </c>
       <c r="R1134" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="T1134" t="n">
         <v>400</v>
@@ -91155,25 +91155,25 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N1135" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O1135" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P1135" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91182,11 +91182,11 @@
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="T1135" t="n">
         <v>400</v>
@@ -91235,7 +91235,7 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
@@ -91244,32 +91244,32 @@
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>660</v>
+        <v>12</v>
       </c>
       <c r="N1136" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="O1136" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="P1136" t="n">
-        <v>11530</v>
+        <v>240000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>641</v>
+        <v>600</v>
       </c>
       <c r="T1136" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1137">
@@ -91315,7 +91315,7 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
@@ -91324,7 +91324,7 @@
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1137" t="n">
         <v>240000</v>
@@ -91342,7 +91342,7 @@
       </c>
       <c r="R1137" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1137" t="n">
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91395,29 +91395,29 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>6</v>
+        <v>660</v>
       </c>
       <c r="N1138" t="n">
-        <v>270000</v>
+        <v>11000</v>
       </c>
       <c r="O1138" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P1138" t="n">
-        <v>270000</v>
+        <v>11530</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1138" t="inlineStr">
@@ -91426,10 +91426,10 @@
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="T1138" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1139">
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91475,25 +91475,25 @@
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N1139" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O1139" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P1139" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91502,11 +91502,11 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T1139" t="n">
         <v>400</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91564,16 +91564,16 @@
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N1140" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="O1140" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P1140" t="n">
-        <v>214444</v>
+        <v>270000</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91586,7 +91586,7 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>536</v>
+        <v>675</v>
       </c>
       <c r="T1140" t="n">
         <v>400</v>
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91640,20 +91640,20 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N1141" t="n">
-        <v>190000</v>
+        <v>280000</v>
       </c>
       <c r="O1141" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P1141" t="n">
-        <v>195333</v>
+        <v>280000</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91662,11 +91662,11 @@
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>488</v>
+        <v>700</v>
       </c>
       <c r="T1141" t="n">
         <v>400</v>
@@ -91715,41 +91715,41 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>750</v>
+        <v>18</v>
       </c>
       <c r="N1142" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="O1142" t="n">
-        <v>9000</v>
+        <v>220000</v>
       </c>
       <c r="P1142" t="n">
-        <v>8533</v>
+        <v>214444</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="T1142" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91795,7 +91795,7 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
@@ -91804,32 +91804,32 @@
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>520</v>
+        <v>15</v>
       </c>
       <c r="N1143" t="n">
-        <v>12000</v>
+        <v>190000</v>
       </c>
       <c r="O1143" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="P1143" t="n">
-        <v>12577</v>
+        <v>195333</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>699</v>
+        <v>488</v>
       </c>
       <c r="T1143" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1144">
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91875,7 +91875,7 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
@@ -91884,16 +91884,16 @@
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="N1144" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1144" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P1144" t="n">
-        <v>12000</v>
+        <v>8533</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91902,11 +91902,11 @@
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="T1144" t="n">
         <v>18</v>
@@ -91955,7 +91955,7 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
@@ -91964,16 +91964,16 @@
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="N1145" t="n">
         <v>12000</v>
       </c>
       <c r="O1145" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P1145" t="n">
-        <v>12000</v>
+        <v>12577</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
@@ -91982,11 +91982,11 @@
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="T1145" t="n">
         <v>18</v>
@@ -92035,25 +92035,25 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N1146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P1146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
@@ -92062,11 +92062,11 @@
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T1146" t="n">
         <v>18</v>
@@ -92115,7 +92115,7 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
@@ -92124,7 +92124,7 @@
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N1147" t="n">
         <v>12000</v>
@@ -92142,7 +92142,7 @@
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1147" t="n">
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -92195,16 +92195,16 @@
       </c>
       <c r="K1148" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="N1148" t="n">
         <v>14000</v>
@@ -92217,19 +92217,19 @@
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="T1148" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1149">
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92275,16 +92275,16 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N1149" t="n">
         <v>12000</v>
@@ -92297,19 +92297,19 @@
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T1149" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1150">
@@ -92360,20 +92360,20 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1150" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1150" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1150" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92386,7 +92386,7 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1150" t="n">
         <v>15</v>
@@ -92435,25 +92435,25 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N1151" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1151" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P1151" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92466,7 +92466,7 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T1151" t="n">
         <v>15</v>
@@ -92515,25 +92515,25 @@
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N1152" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1152" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1152" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92546,7 +92546,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T1152" t="n">
         <v>15</v>
@@ -92600,20 +92600,20 @@
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N1153" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1153" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1153" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92626,7 +92626,7 @@
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1153" t="n">
         <v>15</v>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92675,41 +92675,41 @@
       </c>
       <c r="K1154" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N1154" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1154" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P1154" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T1154" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1155">
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92755,41 +92755,41 @@
       </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="N1155" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1155" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1155" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1155" t="n">
         <v>667</v>
       </c>
       <c r="T1155" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1156">
@@ -92835,41 +92835,41 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="N1156" t="n">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="O1156" t="n">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="P1156" t="n">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>375</v>
+        <v>778</v>
       </c>
       <c r="T1156" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1157">
@@ -92920,36 +92920,36 @@
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="N1157" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="O1157" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="P1157" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>325</v>
+        <v>667</v>
       </c>
       <c r="T1157" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1158">
@@ -92995,25 +92995,25 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N1158" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O1158" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P1158" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93026,7 +93026,7 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="T1158" t="n">
         <v>400</v>
@@ -93075,25 +93075,25 @@
       </c>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1159" t="n">
         <v>5</v>
       </c>
       <c r="N1159" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O1159" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P1159" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="T1159" t="n">
         <v>400</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93155,29 +93155,29 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="N1160" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O1160" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="P1160" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1160" t="inlineStr">
@@ -93186,10 +93186,10 @@
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>933</v>
+        <v>450</v>
       </c>
       <c r="T1160" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1161">
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93235,29 +93235,29 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="N1161" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="O1161" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="P1161" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1161" t="inlineStr">
@@ -93266,10 +93266,10 @@
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T1161" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1162">
@@ -93315,7 +93315,7 @@
       </c>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1162" t="inlineStr">
@@ -93324,7 +93324,7 @@
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N1162" t="n">
         <v>14000</v>
@@ -93395,7 +93395,7 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1163" t="inlineStr">
@@ -93404,7 +93404,7 @@
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N1163" t="n">
         <v>12000</v>
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93475,16 +93475,16 @@
       </c>
       <c r="K1164" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N1164" t="n">
         <v>14000</v>
@@ -93497,19 +93497,19 @@
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="T1164" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1165">
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93555,16 +93555,16 @@
       </c>
       <c r="K1165" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N1165" t="n">
         <v>12000</v>
@@ -93577,19 +93577,19 @@
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1165" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1166">
@@ -93635,41 +93635,41 @@
       </c>
       <c r="K1166" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="N1166" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="O1166" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="P1166" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>450</v>
+        <v>778</v>
       </c>
       <c r="T1166" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1167">
@@ -93715,41 +93715,41 @@
       </c>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="N1167" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="O1167" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="P1167" t="n">
-        <v>160000</v>
+        <v>12000</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="T1167" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1168">
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93795,41 +93795,41 @@
       </c>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="N1168" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="O1168" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P1168" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="T1168" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1169">
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93875,7 +93875,7 @@
       </c>
       <c r="K1169" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1169" t="inlineStr">
@@ -93884,32 +93884,32 @@
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="N1169" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="O1169" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="P1169" t="n">
-        <v>8000</v>
+        <v>160000</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="T1169" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1170">
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93955,41 +93955,41 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N1170" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O1170" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P1170" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T1170" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94035,7 +94035,7 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
@@ -94044,16 +94044,16 @@
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N1171" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1171" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P1171" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94066,7 +94066,7 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T1171" t="n">
         <v>15</v>
@@ -94115,7 +94115,7 @@
       </c>
       <c r="K1172" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1172" t="inlineStr">
@@ -94124,7 +94124,7 @@
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N1172" t="n">
         <v>14000</v>
@@ -94195,7 +94195,7 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
@@ -94204,7 +94204,7 @@
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N1173" t="n">
         <v>10000</v>
@@ -94275,7 +94275,7 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
@@ -94284,7 +94284,7 @@
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N1174" t="n">
         <v>14000</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94355,41 +94355,41 @@
       </c>
       <c r="K1175" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N1175" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O1175" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P1175" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T1175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1176">
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94435,25 +94435,25 @@
       </c>
       <c r="K1176" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="N1176" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O1176" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P1176" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94462,11 +94462,11 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T1176" t="n">
         <v>18</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94520,20 +94520,20 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N1177" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O1177" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P1177" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94542,11 +94542,11 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T1177" t="n">
         <v>18</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94595,29 +94595,29 @@
       </c>
       <c r="K1178" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="N1178" t="n">
-        <v>170000</v>
+        <v>18000</v>
       </c>
       <c r="O1178" t="n">
-        <v>170000</v>
+        <v>18000</v>
       </c>
       <c r="P1178" t="n">
-        <v>170000</v>
+        <v>18000</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1178" t="inlineStr">
@@ -94626,10 +94626,10 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>425</v>
+        <v>1000</v>
       </c>
       <c r="T1178" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1179">
@@ -94675,7 +94675,7 @@
       </c>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1179" t="inlineStr">
@@ -94684,16 +94684,16 @@
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N1179" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O1179" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P1179" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94706,7 +94706,7 @@
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T1179" t="n">
         <v>18</v>
@@ -94755,7 +94755,7 @@
       </c>
       <c r="K1180" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1180" t="inlineStr">
@@ -94764,16 +94764,16 @@
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N1180" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O1180" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P1180" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94786,7 +94786,7 @@
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T1180" t="n">
         <v>400</v>
@@ -94840,24 +94840,24 @@
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="N1181" t="n">
-        <v>140000</v>
+        <v>15000</v>
       </c>
       <c r="O1181" t="n">
-        <v>140000</v>
+        <v>15000</v>
       </c>
       <c r="P1181" t="n">
-        <v>140000</v>
+        <v>15000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1181" t="inlineStr">
@@ -94866,10 +94866,10 @@
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>350</v>
+        <v>833</v>
       </c>
       <c r="T1181" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1182">
@@ -94915,29 +94915,29 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="N1182" t="n">
-        <v>16000</v>
+        <v>160000</v>
       </c>
       <c r="O1182" t="n">
-        <v>16000</v>
+        <v>160000</v>
       </c>
       <c r="P1182" t="n">
-        <v>16000</v>
+        <v>160000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1182" t="inlineStr">
@@ -94946,10 +94946,10 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="T1182" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1183">
@@ -94995,25 +94995,25 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N1183" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O1183" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P1183" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95026,7 +95026,7 @@
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="T1183" t="n">
         <v>400</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95075,7 +95075,7 @@
       </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1184" t="inlineStr">
@@ -95084,16 +95084,16 @@
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="N1184" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O1184" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P1184" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95102,11 +95102,11 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T1184" t="n">
         <v>18</v>
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -95155,25 +95155,25 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N1185" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O1185" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P1185" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95186,7 +95186,7 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="T1185" t="n">
         <v>400</v>
@@ -95240,24 +95240,24 @@
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="N1186" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O1186" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P1186" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1186" t="inlineStr">
@@ -95266,7 +95266,7 @@
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T1186" t="n">
         <v>18</v>
@@ -95320,20 +95320,20 @@
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N1187" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O1187" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P1187" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95346,7 +95346,7 @@
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T1187" t="n">
         <v>400</v>
@@ -95400,20 +95400,20 @@
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N1188" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1188" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1188" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95426,7 +95426,7 @@
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T1188" t="n">
         <v>18</v>
@@ -95480,36 +95480,36 @@
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="N1189" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O1189" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P1189" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T1189" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1190">
@@ -95555,29 +95555,29 @@
       </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N1190" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O1190" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P1190" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1190" t="inlineStr">
@@ -95586,7 +95586,7 @@
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T1190" t="n">
         <v>18</v>
@@ -95635,41 +95635,41 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="N1191" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="O1191" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P1191" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T1191" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1192">
@@ -95720,24 +95720,24 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N1192" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O1192" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P1192" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1192" t="inlineStr">
@@ -95746,7 +95746,7 @@
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T1192" t="n">
         <v>18</v>
@@ -95800,20 +95800,20 @@
       </c>
       <c r="L1193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1193" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O1193" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P1193" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95826,7 +95826,7 @@
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="T1193" t="n">
         <v>400</v>
@@ -95880,20 +95880,20 @@
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="N1194" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O1194" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P1194" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95906,7 +95906,7 @@
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T1194" t="n">
         <v>18</v>
@@ -95960,36 +95960,36 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>280</v>
+        <v>4</v>
       </c>
       <c r="N1195" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="O1195" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="P1195" t="n">
-        <v>7000</v>
+        <v>180000</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="T1195" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1196">
@@ -96035,7 +96035,7 @@
       </c>
       <c r="K1196" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1196" t="inlineStr">
@@ -96044,32 +96044,32 @@
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="N1196" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="O1196" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="P1196" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="T1196" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1197">
@@ -96115,7 +96115,7 @@
       </c>
       <c r="K1197" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1197" t="inlineStr">
@@ -96124,32 +96124,32 @@
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>7</v>
+        <v>280</v>
       </c>
       <c r="N1197" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="O1197" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="P1197" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="T1197" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1198">
@@ -96195,7 +96195,7 @@
       </c>
       <c r="K1198" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1198" t="inlineStr">
@@ -96204,16 +96204,16 @@
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N1198" t="n">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="O1198" t="n">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="P1198" t="n">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96226,7 +96226,7 @@
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="T1198" t="n">
         <v>400</v>
@@ -96247,7 +96247,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -96275,41 +96275,41 @@
       </c>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="N1199" t="n">
-        <v>19000</v>
+        <v>130000</v>
       </c>
       <c r="O1199" t="n">
-        <v>19000</v>
+        <v>130000</v>
       </c>
       <c r="P1199" t="n">
-        <v>19000</v>
+        <v>130000</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>1056</v>
+        <v>325</v>
       </c>
       <c r="T1199" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1200">
@@ -96327,7 +96327,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -96355,7 +96355,7 @@
       </c>
       <c r="K1200" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1200" t="inlineStr">
@@ -96364,16 +96364,16 @@
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N1200" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="O1200" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P1200" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
@@ -96386,7 +96386,7 @@
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="T1200" t="n">
         <v>400</v>
@@ -96435,41 +96435,41 @@
       </c>
       <c r="K1201" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N1201" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O1201" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P1201" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>733</v>
+        <v>1056</v>
       </c>
       <c r="T1201" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1202">
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -96515,41 +96515,41 @@
       </c>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="N1202" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="O1202" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="P1202" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>1111</v>
+        <v>600</v>
       </c>
       <c r="T1202" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1203">
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -96595,41 +96595,41 @@
       </c>
       <c r="K1203" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1203" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N1203" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O1203" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P1203" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>833</v>
+        <v>733</v>
       </c>
       <c r="T1203" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1204">
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -96684,16 +96684,16 @@
         </is>
       </c>
       <c r="M1204" t="n">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N1204" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O1204" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P1204" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
@@ -96706,7 +96706,7 @@
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="T1204" t="n">
         <v>18</v>
@@ -96755,7 +96755,7 @@
       </c>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1205" t="inlineStr">
@@ -96764,16 +96764,16 @@
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N1205" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O1205" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P1205" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96786,7 +96786,7 @@
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T1205" t="n">
         <v>18</v>
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -96835,41 +96835,41 @@
       </c>
       <c r="K1206" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="N1206" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="O1206" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="P1206" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1206" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T1206" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1207">
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -96915,41 +96915,41 @@
       </c>
       <c r="K1207" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="N1207" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="O1207" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="P1207" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>425</v>
+        <v>778</v>
       </c>
       <c r="T1207" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1208">
@@ -96995,7 +96995,7 @@
       </c>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1208" t="inlineStr">
@@ -97004,16 +97004,16 @@
         </is>
       </c>
       <c r="M1208" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1208" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O1208" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P1208" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
@@ -97022,11 +97022,11 @@
       </c>
       <c r="R1208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="T1208" t="n">
         <v>400</v>
@@ -97075,7 +97075,7 @@
       </c>
       <c r="K1209" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1209" t="inlineStr">
@@ -97102,7 +97102,7 @@
       </c>
       <c r="R1209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1209" t="n">
@@ -97155,25 +97155,25 @@
       </c>
       <c r="K1210" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1210" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1210" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="O1210" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="P1210" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="Q1210" t="inlineStr">
         <is>
@@ -97186,7 +97186,7 @@
         </is>
       </c>
       <c r="S1210" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="T1210" t="n">
         <v>400</v>
@@ -97235,7 +97235,7 @@
       </c>
       <c r="K1211" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1211" t="inlineStr">
@@ -97244,16 +97244,16 @@
         </is>
       </c>
       <c r="M1211" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N1211" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="O1211" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="P1211" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="Q1211" t="inlineStr">
         <is>
@@ -97266,7 +97266,7 @@
         </is>
       </c>
       <c r="S1211" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="T1211" t="n">
         <v>400</v>
@@ -97287,7 +97287,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -97315,25 +97315,25 @@
       </c>
       <c r="K1212" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1212" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N1212" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="O1212" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="P1212" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="Q1212" t="inlineStr">
         <is>
@@ -97346,7 +97346,7 @@
         </is>
       </c>
       <c r="S1212" t="n">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="T1212" t="n">
         <v>400</v>
@@ -97367,7 +97367,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -97395,7 +97395,7 @@
       </c>
       <c r="K1213" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1213" t="inlineStr">
@@ -97407,13 +97407,13 @@
         <v>5</v>
       </c>
       <c r="N1213" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="O1213" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="P1213" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="Q1213" t="inlineStr">
         <is>
@@ -97426,7 +97426,7 @@
         </is>
       </c>
       <c r="S1213" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="T1213" t="n">
         <v>400</v>
@@ -97480,20 +97480,20 @@
       </c>
       <c r="L1214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1214" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N1214" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O1214" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="P1214" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="Q1214" t="inlineStr">
         <is>
@@ -97506,7 +97506,7 @@
         </is>
       </c>
       <c r="S1214" t="n">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="T1214" t="n">
         <v>400</v>
@@ -97555,25 +97555,25 @@
       </c>
       <c r="K1215" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1215" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1215" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O1215" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P1215" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q1215" t="inlineStr">
         <is>
@@ -97586,7 +97586,7 @@
         </is>
       </c>
       <c r="S1215" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="T1215" t="n">
         <v>400</v>
@@ -97635,25 +97635,25 @@
       </c>
       <c r="K1216" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1216" t="n">
         <v>7</v>
       </c>
       <c r="N1216" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O1216" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P1216" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="Q1216" t="inlineStr">
         <is>
@@ -97666,7 +97666,7 @@
         </is>
       </c>
       <c r="S1216" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="T1216" t="n">
         <v>400</v>
@@ -97720,20 +97720,20 @@
       </c>
       <c r="L1217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1217" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N1217" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O1217" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P1217" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q1217" t="inlineStr">
         <is>
@@ -97746,7 +97746,7 @@
         </is>
       </c>
       <c r="S1217" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="T1217" t="n">
         <v>400</v>
@@ -97795,7 +97795,7 @@
       </c>
       <c r="K1218" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1218" t="inlineStr">
@@ -97804,16 +97804,16 @@
         </is>
       </c>
       <c r="M1218" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1218" t="n">
-        <v>125000</v>
+        <v>160000</v>
       </c>
       <c r="O1218" t="n">
-        <v>125000</v>
+        <v>160000</v>
       </c>
       <c r="P1218" t="n">
-        <v>125000</v>
+        <v>160000</v>
       </c>
       <c r="Q1218" t="inlineStr">
         <is>
@@ -97826,7 +97826,7 @@
         </is>
       </c>
       <c r="S1218" t="n">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="T1218" t="n">
         <v>400</v>
@@ -97847,7 +97847,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -97875,41 +97875,41 @@
       </c>
       <c r="K1219" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1219" t="n">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="N1219" t="n">
-        <v>16000</v>
+        <v>130000</v>
       </c>
       <c r="O1219" t="n">
-        <v>17000</v>
+        <v>130000</v>
       </c>
       <c r="P1219" t="n">
-        <v>16529</v>
+        <v>130000</v>
       </c>
       <c r="Q1219" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1219" t="n">
-        <v>918</v>
+        <v>325</v>
       </c>
       <c r="T1219" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1220">
@@ -97927,7 +97927,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -97955,41 +97955,41 @@
       </c>
       <c r="K1220" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1220" t="n">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="N1220" t="n">
-        <v>15000</v>
+        <v>125000</v>
       </c>
       <c r="O1220" t="n">
-        <v>16000</v>
+        <v>125000</v>
       </c>
       <c r="P1220" t="n">
-        <v>15538</v>
+        <v>125000</v>
       </c>
       <c r="Q1220" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1220" t="n">
-        <v>863</v>
+        <v>312</v>
       </c>
       <c r="T1220" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1221">
@@ -98035,7 +98035,7 @@
       </c>
       <c r="K1221" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1221" t="inlineStr">
@@ -98044,16 +98044,16 @@
         </is>
       </c>
       <c r="M1221" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N1221" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O1221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P1221" t="n">
-        <v>15600</v>
+        <v>16529</v>
       </c>
       <c r="Q1221" t="inlineStr">
         <is>
@@ -98066,7 +98066,7 @@
         </is>
       </c>
       <c r="S1221" t="n">
-        <v>867</v>
+        <v>918</v>
       </c>
       <c r="T1221" t="n">
         <v>18</v>
@@ -98087,7 +98087,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1222" t="n">
         <v>13</v>
@@ -98115,38 +98115,38 @@
       </c>
       <c r="K1222" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1222" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="N1222" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O1222" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P1222" t="n">
-        <v>12000</v>
+        <v>15538</v>
       </c>
       <c r="Q1222" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1222" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1222" t="n">
-        <v>667</v>
+        <v>863</v>
       </c>
       <c r="T1222" t="n">
         <v>18</v>
@@ -98167,7 +98167,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1223" t="n">
         <v>13</v>
@@ -98195,38 +98195,38 @@
       </c>
       <c r="K1223" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1223" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="N1223" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O1223" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P1223" t="n">
-        <v>12000</v>
+        <v>15600</v>
       </c>
       <c r="Q1223" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1223" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T1223" t="n">
         <v>18</v>
@@ -98275,7 +98275,7 @@
       </c>
       <c r="K1224" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1224" t="inlineStr">
@@ -98284,16 +98284,16 @@
         </is>
       </c>
       <c r="M1224" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N1224" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O1224" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1224" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q1224" t="inlineStr">
         <is>
@@ -98302,11 +98302,11 @@
       </c>
       <c r="R1224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1224" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T1224" t="n">
         <v>18</v>
@@ -98327,7 +98327,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -98355,29 +98355,29 @@
       </c>
       <c r="K1225" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1225" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1225" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="N1225" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O1225" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P1225" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q1225" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1225" t="inlineStr">
@@ -98386,7 +98386,7 @@
         </is>
       </c>
       <c r="S1225" t="n">
-        <v>1111</v>
+        <v>667</v>
       </c>
       <c r="T1225" t="n">
         <v>18</v>
@@ -98407,68 +98407,228 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1226" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1226" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1226" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1226" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1226" t="n">
+        <v>280</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1226" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1226" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1226" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1226" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1227" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E1226" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1226" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1226" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I1226" t="n">
-        <v>100104002</v>
-      </c>
-      <c r="J1226" t="inlineStr">
-        <is>
-          <t>Manzana</t>
-        </is>
-      </c>
-      <c r="K1226" t="inlineStr">
+      <c r="E1227" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1227" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1227" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1227" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1227" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M1227" t="n">
+        <v>65</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q1227" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1227" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1227" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T1227" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1228" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1228" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1228" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1228" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1228" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1228" t="inlineStr">
         <is>
           <t>Granny Smith</t>
         </is>
       </c>
-      <c r="L1226" t="inlineStr">
+      <c r="L1228" t="inlineStr">
         <is>
           <t>Calibre 80</t>
         </is>
       </c>
-      <c r="M1226" t="n">
+      <c r="M1228" t="n">
         <v>120</v>
       </c>
-      <c r="N1226" t="n">
+      <c r="N1228" t="n">
         <v>20000</v>
       </c>
-      <c r="O1226" t="n">
+      <c r="O1228" t="n">
         <v>20000</v>
       </c>
-      <c r="P1226" t="n">
+      <c r="P1228" t="n">
         <v>20000</v>
       </c>
-      <c r="Q1226" t="inlineStr">
+      <c r="Q1228" t="inlineStr">
         <is>
           <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
-      <c r="R1226" t="inlineStr">
+      <c r="R1228" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1226" t="n">
+      <c r="S1228" t="n">
         <v>1111</v>
       </c>
-      <c r="T1226" t="n">
+      <c r="T1228" t="n">
         <v>18</v>
       </c>
     </row>
